--- a/Analisis Antonio/Analisis Antonio.xlsx
+++ b/Analisis Antonio/Analisis Antonio.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elilo\Desktop\Apps\R Studio\Analisis articulo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\elissa\Analisis\Analisis-R\Analisis Antonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D5517C8-E773-4798-A2E1-00879AFC2523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B502173-73E4-4B02-83A0-28F79D891B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC16590C-9FA7-46B7-9DF7-308A7576428D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AC16590C-9FA7-46B7-9DF7-308A7576428D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="RC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,8 +71,43 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Alejandra</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{DBA7E409-0985-4137-977D-C49ED459DC4A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alejandra:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1: Hombre
+2: Mujer</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t># SUJETO</t>
   </si>
@@ -152,6 +188,21 @@
   </si>
   <si>
     <t>Tgt+NTgt_IE</t>
+  </si>
+  <si>
+    <t>Hom_IE_RC</t>
+  </si>
+  <si>
+    <t>NTgt_IE_RC</t>
+  </si>
+  <si>
+    <t>Tgt_IE_RC</t>
+  </si>
+  <si>
+    <t>Tgt+NTgt_IE_RC</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -254,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -277,6 +328,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,17 +654,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2231DC3-60B7-4259-919E-06AC75018A9F}">
   <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="E28" workbookViewId="0">
+      <selection sqref="A1:AA63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
@@ -769,7 +830,7 @@
         <v>360.81865030674851</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
@@ -852,7 +913,7 @@
         <v>518.6248034934498</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
@@ -935,7 +996,7 @@
         <v>463.98124137931035</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1004</v>
       </c>
@@ -1018,7 +1079,7 @@
         <v>545.16401913875598</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1005</v>
       </c>
@@ -1101,7 +1162,7 @@
         <v>552.1510297482838</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1006</v>
       </c>
@@ -1184,7 +1245,7 @@
         <v>420.50467741935483</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1007</v>
       </c>
@@ -1267,7 +1328,7 @@
         <v>458.22834437086095</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1009</v>
       </c>
@@ -1350,7 +1411,7 @@
         <v>409.08182212581346</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1010</v>
       </c>
@@ -1433,7 +1494,7 @@
         <v>494.03376975169306</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1011</v>
       </c>
@@ -1516,7 +1577,7 @@
         <v>539.71921568627454</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1012</v>
       </c>
@@ -1599,7 +1660,7 @@
         <v>495.27692307692308</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1013</v>
       </c>
@@ -1682,7 +1743,7 @@
         <v>479.62762105263158</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1014</v>
       </c>
@@ -1765,7 +1826,7 @@
         <v>421.86473029045646</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1015</v>
       </c>
@@ -1848,7 +1909,7 @@
         <v>536.81550660792959</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1016</v>
       </c>
@@ -1931,7 +1992,7 @@
         <v>508.52100686498858</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1017</v>
       </c>
@@ -2014,7 +2075,7 @@
         <v>472.86926174496642</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1018</v>
       </c>
@@ -2097,7 +2158,7 @@
         <v>432.96197938144326</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1021</v>
       </c>
@@ -2180,7 +2241,7 @@
         <v>491.35153846153844</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1022</v>
       </c>
@@ -2263,7 +2324,7 @@
         <v>532.19211678832119</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1023</v>
       </c>
@@ -2346,7 +2407,7 @@
         <v>597.65895781637721</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1024</v>
       </c>
@@ -2429,7 +2490,7 @@
         <v>509.76905660377361</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1025</v>
       </c>
@@ -2512,7 +2573,7 @@
         <v>553.84</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1026</v>
       </c>
@@ -2595,7 +2656,7 @@
         <v>498.68228571428568</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1028</v>
       </c>
@@ -2678,7 +2739,7 @@
         <v>539.25769911504426</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1029</v>
       </c>
@@ -2761,7 +2822,7 @@
         <v>923.44356687898096</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1030</v>
       </c>
@@ -2844,7 +2905,7 @@
         <v>485.35087248322151</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2001</v>
       </c>
@@ -2927,7 +2988,7 @@
         <v>462.86709677419356</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2002</v>
       </c>
@@ -3010,7 +3071,7 @@
         <v>483.41468354430378</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2003</v>
       </c>
@@ -3093,7 +3154,7 @@
         <v>483.79489932885906</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2004</v>
       </c>
@@ -3176,7 +3237,7 @@
         <v>517.9759509202454</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2005</v>
       </c>
@@ -3259,7 +3320,7 @@
         <v>446.09860465116276</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2007</v>
       </c>
@@ -3342,7 +3403,7 @@
         <v>595.58110552763821</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2008</v>
       </c>
@@ -3425,7 +3486,7 @@
         <v>512.06399999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2009</v>
       </c>
@@ -3508,7 +3569,7 @@
         <v>522.50210526315789</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2010</v>
       </c>
@@ -3591,7 +3652,7 @@
         <v>599.18526315789472</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2011</v>
       </c>
@@ -3674,7 +3735,7 @@
         <v>482.51612903225805</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2013</v>
       </c>
@@ -3757,7 +3818,7 @@
         <v>470.46208695652177</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2014</v>
       </c>
@@ -3840,7 +3901,7 @@
         <v>552.26935622317603</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2015</v>
       </c>
@@ -3923,7 +3984,7 @@
         <v>563.01146853146849</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2016</v>
       </c>
@@ -4006,7 +4067,7 @@
         <v>587.19793548387099</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2017</v>
       </c>
@@ -4089,7 +4150,7 @@
         <v>469.51636363636362</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2018</v>
       </c>
@@ -4172,7 +4233,7 @@
         <v>498.45369863013701</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2019</v>
       </c>
@@ -4255,7 +4316,7 @@
         <v>684.96399999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2020</v>
       </c>
@@ -4338,7 +4399,7 @@
         <v>511.41631578947363</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2021</v>
       </c>
@@ -4421,7 +4482,7 @@
         <v>493.09668874172183</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2022</v>
       </c>
@@ -4504,7 +4565,7 @@
         <v>486.69797647058823</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2024</v>
       </c>
@@ -4587,7 +4648,7 @@
         <v>463.98577405857742</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2025</v>
       </c>
@@ -4670,7 +4731,7 @@
         <v>591.27329032258069</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2026</v>
       </c>
@@ -4753,7 +4814,7 @@
         <v>475.63559251559252</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2027</v>
       </c>
@@ -4836,7 +4897,7 @@
         <v>556.62260869565216</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2028</v>
       </c>
@@ -4919,7 +4980,7 @@
         <v>578.63205298013258</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2029</v>
       </c>
@@ -5002,7 +5063,7 @@
         <v>560.13967058823528</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2030</v>
       </c>
@@ -5085,7 +5146,7 @@
         <v>532.40526315789475</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2032</v>
       </c>
@@ -5168,7 +5229,7 @@
         <v>532.38545454545454</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2033</v>
       </c>
@@ -5251,7 +5312,7 @@
         <v>452.69731343283581</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2034</v>
       </c>
@@ -5334,7 +5395,7 @@
         <v>516.36464692482912</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2036</v>
       </c>
@@ -5417,7 +5478,7 @@
         <v>518.77736842105264</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2037</v>
       </c>
@@ -5500,7 +5561,7 @@
         <v>622.89559322033892</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2038</v>
       </c>
@@ -5583,7 +5644,7 @@
         <v>398.84869565217394</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>2039</v>
       </c>
@@ -5666,7 +5727,7 @@
         <v>482.29090909090905</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>2040</v>
       </c>
@@ -5749,7 +5810,7 @@
         <v>558.70892307692316</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>2041</v>
       </c>
@@ -5829,6 +5890,2996 @@
         <v>621.64180995475101</v>
       </c>
       <c r="AA63">
+        <v>695.74511166253114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA5D13E-DFC5-443F-81F5-809FEDA2F56A}">
+  <dimension ref="A1:O63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>21</v>
+      </c>
+      <c r="D2" s="11">
+        <v>93.253968253968253</v>
+      </c>
+      <c r="E2" s="11">
+        <v>93.253968253968253</v>
+      </c>
+      <c r="F2" s="11">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="G2" s="11">
+        <v>97.023809523809518</v>
+      </c>
+      <c r="H2" s="13">
+        <v>351.37</v>
+      </c>
+      <c r="I2" s="13">
+        <v>357.03</v>
+      </c>
+      <c r="J2" s="13">
+        <v>362</v>
+      </c>
+      <c r="K2" s="13">
+        <v>350.08</v>
+      </c>
+      <c r="L2" s="11">
+        <v>376.78825531914896</v>
+      </c>
+      <c r="M2" s="11">
+        <v>382.85770212765959</v>
+      </c>
+      <c r="N2" s="11">
+        <v>377.73913043478262</v>
+      </c>
+      <c r="O2" s="11">
+        <v>360.81865030674851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>23</v>
+      </c>
+      <c r="D3" s="11">
+        <v>86.111111111111114</v>
+      </c>
+      <c r="E3" s="11">
+        <v>90.079365079365076</v>
+      </c>
+      <c r="F3" s="11">
+        <v>92.063492063492063</v>
+      </c>
+      <c r="G3" s="11">
+        <v>90.873015873015873</v>
+      </c>
+      <c r="H3" s="13">
+        <v>463.71</v>
+      </c>
+      <c r="I3" s="13">
+        <v>483.8</v>
+      </c>
+      <c r="J3" s="13">
+        <v>461.24</v>
+      </c>
+      <c r="K3" s="13">
+        <v>471.29</v>
+      </c>
+      <c r="L3" s="11">
+        <v>538.50193548387097</v>
+      </c>
+      <c r="M3" s="11">
+        <v>537.08193832599125</v>
+      </c>
+      <c r="N3" s="11">
+        <v>501.00206896551725</v>
+      </c>
+      <c r="O3" s="11">
+        <v>518.6248034934498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11">
+        <v>93.253968253968253</v>
+      </c>
+      <c r="E4" s="11">
+        <v>88.69047619047619</v>
+      </c>
+      <c r="F4" s="11">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="G4" s="11">
+        <v>86.30952380952381</v>
+      </c>
+      <c r="H4" s="13">
+        <v>389.5</v>
+      </c>
+      <c r="I4" s="13">
+        <v>396.6</v>
+      </c>
+      <c r="J4" s="13">
+        <v>393.83</v>
+      </c>
+      <c r="K4" s="13">
+        <v>400.46</v>
+      </c>
+      <c r="L4" s="11">
+        <v>417.67659574468087</v>
+      </c>
+      <c r="M4" s="11">
+        <v>447.17315436241608</v>
+      </c>
+      <c r="N4" s="11">
+        <v>435.28578947368419</v>
+      </c>
+      <c r="O4" s="11">
+        <v>463.98124137931035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>20</v>
+      </c>
+      <c r="D5" s="11">
+        <v>88.492063492063494</v>
+      </c>
+      <c r="E5" s="11">
+        <v>85.317460317460316</v>
+      </c>
+      <c r="F5" s="11">
+        <v>89.682539682539684</v>
+      </c>
+      <c r="G5" s="11">
+        <v>82.936507936507937</v>
+      </c>
+      <c r="H5" s="13">
+        <v>471.09</v>
+      </c>
+      <c r="I5" s="13">
+        <v>459.93</v>
+      </c>
+      <c r="J5" s="13">
+        <v>467.81</v>
+      </c>
+      <c r="K5" s="13">
+        <v>452.14</v>
+      </c>
+      <c r="L5" s="11">
+        <v>532.35282511210767</v>
+      </c>
+      <c r="M5" s="11">
+        <v>539.08074418604656</v>
+      </c>
+      <c r="N5" s="11">
+        <v>521.62884955752213</v>
+      </c>
+      <c r="O5" s="11">
+        <v>545.16401913875598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>21</v>
+      </c>
+      <c r="D6" s="11">
+        <v>86.706349206349202</v>
+      </c>
+      <c r="E6" s="11">
+        <v>89.682539682539684</v>
+      </c>
+      <c r="F6" s="11">
+        <v>88.293650793650798</v>
+      </c>
+      <c r="G6" s="11">
+        <v>86.706349206349202</v>
+      </c>
+      <c r="H6" s="13">
+        <v>506.48</v>
+      </c>
+      <c r="I6" s="13">
+        <v>499.01</v>
+      </c>
+      <c r="J6" s="13">
+        <v>489.29</v>
+      </c>
+      <c r="K6" s="13">
+        <v>478.75</v>
+      </c>
+      <c r="L6" s="11">
+        <v>584.13254004576663</v>
+      </c>
+      <c r="M6" s="11">
+        <v>556.41823008849553</v>
+      </c>
+      <c r="N6" s="11">
+        <v>554.1621573033708</v>
+      </c>
+      <c r="O6" s="11">
+        <v>552.1510297482838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11">
+        <v>97.61904761904762</v>
+      </c>
+      <c r="E7" s="11">
+        <v>98.611111111111114</v>
+      </c>
+      <c r="F7" s="11">
+        <v>98.80952380952381</v>
+      </c>
+      <c r="G7" s="11">
+        <v>98.412698412698418</v>
+      </c>
+      <c r="H7" s="13">
+        <v>438.9</v>
+      </c>
+      <c r="I7" s="13">
+        <v>430.47</v>
+      </c>
+      <c r="J7" s="13">
+        <v>421.5</v>
+      </c>
+      <c r="K7" s="13">
+        <v>413.83</v>
+      </c>
+      <c r="L7" s="11">
+        <v>449.60487804878051</v>
+      </c>
+      <c r="M7" s="11">
+        <v>436.53295774647887</v>
+      </c>
+      <c r="N7" s="11">
+        <v>426.57831325301203</v>
+      </c>
+      <c r="O7" s="11">
+        <v>420.50467741935483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
+        <v>28</v>
+      </c>
+      <c r="D8" s="11">
+        <v>94.246031746031747</v>
+      </c>
+      <c r="E8" s="11">
+        <v>89.682539682539684</v>
+      </c>
+      <c r="F8" s="11">
+        <v>89.285714285714292</v>
+      </c>
+      <c r="G8" s="11">
+        <v>89.88095238095238</v>
+      </c>
+      <c r="H8" s="13">
+        <v>418.79</v>
+      </c>
+      <c r="I8" s="13">
+        <v>415.44</v>
+      </c>
+      <c r="J8" s="13">
+        <v>415.38</v>
+      </c>
+      <c r="K8" s="13">
+        <v>411.86</v>
+      </c>
+      <c r="L8" s="11">
+        <v>444.35823157894737</v>
+      </c>
+      <c r="M8" s="11">
+        <v>463.23398230088497</v>
+      </c>
+      <c r="N8" s="11">
+        <v>465.22559999999999</v>
+      </c>
+      <c r="O8" s="11">
+        <v>458.22834437086095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>1009</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>21</v>
+      </c>
+      <c r="D9" s="11">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="E9" s="11">
+        <v>89.484126984126988</v>
+      </c>
+      <c r="F9" s="11">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="G9" s="11">
+        <v>91.468253968253961</v>
+      </c>
+      <c r="H9" s="13">
+        <v>382.1</v>
+      </c>
+      <c r="I9" s="13">
+        <v>374.59</v>
+      </c>
+      <c r="J9" s="13">
+        <v>386.63</v>
+      </c>
+      <c r="K9" s="13">
+        <v>374.18</v>
+      </c>
+      <c r="L9" s="11">
+        <v>414.14709677419359</v>
+      </c>
+      <c r="M9" s="11">
+        <v>418.61055432372501</v>
+      </c>
+      <c r="N9" s="11">
+        <v>427.3278947368421</v>
+      </c>
+      <c r="O9" s="11">
+        <v>409.08182212581346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
+        <v>20</v>
+      </c>
+      <c r="D10" s="11">
+        <v>87.5</v>
+      </c>
+      <c r="E10" s="11">
+        <v>86.111111111111114</v>
+      </c>
+      <c r="F10" s="11">
+        <v>82.936507936507937</v>
+      </c>
+      <c r="G10" s="11">
+        <v>87.896825396825392</v>
+      </c>
+      <c r="H10" s="13">
+        <v>422.69</v>
+      </c>
+      <c r="I10" s="13">
+        <v>432.56</v>
+      </c>
+      <c r="J10" s="13">
+        <v>442.48</v>
+      </c>
+      <c r="K10" s="13">
+        <v>434.24</v>
+      </c>
+      <c r="L10" s="11">
+        <v>483.07428571428574</v>
+      </c>
+      <c r="M10" s="11">
+        <v>502.32774193548386</v>
+      </c>
+      <c r="N10" s="11">
+        <v>533.51655502392339</v>
+      </c>
+      <c r="O10" s="11">
+        <v>494.03376975169306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>1011</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11">
+        <v>93.849206349206355</v>
+      </c>
+      <c r="E11" s="11">
+        <v>93.055555555555557</v>
+      </c>
+      <c r="F11" s="11">
+        <v>91.865079365079367</v>
+      </c>
+      <c r="G11" s="11">
+        <v>91.071428571428569</v>
+      </c>
+      <c r="H11" s="13">
+        <v>558.61</v>
+      </c>
+      <c r="I11" s="13">
+        <v>524.54999999999995</v>
+      </c>
+      <c r="J11" s="13">
+        <v>511.62</v>
+      </c>
+      <c r="K11" s="13">
+        <v>491.53</v>
+      </c>
+      <c r="L11" s="11">
+        <v>595.2208033826638</v>
+      </c>
+      <c r="M11" s="11">
+        <v>563.69552238805966</v>
+      </c>
+      <c r="N11" s="11">
+        <v>556.92544276457886</v>
+      </c>
+      <c r="O11" s="11">
+        <v>539.71921568627454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>1012</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
+        <v>24</v>
+      </c>
+      <c r="D12" s="11">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="E12" s="11">
+        <v>91.468253968253961</v>
+      </c>
+      <c r="F12" s="11">
+        <v>95.238095238095241</v>
+      </c>
+      <c r="G12" s="11">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="H12" s="13">
+        <v>409.72</v>
+      </c>
+      <c r="I12" s="13">
+        <v>445.81</v>
+      </c>
+      <c r="J12" s="13">
+        <v>441.04</v>
+      </c>
+      <c r="K12" s="13">
+        <v>459.9</v>
+      </c>
+      <c r="L12" s="11">
+        <v>427.53391304347826</v>
+      </c>
+      <c r="M12" s="11">
+        <v>487.39314533622564</v>
+      </c>
+      <c r="N12" s="11">
+        <v>463.09199999999998</v>
+      </c>
+      <c r="O12" s="11">
+        <v>495.27692307692308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>1013</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11">
+        <v>95.039682539682545</v>
+      </c>
+      <c r="E13" s="11">
+        <v>94.642857142857139</v>
+      </c>
+      <c r="F13" s="11">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="G13" s="11">
+        <v>94.246031746031747</v>
+      </c>
+      <c r="H13" s="13">
+        <v>445.02</v>
+      </c>
+      <c r="I13" s="13">
+        <v>454.27</v>
+      </c>
+      <c r="J13" s="13">
+        <v>447.12</v>
+      </c>
+      <c r="K13" s="13">
+        <v>452.03</v>
+      </c>
+      <c r="L13" s="11">
+        <v>468.24651356993735</v>
+      </c>
+      <c r="M13" s="11">
+        <v>479.9833962264151</v>
+      </c>
+      <c r="N13" s="11">
+        <v>481.51384615384615</v>
+      </c>
+      <c r="O13" s="11">
+        <v>479.62762105263158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>1014</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <v>23</v>
+      </c>
+      <c r="D14" s="11">
+        <v>94.841269841269835</v>
+      </c>
+      <c r="E14" s="11">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="F14" s="11">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="G14" s="11">
+        <v>95.634920634920633</v>
+      </c>
+      <c r="H14" s="13">
+        <v>423.5</v>
+      </c>
+      <c r="I14" s="13">
+        <v>412.9</v>
+      </c>
+      <c r="J14" s="13">
+        <v>426.02</v>
+      </c>
+      <c r="K14" s="13">
+        <v>403.45</v>
+      </c>
+      <c r="L14" s="11">
+        <v>446.53556485355654</v>
+      </c>
+      <c r="M14" s="11">
+        <v>430.85217391304349</v>
+      </c>
+      <c r="N14" s="11">
+        <v>461.75070967741937</v>
+      </c>
+      <c r="O14" s="11">
+        <v>421.86473029045646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>1015</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>20</v>
+      </c>
+      <c r="D15" s="11">
+        <v>97.222222222222229</v>
+      </c>
+      <c r="E15" s="11">
+        <v>89.484126984126988</v>
+      </c>
+      <c r="F15" s="11">
+        <v>90.873015873015873</v>
+      </c>
+      <c r="G15" s="11">
+        <v>90.079365079365076</v>
+      </c>
+      <c r="H15" s="13">
+        <v>433.37</v>
+      </c>
+      <c r="I15" s="13">
+        <v>466.53</v>
+      </c>
+      <c r="J15" s="13">
+        <v>467.1</v>
+      </c>
+      <c r="K15" s="13">
+        <v>483.56</v>
+      </c>
+      <c r="L15" s="11">
+        <v>445.75199999999995</v>
+      </c>
+      <c r="M15" s="11">
+        <v>521.35503325942352</v>
+      </c>
+      <c r="N15" s="11">
+        <v>514.01397379912669</v>
+      </c>
+      <c r="O15" s="11">
+        <v>536.81550660792959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>1016</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12">
+        <v>21</v>
+      </c>
+      <c r="D16" s="11">
+        <v>89.88095238095238</v>
+      </c>
+      <c r="E16" s="11">
+        <v>85.912698412698418</v>
+      </c>
+      <c r="F16" s="11">
+        <v>84.325396825396822</v>
+      </c>
+      <c r="G16" s="11">
+        <v>86.706349206349202</v>
+      </c>
+      <c r="H16" s="13">
+        <v>429.08</v>
+      </c>
+      <c r="I16" s="13">
+        <v>441.64</v>
+      </c>
+      <c r="J16" s="13">
+        <v>430.72</v>
+      </c>
+      <c r="K16" s="13">
+        <v>440.92</v>
+      </c>
+      <c r="L16" s="11">
+        <v>477.38701986754967</v>
+      </c>
+      <c r="M16" s="11">
+        <v>514.05672055427249</v>
+      </c>
+      <c r="N16" s="11">
+        <v>510.78324705882352</v>
+      </c>
+      <c r="O16" s="11">
+        <v>508.52100686498858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>1017</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>23</v>
+      </c>
+      <c r="D17" s="11">
+        <v>95.436507936507937</v>
+      </c>
+      <c r="E17" s="11">
+        <v>89.087301587301582</v>
+      </c>
+      <c r="F17" s="11">
+        <v>90.674603174603178</v>
+      </c>
+      <c r="G17" s="11">
+        <v>88.69047619047619</v>
+      </c>
+      <c r="H17" s="13">
+        <v>401.57</v>
+      </c>
+      <c r="I17" s="13">
+        <v>415.01</v>
+      </c>
+      <c r="J17" s="13">
+        <v>412.69</v>
+      </c>
+      <c r="K17" s="13">
+        <v>419.39</v>
+      </c>
+      <c r="L17" s="11">
+        <v>420.77189189189187</v>
+      </c>
+      <c r="M17" s="11">
+        <v>465.84641425389759</v>
+      </c>
+      <c r="N17" s="11">
+        <v>455.13295404814005</v>
+      </c>
+      <c r="O17" s="11">
+        <v>472.86926174496642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>1018</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12">
+        <v>28</v>
+      </c>
+      <c r="D18" s="11">
+        <v>97.61904761904762</v>
+      </c>
+      <c r="E18" s="11">
+        <v>96.230158730158735</v>
+      </c>
+      <c r="F18" s="11">
+        <v>96.031746031746039</v>
+      </c>
+      <c r="G18" s="11">
+        <v>96.230158730158735</v>
+      </c>
+      <c r="H18" s="13">
+        <v>415.21</v>
+      </c>
+      <c r="I18" s="13">
+        <v>429.84</v>
+      </c>
+      <c r="J18" s="13">
+        <v>414.89</v>
+      </c>
+      <c r="K18" s="13">
+        <v>416.64</v>
+      </c>
+      <c r="L18" s="11">
+        <v>425.33707317073168</v>
+      </c>
+      <c r="M18" s="11">
+        <v>446.67909278350515</v>
+      </c>
+      <c r="N18" s="11">
+        <v>432.03421487603305</v>
+      </c>
+      <c r="O18" s="11">
+        <v>432.96197938144326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>1021</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
+        <v>27</v>
+      </c>
+      <c r="D19" s="11">
+        <v>87.698412698412696</v>
+      </c>
+      <c r="E19" s="11">
+        <v>84.325396825396822</v>
+      </c>
+      <c r="F19" s="11">
+        <v>81.746031746031747</v>
+      </c>
+      <c r="G19" s="11">
+        <v>82.539682539682545</v>
+      </c>
+      <c r="H19" s="13">
+        <v>405.22</v>
+      </c>
+      <c r="I19" s="13">
+        <v>410.89</v>
+      </c>
+      <c r="J19" s="13">
+        <v>409.92</v>
+      </c>
+      <c r="K19" s="13">
+        <v>405.56</v>
+      </c>
+      <c r="L19" s="11">
+        <v>462.060814479638</v>
+      </c>
+      <c r="M19" s="11">
+        <v>487.2672</v>
+      </c>
+      <c r="N19" s="11">
+        <v>501.45553398058252</v>
+      </c>
+      <c r="O19" s="11">
+        <v>491.35153846153844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>1022</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12">
+        <v>22</v>
+      </c>
+      <c r="D20" s="11">
+        <v>94.047619047619051</v>
+      </c>
+      <c r="E20" s="11">
+        <v>87.103174603174608</v>
+      </c>
+      <c r="F20" s="11">
+        <v>86.111111111111114</v>
+      </c>
+      <c r="G20" s="11">
+        <v>81.547619047619051</v>
+      </c>
+      <c r="H20" s="13">
+        <v>400.6</v>
+      </c>
+      <c r="I20" s="13">
+        <v>425.96</v>
+      </c>
+      <c r="J20" s="13">
+        <v>421.21</v>
+      </c>
+      <c r="K20" s="13">
+        <v>433.99</v>
+      </c>
+      <c r="L20" s="11">
+        <v>425.95443037974684</v>
+      </c>
+      <c r="M20" s="11">
+        <v>489.02924829157172</v>
+      </c>
+      <c r="N20" s="11">
+        <v>489.14709677419353</v>
+      </c>
+      <c r="O20" s="11">
+        <v>532.19211678832119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>1023</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12">
+        <v>26</v>
+      </c>
+      <c r="D21" s="11">
+        <v>95.436507936507937</v>
+      </c>
+      <c r="E21" s="11">
+        <v>87.5</v>
+      </c>
+      <c r="F21" s="11">
+        <v>87.301587301587304</v>
+      </c>
+      <c r="G21" s="11">
+        <v>79.960317460317455</v>
+      </c>
+      <c r="H21" s="13">
+        <v>454.16</v>
+      </c>
+      <c r="I21" s="13">
+        <v>468.31</v>
+      </c>
+      <c r="J21" s="13">
+        <v>482.88</v>
+      </c>
+      <c r="K21" s="13">
+        <v>477.89</v>
+      </c>
+      <c r="L21" s="11">
+        <v>475.87659043659045</v>
+      </c>
+      <c r="M21" s="11">
+        <v>535.21142857142854</v>
+      </c>
+      <c r="N21" s="11">
+        <v>553.11709090909085</v>
+      </c>
+      <c r="O21" s="11">
+        <v>597.65895781637721</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>1024</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12">
+        <v>28</v>
+      </c>
+      <c r="D22" s="11">
+        <v>97.420634920634924</v>
+      </c>
+      <c r="E22" s="11">
+        <v>94.246031746031747</v>
+      </c>
+      <c r="F22" s="11">
+        <v>95.634920634920633</v>
+      </c>
+      <c r="G22" s="11">
+        <v>94.642857142857139</v>
+      </c>
+      <c r="H22" s="13">
+        <v>463.44</v>
+      </c>
+      <c r="I22" s="13">
+        <v>481.66</v>
+      </c>
+      <c r="J22" s="13">
+        <v>471.38</v>
+      </c>
+      <c r="K22" s="13">
+        <v>482.46</v>
+      </c>
+      <c r="L22" s="11">
+        <v>475.71030549898165</v>
+      </c>
+      <c r="M22" s="11">
+        <v>511.0666105263158</v>
+      </c>
+      <c r="N22" s="11">
+        <v>492.89526970954358</v>
+      </c>
+      <c r="O22" s="11">
+        <v>509.76905660377361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>1025</v>
+      </c>
+      <c r="B23" s="12">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12">
+        <v>23</v>
+      </c>
+      <c r="D23" s="11">
+        <v>72.023809523809518</v>
+      </c>
+      <c r="E23" s="11">
+        <v>76.984126984126988</v>
+      </c>
+      <c r="F23" s="11">
+        <v>76.587301587301582</v>
+      </c>
+      <c r="G23" s="11">
+        <v>82.142857142857139</v>
+      </c>
+      <c r="H23" s="13">
+        <v>488.53</v>
+      </c>
+      <c r="I23" s="13">
+        <v>474.78</v>
+      </c>
+      <c r="J23" s="13">
+        <v>472.04</v>
+      </c>
+      <c r="K23" s="13">
+        <v>454.94</v>
+      </c>
+      <c r="L23" s="11">
+        <v>678.28958677685955</v>
+      </c>
+      <c r="M23" s="11">
+        <v>616.72453608247417</v>
+      </c>
+      <c r="N23" s="11">
+        <v>616.34238341968921</v>
+      </c>
+      <c r="O23" s="11">
+        <v>553.84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>1026</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11">
+        <v>99.007936507936506</v>
+      </c>
+      <c r="E24" s="11">
+        <v>98.015873015873012</v>
+      </c>
+      <c r="F24" s="11">
+        <v>97.420634920634924</v>
+      </c>
+      <c r="G24" s="11">
+        <v>97.222222222222229</v>
+      </c>
+      <c r="H24" s="13">
+        <v>445.63</v>
+      </c>
+      <c r="I24" s="13">
+        <v>466.6</v>
+      </c>
+      <c r="J24" s="13">
+        <v>475.01</v>
+      </c>
+      <c r="K24" s="13">
+        <v>484.83</v>
+      </c>
+      <c r="L24" s="11">
+        <v>450.09523046092187</v>
+      </c>
+      <c r="M24" s="11">
+        <v>476.04534412955468</v>
+      </c>
+      <c r="N24" s="11">
+        <v>487.58663951120161</v>
+      </c>
+      <c r="O24" s="11">
+        <v>498.68228571428568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>1028</v>
+      </c>
+      <c r="B25" s="12">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12">
+        <v>27</v>
+      </c>
+      <c r="D25" s="11">
+        <v>92.658730158730165</v>
+      </c>
+      <c r="E25" s="11">
+        <v>89.88095238095238</v>
+      </c>
+      <c r="F25" s="11">
+        <v>89.087301587301582</v>
+      </c>
+      <c r="G25" s="11">
+        <v>89.682539682539684</v>
+      </c>
+      <c r="H25" s="13">
+        <v>463.35</v>
+      </c>
+      <c r="I25" s="13">
+        <v>488.4</v>
+      </c>
+      <c r="J25" s="13">
+        <v>468.72</v>
+      </c>
+      <c r="K25" s="13">
+        <v>483.62</v>
+      </c>
+      <c r="L25" s="11">
+        <v>500.06081370449675</v>
+      </c>
+      <c r="M25" s="11">
+        <v>543.3854304635762</v>
+      </c>
+      <c r="N25" s="11">
+        <v>526.13559020044545</v>
+      </c>
+      <c r="O25" s="11">
+        <v>539.25769911504426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>1029</v>
+      </c>
+      <c r="B26" s="12">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12">
+        <v>21</v>
+      </c>
+      <c r="D26" s="11">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="E26" s="11">
+        <v>75.595238095238102</v>
+      </c>
+      <c r="F26" s="11">
+        <v>79.563492063492063</v>
+      </c>
+      <c r="G26" s="11">
+        <v>62.301587301587304</v>
+      </c>
+      <c r="H26" s="13">
+        <v>565.64</v>
+      </c>
+      <c r="I26" s="13">
+        <v>580.02</v>
+      </c>
+      <c r="J26" s="13">
+        <v>564.70000000000005</v>
+      </c>
+      <c r="K26" s="13">
+        <v>575.32000000000005</v>
+      </c>
+      <c r="L26" s="11">
+        <v>590.23304347826092</v>
+      </c>
+      <c r="M26" s="11">
+        <v>767.27055118110229</v>
+      </c>
+      <c r="N26" s="11">
+        <v>709.74763092269336</v>
+      </c>
+      <c r="O26" s="11">
+        <v>923.44356687898096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>1030</v>
+      </c>
+      <c r="B27" s="12">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12">
+        <v>20</v>
+      </c>
+      <c r="D27" s="11">
+        <v>91.865079365079367</v>
+      </c>
+      <c r="E27" s="11">
+        <v>88.293650793650798</v>
+      </c>
+      <c r="F27" s="11">
+        <v>88.293650793650798</v>
+      </c>
+      <c r="G27" s="11">
+        <v>88.69047619047619</v>
+      </c>
+      <c r="H27" s="13">
+        <v>422.24</v>
+      </c>
+      <c r="I27" s="13">
+        <v>428.15</v>
+      </c>
+      <c r="J27" s="13">
+        <v>437.93</v>
+      </c>
+      <c r="K27" s="13">
+        <v>430.46</v>
+      </c>
+      <c r="L27" s="11">
+        <v>459.63058315334774</v>
+      </c>
+      <c r="M27" s="11">
+        <v>484.91595505617977</v>
+      </c>
+      <c r="N27" s="11">
+        <v>495.9926292134831</v>
+      </c>
+      <c r="O27" s="11">
+        <v>485.35087248322151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>2001</v>
+      </c>
+      <c r="B28" s="12">
+        <v>2</v>
+      </c>
+      <c r="C28" s="12">
+        <v>24</v>
+      </c>
+      <c r="D28" s="11">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="E28" s="11">
+        <v>92.063492063492063</v>
+      </c>
+      <c r="F28" s="11">
+        <v>87.698412698412696</v>
+      </c>
+      <c r="G28" s="11">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="H28" s="13">
+        <v>405.41</v>
+      </c>
+      <c r="I28" s="13">
+        <v>413.42</v>
+      </c>
+      <c r="J28" s="13">
+        <v>425.07</v>
+      </c>
+      <c r="K28" s="13">
+        <v>427.05</v>
+      </c>
+      <c r="L28" s="11">
+        <v>439.41212903225806</v>
+      </c>
+      <c r="M28" s="11">
+        <v>449.05965517241378</v>
+      </c>
+      <c r="N28" s="11">
+        <v>484.69520361990953</v>
+      </c>
+      <c r="O28" s="11">
+        <v>462.86709677419356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B29" s="12">
+        <v>2</v>
+      </c>
+      <c r="C29" s="12">
+        <v>20</v>
+      </c>
+      <c r="D29" s="11">
+        <v>94.642857142857139</v>
+      </c>
+      <c r="E29" s="11">
+        <v>93.055555555555557</v>
+      </c>
+      <c r="F29" s="11">
+        <v>94.642857142857139</v>
+      </c>
+      <c r="G29" s="11">
+        <v>94.047619047619051</v>
+      </c>
+      <c r="H29" s="13">
+        <v>468.19</v>
+      </c>
+      <c r="I29" s="13">
+        <v>460.73</v>
+      </c>
+      <c r="J29" s="13">
+        <v>460.93</v>
+      </c>
+      <c r="K29" s="13">
+        <v>454.64</v>
+      </c>
+      <c r="L29" s="11">
+        <v>494.69132075471703</v>
+      </c>
+      <c r="M29" s="11">
+        <v>495.1128358208955</v>
+      </c>
+      <c r="N29" s="11">
+        <v>487.02037735849058</v>
+      </c>
+      <c r="O29" s="11">
+        <v>483.41468354430378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B30" s="12">
+        <v>2</v>
+      </c>
+      <c r="C30" s="12">
+        <v>24</v>
+      </c>
+      <c r="D30" s="11">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="E30" s="11">
+        <v>89.88095238095238</v>
+      </c>
+      <c r="F30" s="11">
+        <v>92.658730158730165</v>
+      </c>
+      <c r="G30" s="11">
+        <v>88.69047619047619</v>
+      </c>
+      <c r="H30" s="13">
+        <v>401.83</v>
+      </c>
+      <c r="I30" s="13">
+        <v>421.24</v>
+      </c>
+      <c r="J30" s="13">
+        <v>407.91</v>
+      </c>
+      <c r="K30" s="13">
+        <v>429.08</v>
+      </c>
+      <c r="L30" s="11">
+        <v>419.3008695652174</v>
+      </c>
+      <c r="M30" s="11">
+        <v>468.66437086092714</v>
+      </c>
+      <c r="N30" s="11">
+        <v>440.22835117773019</v>
+      </c>
+      <c r="O30" s="11">
+        <v>483.79489932885906</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B31" s="12">
+        <v>2</v>
+      </c>
+      <c r="C31" s="12">
+        <v>22</v>
+      </c>
+      <c r="D31" s="11">
+        <v>96.428571428571431</v>
+      </c>
+      <c r="E31" s="11">
+        <v>95.039682539682545</v>
+      </c>
+      <c r="F31" s="11">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="G31" s="11">
+        <v>97.023809523809518</v>
+      </c>
+      <c r="H31" s="13">
+        <v>518.73</v>
+      </c>
+      <c r="I31" s="13">
+        <v>507.71</v>
+      </c>
+      <c r="J31" s="13">
+        <v>520.55999999999995</v>
+      </c>
+      <c r="K31" s="13">
+        <v>502.56</v>
+      </c>
+      <c r="L31" s="11">
+        <v>537.9422222222222</v>
+      </c>
+      <c r="M31" s="11">
+        <v>534.20843423799579</v>
+      </c>
+      <c r="N31" s="11">
+        <v>543.19304347826085</v>
+      </c>
+      <c r="O31" s="11">
+        <v>517.9759509202454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B32" s="12">
+        <v>2</v>
+      </c>
+      <c r="C32" s="12">
+        <v>22</v>
+      </c>
+      <c r="D32" s="11">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="E32" s="11">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="F32" s="11">
+        <v>92.460317460317455</v>
+      </c>
+      <c r="G32" s="11">
+        <v>93.849206349206355</v>
+      </c>
+      <c r="H32" s="13">
+        <v>440.13</v>
+      </c>
+      <c r="I32" s="13">
+        <v>428.68</v>
+      </c>
+      <c r="J32" s="13">
+        <v>434.32</v>
+      </c>
+      <c r="K32" s="13">
+        <v>418.66</v>
+      </c>
+      <c r="L32" s="11">
+        <v>477.04412903225807</v>
+      </c>
+      <c r="M32" s="11">
+        <v>461.65538461538461</v>
+      </c>
+      <c r="N32" s="11">
+        <v>469.73665236051505</v>
+      </c>
+      <c r="O32" s="11">
+        <v>446.09860465116276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B33" s="12">
+        <v>2</v>
+      </c>
+      <c r="C33" s="12">
+        <v>20</v>
+      </c>
+      <c r="D33" s="11">
+        <v>80.158730158730165</v>
+      </c>
+      <c r="E33" s="11">
+        <v>78.968253968253961</v>
+      </c>
+      <c r="F33" s="11">
+        <v>80.158730158730165</v>
+      </c>
+      <c r="G33" s="11">
+        <v>78.968253968253961</v>
+      </c>
+      <c r="H33" s="13">
+        <v>471.05</v>
+      </c>
+      <c r="I33" s="13">
+        <v>474.8</v>
+      </c>
+      <c r="J33" s="13">
+        <v>466.19</v>
+      </c>
+      <c r="K33" s="13">
+        <v>470.32</v>
+      </c>
+      <c r="L33" s="11">
+        <v>587.64653465346532</v>
+      </c>
+      <c r="M33" s="11">
+        <v>601.25427135678399</v>
+      </c>
+      <c r="N33" s="11">
+        <v>581.58356435643555</v>
+      </c>
+      <c r="O33" s="11">
+        <v>595.58110552763821</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>2008</v>
+      </c>
+      <c r="B34" s="12">
+        <v>2</v>
+      </c>
+      <c r="C34" s="12">
+        <v>21</v>
+      </c>
+      <c r="D34" s="11">
+        <v>94.841269841269835</v>
+      </c>
+      <c r="E34" s="11">
+        <v>94.841269841269835</v>
+      </c>
+      <c r="F34" s="11">
+        <v>94.642857142857139</v>
+      </c>
+      <c r="G34" s="11">
+        <v>93.253968253968253</v>
+      </c>
+      <c r="H34" s="13">
+        <v>459.44</v>
+      </c>
+      <c r="I34" s="13">
+        <v>469.56</v>
+      </c>
+      <c r="J34" s="13">
+        <v>474.58</v>
+      </c>
+      <c r="K34" s="13">
+        <v>477.52</v>
+      </c>
+      <c r="L34" s="11">
+        <v>484.43046025104604</v>
+      </c>
+      <c r="M34" s="11">
+        <v>495.10092050209209</v>
+      </c>
+      <c r="N34" s="11">
+        <v>501.44301886792454</v>
+      </c>
+      <c r="O34" s="11">
+        <v>512.06399999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B35" s="12">
+        <v>2</v>
+      </c>
+      <c r="C35" s="12">
+        <v>20</v>
+      </c>
+      <c r="D35" s="11">
+        <v>95.238095238095241</v>
+      </c>
+      <c r="E35" s="11">
+        <v>93.055555555555557</v>
+      </c>
+      <c r="F35" s="11">
+        <v>91.269841269841265</v>
+      </c>
+      <c r="G35" s="11">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="H35" s="13">
+        <v>483.33</v>
+      </c>
+      <c r="I35" s="13">
+        <v>479.63</v>
+      </c>
+      <c r="J35" s="13">
+        <v>478.2</v>
+      </c>
+      <c r="K35" s="13">
+        <v>472.74</v>
+      </c>
+      <c r="L35" s="11">
+        <v>507.49649999999997</v>
+      </c>
+      <c r="M35" s="11">
+        <v>515.42328358208954</v>
+      </c>
+      <c r="N35" s="11">
+        <v>523.94086956521744</v>
+      </c>
+      <c r="O35" s="11">
+        <v>522.50210526315789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>2010</v>
+      </c>
+      <c r="B36" s="12">
+        <v>2</v>
+      </c>
+      <c r="C36" s="12">
+        <v>22</v>
+      </c>
+      <c r="D36" s="11">
+        <v>93.650793650793645</v>
+      </c>
+      <c r="E36" s="11">
+        <v>88.293650793650798</v>
+      </c>
+      <c r="F36" s="11">
+        <v>91.468253968253961</v>
+      </c>
+      <c r="G36" s="11">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="H36" s="13">
+        <v>519.61</v>
+      </c>
+      <c r="I36" s="13">
+        <v>546.4</v>
+      </c>
+      <c r="J36" s="13">
+        <v>509.96</v>
+      </c>
+      <c r="K36" s="13">
+        <v>542.12</v>
+      </c>
+      <c r="L36" s="11">
+        <v>554.83779661016956</v>
+      </c>
+      <c r="M36" s="11">
+        <v>618.84404494382022</v>
+      </c>
+      <c r="N36" s="11">
+        <v>557.52676789587861</v>
+      </c>
+      <c r="O36" s="11">
+        <v>599.18526315789472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B37" s="12">
+        <v>2</v>
+      </c>
+      <c r="C37" s="12">
+        <v>20</v>
+      </c>
+      <c r="D37" s="11">
+        <v>97.61904761904762</v>
+      </c>
+      <c r="E37" s="11">
+        <v>90.277777777777771</v>
+      </c>
+      <c r="F37" s="11">
+        <v>89.087301587301582</v>
+      </c>
+      <c r="G37" s="11">
+        <v>86.111111111111114</v>
+      </c>
+      <c r="H37" s="13">
+        <v>445.63</v>
+      </c>
+      <c r="I37" s="13">
+        <v>435.65</v>
+      </c>
+      <c r="J37" s="13">
+        <v>432.25</v>
+      </c>
+      <c r="K37" s="13">
+        <v>415.5</v>
+      </c>
+      <c r="L37" s="11">
+        <v>456.4990243902439</v>
+      </c>
+      <c r="M37" s="11">
+        <v>482.5661538461539</v>
+      </c>
+      <c r="N37" s="11">
+        <v>485.19821826280628</v>
+      </c>
+      <c r="O37" s="11">
+        <v>482.51612903225805</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B38" s="12">
+        <v>2</v>
+      </c>
+      <c r="C38" s="12">
+        <v>21</v>
+      </c>
+      <c r="D38" s="11">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="E38" s="11">
+        <v>91.865079365079367</v>
+      </c>
+      <c r="F38" s="11">
+        <v>90.674603174603178</v>
+      </c>
+      <c r="G38" s="11">
+        <v>91.269841269841265</v>
+      </c>
+      <c r="H38" s="13">
+        <v>425.71</v>
+      </c>
+      <c r="I38" s="13">
+        <v>425.67</v>
+      </c>
+      <c r="J38" s="13">
+        <v>430.35</v>
+      </c>
+      <c r="K38" s="13">
+        <v>429.39</v>
+      </c>
+      <c r="L38" s="11">
+        <v>458.45692307692303</v>
+      </c>
+      <c r="M38" s="11">
+        <v>463.36431965442762</v>
+      </c>
+      <c r="N38" s="11">
+        <v>474.60919037199125</v>
+      </c>
+      <c r="O38" s="11">
+        <v>470.46208695652177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B39" s="12">
+        <v>2</v>
+      </c>
+      <c r="C39" s="12">
+        <v>20</v>
+      </c>
+      <c r="D39" s="11">
+        <v>91.269841269841265</v>
+      </c>
+      <c r="E39" s="11">
+        <v>91.666666666666671</v>
+      </c>
+      <c r="F39" s="11">
+        <v>93.253968253968253</v>
+      </c>
+      <c r="G39" s="11">
+        <v>92.460317460317455</v>
+      </c>
+      <c r="H39" s="13">
+        <v>530.04999999999995</v>
+      </c>
+      <c r="I39" s="13">
+        <v>529.24</v>
+      </c>
+      <c r="J39" s="13">
+        <v>503.01</v>
+      </c>
+      <c r="K39" s="13">
+        <v>510.63</v>
+      </c>
+      <c r="L39" s="11">
+        <v>580.75043478260864</v>
+      </c>
+      <c r="M39" s="11">
+        <v>577.35272727272729</v>
+      </c>
+      <c r="N39" s="11">
+        <v>539.3979574468085</v>
+      </c>
+      <c r="O39" s="11">
+        <v>552.26935622317603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B40" s="12">
+        <v>2</v>
+      </c>
+      <c r="C40" s="12">
+        <v>22</v>
+      </c>
+      <c r="D40" s="11">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="E40" s="11">
+        <v>91.666666666666671</v>
+      </c>
+      <c r="F40" s="11">
+        <v>89.682539682539684</v>
+      </c>
+      <c r="G40" s="11">
+        <v>85.11904761904762</v>
+      </c>
+      <c r="H40" s="13">
+        <v>479.91</v>
+      </c>
+      <c r="I40" s="13">
+        <v>480.4</v>
+      </c>
+      <c r="J40" s="13">
+        <v>492.66</v>
+      </c>
+      <c r="K40" s="13">
+        <v>479.23</v>
+      </c>
+      <c r="L40" s="11">
+        <v>516.82615384615383</v>
+      </c>
+      <c r="M40" s="11">
+        <v>524.07272727272721</v>
+      </c>
+      <c r="N40" s="11">
+        <v>549.33769911504419</v>
+      </c>
+      <c r="O40" s="11">
+        <v>563.01146853146849</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B41" s="12">
+        <v>2</v>
+      </c>
+      <c r="C41" s="12">
+        <v>24</v>
+      </c>
+      <c r="D41" s="11">
+        <v>95.238095238095241</v>
+      </c>
+      <c r="E41" s="11">
+        <v>91.865079365079367</v>
+      </c>
+      <c r="F41" s="11">
+        <v>91.269841269841265</v>
+      </c>
+      <c r="G41" s="11">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="H41" s="13">
+        <v>541.80999999999995</v>
+      </c>
+      <c r="I41" s="13">
+        <v>557.6</v>
+      </c>
+      <c r="J41" s="13">
+        <v>562.92999999999995</v>
+      </c>
+      <c r="K41" s="13">
+        <v>541.76</v>
+      </c>
+      <c r="L41" s="11">
+        <v>568.90049999999985</v>
+      </c>
+      <c r="M41" s="11">
+        <v>606.97710583153344</v>
+      </c>
+      <c r="N41" s="11">
+        <v>616.77547826086948</v>
+      </c>
+      <c r="O41" s="11">
+        <v>587.19793548387099</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B42" s="12">
+        <v>2</v>
+      </c>
+      <c r="C42" s="12">
+        <v>26</v>
+      </c>
+      <c r="D42" s="11">
+        <v>90.873015873015873</v>
+      </c>
+      <c r="E42" s="11">
+        <v>90.079365079365076</v>
+      </c>
+      <c r="F42" s="11">
+        <v>90.873015873015873</v>
+      </c>
+      <c r="G42" s="11">
+        <v>91.666666666666671</v>
+      </c>
+      <c r="H42" s="13">
+        <v>446.38</v>
+      </c>
+      <c r="I42" s="13">
+        <v>439.66</v>
+      </c>
+      <c r="J42" s="13">
+        <v>443.24</v>
+      </c>
+      <c r="K42" s="13">
+        <v>430.39</v>
+      </c>
+      <c r="L42" s="11">
+        <v>491.21292576419216</v>
+      </c>
+      <c r="M42" s="11">
+        <v>488.08070484581498</v>
+      </c>
+      <c r="N42" s="11">
+        <v>487.75755458515283</v>
+      </c>
+      <c r="O42" s="11">
+        <v>469.51636363636362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B43" s="12">
+        <v>2</v>
+      </c>
+      <c r="C43" s="12">
+        <v>23</v>
+      </c>
+      <c r="D43" s="11">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="E43" s="11">
+        <v>88.69047619047619</v>
+      </c>
+      <c r="F43" s="11">
+        <v>87.896825396825392</v>
+      </c>
+      <c r="G43" s="11">
+        <v>86.904761904761898</v>
+      </c>
+      <c r="H43" s="13">
+        <v>414.01</v>
+      </c>
+      <c r="I43" s="13">
+        <v>424.46</v>
+      </c>
+      <c r="J43" s="13">
+        <v>426.39</v>
+      </c>
+      <c r="K43" s="13">
+        <v>433.18</v>
+      </c>
+      <c r="L43" s="11">
+        <v>448.7334193548387</v>
+      </c>
+      <c r="M43" s="11">
+        <v>478.58577181208057</v>
+      </c>
+      <c r="N43" s="11">
+        <v>485.10284424379233</v>
+      </c>
+      <c r="O43" s="11">
+        <v>498.45369863013701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B44" s="12">
+        <v>2</v>
+      </c>
+      <c r="C44" s="12">
+        <v>27</v>
+      </c>
+      <c r="D44" s="11">
+        <v>68.253968253968253</v>
+      </c>
+      <c r="E44" s="11">
+        <v>76.19047619047619</v>
+      </c>
+      <c r="F44" s="11">
+        <v>72.817460317460316</v>
+      </c>
+      <c r="G44" s="11">
+        <v>71.428571428571431</v>
+      </c>
+      <c r="H44" s="13">
+        <v>532.62</v>
+      </c>
+      <c r="I44" s="13">
+        <v>515.89</v>
+      </c>
+      <c r="J44" s="13">
+        <v>491.18</v>
+      </c>
+      <c r="K44" s="13">
+        <v>489.26</v>
+      </c>
+      <c r="L44" s="11">
+        <v>780.35023255813951</v>
+      </c>
+      <c r="M44" s="11">
+        <v>677.10562500000003</v>
+      </c>
+      <c r="N44" s="11">
+        <v>674.53602179836514</v>
+      </c>
+      <c r="O44" s="11">
+        <v>684.96399999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B45" s="12">
+        <v>2</v>
+      </c>
+      <c r="C45" s="12">
+        <v>20</v>
+      </c>
+      <c r="D45" s="11">
+        <v>89.484126984126988</v>
+      </c>
+      <c r="E45" s="11">
+        <v>86.30952380952381</v>
+      </c>
+      <c r="F45" s="11">
+        <v>91.865079365079367</v>
+      </c>
+      <c r="G45" s="11">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="H45" s="13">
+        <v>454.45</v>
+      </c>
+      <c r="I45" s="13">
+        <v>457.81</v>
+      </c>
+      <c r="J45" s="13">
+        <v>462.67</v>
+      </c>
+      <c r="K45" s="13">
+        <v>462.71</v>
+      </c>
+      <c r="L45" s="11">
+        <v>507.8554323725055</v>
+      </c>
+      <c r="M45" s="11">
+        <v>530.42813793103448</v>
+      </c>
+      <c r="N45" s="11">
+        <v>503.64077753779696</v>
+      </c>
+      <c r="O45" s="11">
+        <v>511.41631578947363</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="12">
+        <v>2</v>
+      </c>
+      <c r="C46" s="12">
+        <v>23</v>
+      </c>
+      <c r="D46" s="11">
+        <v>73.015873015873012</v>
+      </c>
+      <c r="E46" s="11">
+        <v>71.825396825396822</v>
+      </c>
+      <c r="F46" s="11">
+        <v>87.5</v>
+      </c>
+      <c r="G46" s="11">
+        <v>89.88095238095238</v>
+      </c>
+      <c r="H46" s="13">
+        <v>482.32</v>
+      </c>
+      <c r="I46" s="13">
+        <v>453.21</v>
+      </c>
+      <c r="J46" s="13">
+        <v>459.23</v>
+      </c>
+      <c r="K46" s="13">
+        <v>443.2</v>
+      </c>
+      <c r="L46" s="11">
+        <v>660.56869565217391</v>
+      </c>
+      <c r="M46" s="11">
+        <v>630.9885082872928</v>
+      </c>
+      <c r="N46" s="11">
+        <v>524.83428571428567</v>
+      </c>
+      <c r="O46" s="11">
+        <v>493.09668874172183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B47" s="12">
+        <v>2</v>
+      </c>
+      <c r="C47" s="12">
+        <v>22</v>
+      </c>
+      <c r="D47" s="11">
+        <v>85.11904761904762</v>
+      </c>
+      <c r="E47" s="11">
+        <v>80.555555555555557</v>
+      </c>
+      <c r="F47" s="11">
+        <v>81.547619047619051</v>
+      </c>
+      <c r="G47" s="11">
+        <v>84.325396825396822</v>
+      </c>
+      <c r="H47" s="13">
+        <v>399.1</v>
+      </c>
+      <c r="I47" s="13">
+        <v>406.56</v>
+      </c>
+      <c r="J47" s="13">
+        <v>411.65</v>
+      </c>
+      <c r="K47" s="13">
+        <v>410.41</v>
+      </c>
+      <c r="L47" s="11">
+        <v>468.87272727272727</v>
+      </c>
+      <c r="M47" s="11">
+        <v>504.6951724137931</v>
+      </c>
+      <c r="N47" s="11">
+        <v>504.79708029197076</v>
+      </c>
+      <c r="O47" s="11">
+        <v>486.69797647058823</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>2024</v>
+      </c>
+      <c r="B48" s="12">
+        <v>2</v>
+      </c>
+      <c r="C48" s="12">
+        <v>26</v>
+      </c>
+      <c r="D48" s="11">
+        <v>95.238095238095241</v>
+      </c>
+      <c r="E48" s="11">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="F48" s="11">
+        <v>96.626984126984127</v>
+      </c>
+      <c r="G48" s="11">
+        <v>94.841269841269835</v>
+      </c>
+      <c r="H48" s="13">
+        <v>460.52</v>
+      </c>
+      <c r="I48" s="13">
+        <v>446.62</v>
+      </c>
+      <c r="J48" s="13">
+        <v>449.74</v>
+      </c>
+      <c r="K48" s="13">
+        <v>440.05</v>
+      </c>
+      <c r="L48" s="11">
+        <v>483.54599999999999</v>
+      </c>
+      <c r="M48" s="11">
+        <v>466.03826086956525</v>
+      </c>
+      <c r="N48" s="11">
+        <v>465.4393429158111</v>
+      </c>
+      <c r="O48" s="11">
+        <v>463.98577405857742</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>2025</v>
+      </c>
+      <c r="B49" s="12">
+        <v>2</v>
+      </c>
+      <c r="C49" s="12">
+        <v>27</v>
+      </c>
+      <c r="D49" s="11">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="E49" s="11">
+        <v>94.047619047619051</v>
+      </c>
+      <c r="F49" s="11">
+        <v>90.277777777777771</v>
+      </c>
+      <c r="G49" s="11">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="H49" s="13">
+        <v>569.39</v>
+      </c>
+      <c r="I49" s="13">
+        <v>560.66</v>
+      </c>
+      <c r="J49" s="13">
+        <v>548.61</v>
+      </c>
+      <c r="K49" s="13">
+        <v>545.52</v>
+      </c>
+      <c r="L49" s="11">
+        <v>613.18923076923079</v>
+      </c>
+      <c r="M49" s="11">
+        <v>596.14481012658223</v>
+      </c>
+      <c r="N49" s="11">
+        <v>607.69107692307693</v>
+      </c>
+      <c r="O49" s="11">
+        <v>591.27329032258069</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <v>2026</v>
+      </c>
+      <c r="B50" s="12">
+        <v>2</v>
+      </c>
+      <c r="C50" s="12">
+        <v>21</v>
+      </c>
+      <c r="D50" s="11">
+        <v>96.230158730158735</v>
+      </c>
+      <c r="E50" s="11">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="F50" s="11">
+        <v>92.063492063492063</v>
+      </c>
+      <c r="G50" s="11">
+        <v>95.436507936507937</v>
+      </c>
+      <c r="H50" s="13">
+        <v>426.67</v>
+      </c>
+      <c r="I50" s="13">
+        <v>441.41</v>
+      </c>
+      <c r="J50" s="13">
+        <v>455.65</v>
+      </c>
+      <c r="K50" s="13">
+        <v>453.93</v>
+      </c>
+      <c r="L50" s="11">
+        <v>443.38490721649481</v>
+      </c>
+      <c r="M50" s="11">
+        <v>478.43148387096778</v>
+      </c>
+      <c r="N50" s="11">
+        <v>494.93017241379312</v>
+      </c>
+      <c r="O50" s="11">
+        <v>475.63559251559252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>2027</v>
+      </c>
+      <c r="B51" s="12">
+        <v>2</v>
+      </c>
+      <c r="C51" s="12">
+        <v>20</v>
+      </c>
+      <c r="D51" s="11">
+        <v>94.642857142857139</v>
+      </c>
+      <c r="E51" s="11">
+        <v>95.436507936507937</v>
+      </c>
+      <c r="F51" s="11">
+        <v>94.841269841269835</v>
+      </c>
+      <c r="G51" s="11">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="H51" s="13">
+        <v>514.84</v>
+      </c>
+      <c r="I51" s="13">
+        <v>536.28</v>
+      </c>
+      <c r="J51" s="13">
+        <v>515.28</v>
+      </c>
+      <c r="K51" s="13">
+        <v>533.42999999999995</v>
+      </c>
+      <c r="L51" s="11">
+        <v>543.98188679245288</v>
+      </c>
+      <c r="M51" s="11">
+        <v>561.92332640332643</v>
+      </c>
+      <c r="N51" s="11">
+        <v>543.30778242677832</v>
+      </c>
+      <c r="O51" s="11">
+        <v>556.62260869565216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>2028</v>
+      </c>
+      <c r="B52" s="12">
+        <v>2</v>
+      </c>
+      <c r="C52" s="12">
+        <v>26</v>
+      </c>
+      <c r="D52" s="11">
+        <v>96.230158730158735</v>
+      </c>
+      <c r="E52" s="11">
+        <v>93.253968253968253</v>
+      </c>
+      <c r="F52" s="11">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="G52" s="11">
+        <v>89.88095238095238</v>
+      </c>
+      <c r="H52" s="13">
+        <v>529.86</v>
+      </c>
+      <c r="I52" s="13">
+        <v>533.4</v>
+      </c>
+      <c r="J52" s="13">
+        <v>540.21</v>
+      </c>
+      <c r="K52" s="13">
+        <v>520.08000000000004</v>
+      </c>
+      <c r="L52" s="11">
+        <v>550.61740206185561</v>
+      </c>
+      <c r="M52" s="11">
+        <v>571.98638297872344</v>
+      </c>
+      <c r="N52" s="11">
+        <v>581.76461538461535</v>
+      </c>
+      <c r="O52" s="11">
+        <v>578.63205298013258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>2029</v>
+      </c>
+      <c r="B53" s="12">
+        <v>2</v>
+      </c>
+      <c r="C53" s="12">
+        <v>26</v>
+      </c>
+      <c r="D53" s="11">
+        <v>93.253968253968253</v>
+      </c>
+      <c r="E53" s="11">
+        <v>86.507936507936506</v>
+      </c>
+      <c r="F53" s="11">
+        <v>87.896825396825392</v>
+      </c>
+      <c r="G53" s="11">
+        <v>84.325396825396822</v>
+      </c>
+      <c r="H53" s="13">
+        <v>450.63</v>
+      </c>
+      <c r="I53" s="13">
+        <v>470.55</v>
+      </c>
+      <c r="J53" s="13">
+        <v>466.5</v>
+      </c>
+      <c r="K53" s="13">
+        <v>472.34</v>
+      </c>
+      <c r="L53" s="11">
+        <v>483.2287659574468</v>
+      </c>
+      <c r="M53" s="11">
+        <v>543.93853211009173</v>
+      </c>
+      <c r="N53" s="11">
+        <v>530.73589164785551</v>
+      </c>
+      <c r="O53" s="11">
+        <v>560.13967058823528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>2030</v>
+      </c>
+      <c r="B54" s="12">
+        <v>2</v>
+      </c>
+      <c r="C54" s="12">
+        <v>21</v>
+      </c>
+      <c r="D54" s="11">
+        <v>93.055555555555557</v>
+      </c>
+      <c r="E54" s="11">
+        <v>92.063492063492063</v>
+      </c>
+      <c r="F54" s="11">
+        <v>90.873015873015873</v>
+      </c>
+      <c r="G54" s="11">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="H54" s="13">
+        <v>465.51</v>
+      </c>
+      <c r="I54" s="13">
+        <v>476.46</v>
+      </c>
+      <c r="J54" s="13">
+        <v>472.66</v>
+      </c>
+      <c r="K54" s="13">
+        <v>481.7</v>
+      </c>
+      <c r="L54" s="11">
+        <v>500.24955223880596</v>
+      </c>
+      <c r="M54" s="11">
+        <v>517.53413793103448</v>
+      </c>
+      <c r="N54" s="11">
+        <v>520.1324017467249</v>
+      </c>
+      <c r="O54" s="11">
+        <v>532.40526315789475</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>2032</v>
+      </c>
+      <c r="B55" s="12">
+        <v>2</v>
+      </c>
+      <c r="C55" s="12">
+        <v>24</v>
+      </c>
+      <c r="D55" s="11">
+        <v>95.436507936507937</v>
+      </c>
+      <c r="E55" s="11">
+        <v>93.452380952380949</v>
+      </c>
+      <c r="F55" s="11">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="G55" s="11">
+        <v>91.666666666666671</v>
+      </c>
+      <c r="H55" s="13">
+        <v>473.63</v>
+      </c>
+      <c r="I55" s="13">
+        <v>480.76</v>
+      </c>
+      <c r="J55" s="13">
+        <v>480.25</v>
+      </c>
+      <c r="K55" s="13">
+        <v>488.02</v>
+      </c>
+      <c r="L55" s="11">
+        <v>496.27758835758834</v>
+      </c>
+      <c r="M55" s="11">
+        <v>514.443821656051</v>
+      </c>
+      <c r="N55" s="11">
+        <v>517.19230769230762</v>
+      </c>
+      <c r="O55" s="11">
+        <v>532.38545454545454</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>2033</v>
+      </c>
+      <c r="B56" s="12">
+        <v>2</v>
+      </c>
+      <c r="C56" s="12">
+        <v>26</v>
+      </c>
+      <c r="D56" s="11">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="E56" s="11">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="F56" s="11">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="G56" s="11">
+        <v>93.055555555555557</v>
+      </c>
+      <c r="H56" s="13">
+        <v>434.48</v>
+      </c>
+      <c r="I56" s="13">
+        <v>410.75</v>
+      </c>
+      <c r="J56" s="13">
+        <v>431.31</v>
+      </c>
+      <c r="K56" s="13">
+        <v>421.26</v>
+      </c>
+      <c r="L56" s="11">
+        <v>460.03764705882355</v>
+      </c>
+      <c r="M56" s="11">
+        <v>434.91176470588238</v>
+      </c>
+      <c r="N56" s="11">
+        <v>464.48769230769227</v>
+      </c>
+      <c r="O56" s="11">
+        <v>452.69731343283581</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>2034</v>
+      </c>
+      <c r="B57" s="12">
+        <v>2</v>
+      </c>
+      <c r="C57" s="12">
+        <v>30</v>
+      </c>
+      <c r="D57" s="11">
+        <v>96.031746031746039</v>
+      </c>
+      <c r="E57" s="11">
+        <v>88.69047619047619</v>
+      </c>
+      <c r="F57" s="11">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="G57" s="11">
+        <v>87.103174603174608</v>
+      </c>
+      <c r="H57" s="13">
+        <v>401.84</v>
+      </c>
+      <c r="I57" s="13">
+        <v>429.4</v>
+      </c>
+      <c r="J57" s="13">
+        <v>433.89</v>
+      </c>
+      <c r="K57" s="13">
+        <v>449.77</v>
+      </c>
+      <c r="L57" s="11">
+        <v>418.44495867768592</v>
+      </c>
+      <c r="M57" s="11">
+        <v>484.15570469798661</v>
+      </c>
+      <c r="N57" s="11">
+        <v>506.20500000000004</v>
+      </c>
+      <c r="O57" s="11">
+        <v>516.36464692482912</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>2036</v>
+      </c>
+      <c r="B58" s="12">
+        <v>2</v>
+      </c>
+      <c r="C58" s="12">
+        <v>26</v>
+      </c>
+      <c r="D58" s="11">
+        <v>91.071428571428569</v>
+      </c>
+      <c r="E58" s="11">
+        <v>91.865079365079367</v>
+      </c>
+      <c r="F58" s="11">
+        <v>87.103174603174608</v>
+      </c>
+      <c r="G58" s="11">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="H58" s="13">
+        <v>490.69</v>
+      </c>
+      <c r="I58" s="13">
+        <v>486.43</v>
+      </c>
+      <c r="J58" s="13">
+        <v>480.45</v>
+      </c>
+      <c r="K58" s="13">
+        <v>469.37</v>
+      </c>
+      <c r="L58" s="11">
+        <v>538.796862745098</v>
+      </c>
+      <c r="M58" s="11">
+        <v>529.50479481641469</v>
+      </c>
+      <c r="N58" s="11">
+        <v>551.58724373576308</v>
+      </c>
+      <c r="O58" s="11">
+        <v>518.77736842105264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>2037</v>
+      </c>
+      <c r="B59" s="12">
+        <v>2</v>
+      </c>
+      <c r="C59" s="12">
+        <v>22</v>
+      </c>
+      <c r="D59" s="11">
+        <v>70.039682539682545</v>
+      </c>
+      <c r="E59" s="11">
+        <v>72.023809523809518</v>
+      </c>
+      <c r="F59" s="11">
+        <v>70.238095238095241</v>
+      </c>
+      <c r="G59" s="11">
+        <v>70.238095238095241</v>
+      </c>
+      <c r="H59" s="13">
+        <v>442.13</v>
+      </c>
+      <c r="I59" s="13">
+        <v>434.61</v>
+      </c>
+      <c r="J59" s="13">
+        <v>439.04</v>
+      </c>
+      <c r="K59" s="13">
+        <v>437.51</v>
+      </c>
+      <c r="L59" s="11">
+        <v>631.25643059490085</v>
+      </c>
+      <c r="M59" s="11">
+        <v>603.42545454545461</v>
+      </c>
+      <c r="N59" s="11">
+        <v>625.07389830508475</v>
+      </c>
+      <c r="O59" s="11">
+        <v>622.89559322033892</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>2038</v>
+      </c>
+      <c r="B60" s="12">
+        <v>2</v>
+      </c>
+      <c r="C60" s="12">
+        <v>27</v>
+      </c>
+      <c r="D60" s="11">
+        <v>96.428571428571431</v>
+      </c>
+      <c r="E60" s="11">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="F60" s="11">
+        <v>96.428571428571431</v>
+      </c>
+      <c r="G60" s="11">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="H60" s="13">
+        <v>385.02</v>
+      </c>
+      <c r="I60" s="13">
+        <v>385.38</v>
+      </c>
+      <c r="J60" s="13">
+        <v>387.81</v>
+      </c>
+      <c r="K60" s="13">
+        <v>382.23</v>
+      </c>
+      <c r="L60" s="11">
+        <v>399.28</v>
+      </c>
+      <c r="M60" s="11">
+        <v>408.04941176470589</v>
+      </c>
+      <c r="N60" s="11">
+        <v>402.17333333333335</v>
+      </c>
+      <c r="O60" s="11">
+        <v>398.84869565217394</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>2039</v>
+      </c>
+      <c r="B61" s="12">
+        <v>2</v>
+      </c>
+      <c r="C61" s="12">
+        <v>26</v>
+      </c>
+      <c r="D61" s="11">
+        <v>95.238095238095241</v>
+      </c>
+      <c r="E61" s="11">
+        <v>90.079365079365076</v>
+      </c>
+      <c r="F61" s="11">
+        <v>92.063492063492063</v>
+      </c>
+      <c r="G61" s="11">
+        <v>91.666666666666671</v>
+      </c>
+      <c r="H61" s="13">
+        <v>448.18</v>
+      </c>
+      <c r="I61" s="13">
+        <v>445.3</v>
+      </c>
+      <c r="J61" s="13">
+        <v>447.3</v>
+      </c>
+      <c r="K61" s="13">
+        <v>442.1</v>
+      </c>
+      <c r="L61" s="11">
+        <v>470.589</v>
+      </c>
+      <c r="M61" s="11">
+        <v>494.34185022026435</v>
+      </c>
+      <c r="N61" s="11">
+        <v>485.86034482758623</v>
+      </c>
+      <c r="O61" s="11">
+        <v>482.29090909090905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <v>2040</v>
+      </c>
+      <c r="B62" s="12">
+        <v>2</v>
+      </c>
+      <c r="C62" s="12">
+        <v>20</v>
+      </c>
+      <c r="D62" s="11">
+        <v>92.658730158730165</v>
+      </c>
+      <c r="E62" s="11">
+        <v>90.873015873015873</v>
+      </c>
+      <c r="F62" s="11">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="G62" s="11">
+        <v>90.277777777777771</v>
+      </c>
+      <c r="H62" s="13">
+        <v>481.56</v>
+      </c>
+      <c r="I62" s="13">
+        <v>492.67</v>
+      </c>
+      <c r="J62" s="13">
+        <v>508.07</v>
+      </c>
+      <c r="K62" s="13">
+        <v>504.39</v>
+      </c>
+      <c r="L62" s="11">
+        <v>519.71357601713055</v>
+      </c>
+      <c r="M62" s="11">
+        <v>542.15213973799132</v>
+      </c>
+      <c r="N62" s="11">
+        <v>561.55105263157895</v>
+      </c>
+      <c r="O62" s="11">
+        <v>558.70892307692316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <v>2041</v>
+      </c>
+      <c r="B63" s="12">
+        <v>2</v>
+      </c>
+      <c r="C63" s="12">
+        <v>21</v>
+      </c>
+      <c r="D63" s="11">
+        <v>89.285714285714292</v>
+      </c>
+      <c r="E63" s="11">
+        <v>87.698412698412696</v>
+      </c>
+      <c r="F63" s="11">
+        <v>87.698412698412696</v>
+      </c>
+      <c r="G63" s="11">
+        <v>79.960317460317455</v>
+      </c>
+      <c r="H63" s="13">
+        <v>563.87</v>
+      </c>
+      <c r="I63" s="13">
+        <v>561.66</v>
+      </c>
+      <c r="J63" s="13">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="K63" s="13">
+        <v>556.32000000000005</v>
+      </c>
+      <c r="L63" s="11">
+        <v>631.53440000000001</v>
+      </c>
+      <c r="M63" s="11">
+        <v>640.44488687782803</v>
+      </c>
+      <c r="N63" s="11">
+        <v>621.64180995475101</v>
+      </c>
+      <c r="O63" s="11">
         <v>695.74511166253114</v>
       </c>
     </row>

--- a/Analisis Antonio/Analisis Antonio.xlsx
+++ b/Analisis Antonio/Analisis Antonio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\elissa\Analisis\Analisis-R\Analisis Antonio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elilo\Desktop\Apps\R Studio\Analisis articulo\Analisis Antonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B502173-73E4-4B02-83A0-28F79D891B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66779058-CF62-4DAF-8DAB-D63EA8AB51B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AC16590C-9FA7-46B7-9DF7-308A7576428D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC16590C-9FA7-46B7-9DF7-308A7576428D}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t># SUJETO</t>
   </si>
@@ -176,18 +176,6 @@
   </si>
   <si>
     <t>Tgt+NTgt_RT_RC</t>
-  </si>
-  <si>
-    <t>Hom_IE</t>
-  </si>
-  <si>
-    <t>NTgt_IE</t>
-  </si>
-  <si>
-    <t>Tgt_IE</t>
-  </si>
-  <si>
-    <t>Tgt+NTgt_IE</t>
   </si>
   <si>
     <t>Hom_IE_RC</t>
@@ -305,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -328,16 +316,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,17 +637,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2231DC3-60B7-4259-919E-06AC75018A9F}">
   <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView topLeftCell="E28" workbookViewId="0">
-      <selection sqref="A1:AA63"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
@@ -818,19 +801,19 @@
         <v>350.08</v>
       </c>
       <c r="X2">
-        <v>376.78825531914896</v>
+        <v>3.7678825531914892</v>
       </c>
       <c r="Y2">
-        <v>382.85770212765959</v>
+        <v>3.8285770212765953</v>
       </c>
       <c r="Z2">
-        <v>377.73913043478262</v>
+        <v>3.7773913043478262</v>
       </c>
       <c r="AA2">
-        <v>360.81865030674851</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3.6081865030674849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
@@ -901,19 +884,19 @@
         <v>471.29</v>
       </c>
       <c r="X3">
-        <v>538.50193548387097</v>
+        <v>5.3850193548387093</v>
       </c>
       <c r="Y3">
-        <v>537.08193832599125</v>
+        <v>5.3708193832599118</v>
       </c>
       <c r="Z3">
-        <v>501.00206896551725</v>
+        <v>5.0100206896551729</v>
       </c>
       <c r="AA3">
-        <v>518.6248034934498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.1862480349344979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
@@ -984,19 +967,19 @@
         <v>400.46</v>
       </c>
       <c r="X4">
-        <v>417.67659574468087</v>
+        <v>4.1767659574468086</v>
       </c>
       <c r="Y4">
-        <v>447.17315436241608</v>
+        <v>4.4717315436241609</v>
       </c>
       <c r="Z4">
-        <v>435.28578947368419</v>
+        <v>4.3528578947368413</v>
       </c>
       <c r="AA4">
-        <v>463.98124137931035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.6398124137931029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1004</v>
       </c>
@@ -1067,19 +1050,19 @@
         <v>452.14</v>
       </c>
       <c r="X5">
-        <v>532.35282511210767</v>
+        <v>5.3235282511210755</v>
       </c>
       <c r="Y5">
-        <v>539.08074418604656</v>
+        <v>5.3908074418604652</v>
       </c>
       <c r="Z5">
-        <v>521.62884955752213</v>
+        <v>5.2162884955752213</v>
       </c>
       <c r="AA5">
-        <v>545.16401913875598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.4516401913875594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1005</v>
       </c>
@@ -1150,19 +1133,19 @@
         <v>478.75</v>
       </c>
       <c r="X6">
-        <v>584.13254004576663</v>
+        <v>5.8413254004576665</v>
       </c>
       <c r="Y6">
-        <v>556.41823008849553</v>
+        <v>5.5641823008849558</v>
       </c>
       <c r="Z6">
-        <v>554.1621573033708</v>
+        <v>5.5416215730337077</v>
       </c>
       <c r="AA6">
-        <v>552.1510297482838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.5215102974828376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1006</v>
       </c>
@@ -1233,19 +1216,19 @@
         <v>413.83</v>
       </c>
       <c r="X7">
-        <v>449.60487804878051</v>
+        <v>4.4960487804878042</v>
       </c>
       <c r="Y7">
-        <v>436.53295774647887</v>
+        <v>4.3653295774647889</v>
       </c>
       <c r="Z7">
-        <v>426.57831325301203</v>
+        <v>4.2657831325301201</v>
       </c>
       <c r="AA7">
-        <v>420.50467741935483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.2050467741935478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1007</v>
       </c>
@@ -1316,19 +1299,19 @@
         <v>411.86</v>
       </c>
       <c r="X8">
-        <v>444.35823157894737</v>
+        <v>4.4435823157894738</v>
       </c>
       <c r="Y8">
-        <v>463.23398230088497</v>
+        <v>4.6323398230088495</v>
       </c>
       <c r="Z8">
-        <v>465.22559999999999</v>
+        <v>4.6522559999999995</v>
       </c>
       <c r="AA8">
-        <v>458.22834437086095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.5822834437086097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1009</v>
       </c>
@@ -1399,19 +1382,19 @@
         <v>374.18</v>
       </c>
       <c r="X9">
-        <v>414.14709677419359</v>
+        <v>4.1414709677419355</v>
       </c>
       <c r="Y9">
-        <v>418.61055432372501</v>
+        <v>4.1861055432372503</v>
       </c>
       <c r="Z9">
-        <v>427.3278947368421</v>
+        <v>4.2732789473684205</v>
       </c>
       <c r="AA9">
-        <v>409.08182212581346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.090818221258135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1010</v>
       </c>
@@ -1482,19 +1465,19 @@
         <v>434.24</v>
       </c>
       <c r="X10">
-        <v>483.07428571428574</v>
+        <v>4.830742857142857</v>
       </c>
       <c r="Y10">
-        <v>502.32774193548386</v>
+        <v>5.0232774193548382</v>
       </c>
       <c r="Z10">
-        <v>533.51655502392339</v>
+        <v>5.3351655502392346</v>
       </c>
       <c r="AA10">
-        <v>494.03376975169306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.94033769751693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1011</v>
       </c>
@@ -1565,19 +1548,19 @@
         <v>491.53</v>
       </c>
       <c r="X11">
-        <v>595.2208033826638</v>
+        <v>5.9522080338266381</v>
       </c>
       <c r="Y11">
-        <v>563.69552238805966</v>
+        <v>5.6369552238805962</v>
       </c>
       <c r="Z11">
-        <v>556.92544276457886</v>
+        <v>5.569254427645788</v>
       </c>
       <c r="AA11">
-        <v>539.71921568627454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.3971921568627446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1012</v>
       </c>
@@ -1648,19 +1631,19 @@
         <v>459.9</v>
       </c>
       <c r="X12">
-        <v>427.53391304347826</v>
+        <v>4.2753391304347828</v>
       </c>
       <c r="Y12">
-        <v>487.39314533622564</v>
+        <v>4.873931453362256</v>
       </c>
       <c r="Z12">
-        <v>463.09199999999998</v>
+        <v>4.6309199999999997</v>
       </c>
       <c r="AA12">
-        <v>495.27692307692308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.9527692307692304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1013</v>
       </c>
@@ -1731,19 +1714,19 @@
         <v>452.03</v>
       </c>
       <c r="X13">
-        <v>468.24651356993735</v>
+        <v>4.6824651356993732</v>
       </c>
       <c r="Y13">
-        <v>479.9833962264151</v>
+        <v>4.7998339622641506</v>
       </c>
       <c r="Z13">
-        <v>481.51384615384615</v>
+        <v>4.8151384615384618</v>
       </c>
       <c r="AA13">
-        <v>479.62762105263158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.7962762105263153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1014</v>
       </c>
@@ -1814,19 +1797,19 @@
         <v>403.45</v>
       </c>
       <c r="X14">
-        <v>446.53556485355654</v>
+        <v>4.4653556485355654</v>
       </c>
       <c r="Y14">
-        <v>430.85217391304349</v>
+        <v>4.3085217391304349</v>
       </c>
       <c r="Z14">
-        <v>461.75070967741937</v>
+        <v>4.6175070967741938</v>
       </c>
       <c r="AA14">
-        <v>421.86473029045646</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.2186473029045644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1015</v>
       </c>
@@ -1897,19 +1880,19 @@
         <v>483.56</v>
       </c>
       <c r="X15">
-        <v>445.75199999999995</v>
+        <v>4.4575199999999997</v>
       </c>
       <c r="Y15">
-        <v>521.35503325942352</v>
+        <v>5.2135503325942345</v>
       </c>
       <c r="Z15">
-        <v>514.01397379912669</v>
+        <v>5.1401397379912668</v>
       </c>
       <c r="AA15">
-        <v>536.81550660792959</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.3681550660792956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1016</v>
       </c>
@@ -1980,19 +1963,19 @@
         <v>440.92</v>
       </c>
       <c r="X16">
-        <v>477.38701986754967</v>
+        <v>4.773870198675497</v>
       </c>
       <c r="Y16">
-        <v>514.05672055427249</v>
+        <v>5.1405672055427249</v>
       </c>
       <c r="Z16">
-        <v>510.78324705882352</v>
+        <v>5.1078324705882361</v>
       </c>
       <c r="AA16">
-        <v>508.52100686498858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.0852100686498858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1017</v>
       </c>
@@ -2063,19 +2046,19 @@
         <v>419.39</v>
       </c>
       <c r="X17">
-        <v>420.77189189189187</v>
+        <v>4.2077189189189186</v>
       </c>
       <c r="Y17">
-        <v>465.84641425389759</v>
+        <v>4.6584641425389757</v>
       </c>
       <c r="Z17">
-        <v>455.13295404814005</v>
+        <v>4.5513295404814</v>
       </c>
       <c r="AA17">
-        <v>472.86926174496642</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.7286926174496644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1018</v>
       </c>
@@ -2146,19 +2129,19 @@
         <v>416.64</v>
       </c>
       <c r="X18">
-        <v>425.33707317073168</v>
+        <v>4.2533707317073164</v>
       </c>
       <c r="Y18">
-        <v>446.67909278350515</v>
+        <v>4.4667909278350511</v>
       </c>
       <c r="Z18">
-        <v>432.03421487603305</v>
+        <v>4.3203421487603304</v>
       </c>
       <c r="AA18">
-        <v>432.96197938144326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.329619793814433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1021</v>
       </c>
@@ -2229,19 +2212,19 @@
         <v>405.56</v>
       </c>
       <c r="X19">
-        <v>462.060814479638</v>
+        <v>4.6206081447963809</v>
       </c>
       <c r="Y19">
-        <v>487.2672</v>
+        <v>4.8726719999999997</v>
       </c>
       <c r="Z19">
-        <v>501.45553398058252</v>
+        <v>5.0145553398058258</v>
       </c>
       <c r="AA19">
-        <v>491.35153846153844</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.9135153846153843</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1022</v>
       </c>
@@ -2312,19 +2295,19 @@
         <v>433.99</v>
       </c>
       <c r="X20">
-        <v>425.95443037974684</v>
+        <v>4.2595443037974681</v>
       </c>
       <c r="Y20">
-        <v>489.02924829157172</v>
+        <v>4.8902924829157168</v>
       </c>
       <c r="Z20">
-        <v>489.14709677419353</v>
+        <v>4.8914709677419355</v>
       </c>
       <c r="AA20">
-        <v>532.19211678832119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.3219211678832119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1023</v>
       </c>
@@ -2395,19 +2378,19 @@
         <v>477.89</v>
       </c>
       <c r="X21">
-        <v>475.87659043659045</v>
+        <v>4.7587659043659043</v>
       </c>
       <c r="Y21">
-        <v>535.21142857142854</v>
+        <v>5.3521142857142854</v>
       </c>
       <c r="Z21">
-        <v>553.11709090909085</v>
+        <v>5.5311709090909087</v>
       </c>
       <c r="AA21">
-        <v>597.65895781637721</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.9765895781637717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1024</v>
       </c>
@@ -2478,19 +2461,19 @@
         <v>482.46</v>
       </c>
       <c r="X22">
-        <v>475.71030549898165</v>
+        <v>4.7571030549898161</v>
       </c>
       <c r="Y22">
-        <v>511.0666105263158</v>
+        <v>5.1106661052631583</v>
       </c>
       <c r="Z22">
-        <v>492.89526970954358</v>
+        <v>4.9289526970954354</v>
       </c>
       <c r="AA22">
-        <v>509.76905660377361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.0976905660377358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1025</v>
       </c>
@@ -2561,19 +2544,19 @@
         <v>454.94</v>
       </c>
       <c r="X23">
-        <v>678.28958677685955</v>
+        <v>6.7828958677685955</v>
       </c>
       <c r="Y23">
-        <v>616.72453608247417</v>
+        <v>6.167245360824742</v>
       </c>
       <c r="Z23">
-        <v>616.34238341968921</v>
+        <v>6.1634238341968919</v>
       </c>
       <c r="AA23">
-        <v>553.84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.5384000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1026</v>
       </c>
@@ -2644,19 +2627,19 @@
         <v>484.83</v>
       </c>
       <c r="X24">
-        <v>450.09523046092187</v>
+        <v>4.5009523046092186</v>
       </c>
       <c r="Y24">
-        <v>476.04534412955468</v>
+        <v>4.7604534412955468</v>
       </c>
       <c r="Z24">
-        <v>487.58663951120161</v>
+        <v>4.8758663951120162</v>
       </c>
       <c r="AA24">
-        <v>498.68228571428568</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.9868228571428563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1028</v>
       </c>
@@ -2727,19 +2710,19 @@
         <v>483.62</v>
       </c>
       <c r="X25">
-        <v>500.06081370449675</v>
+        <v>5.000608137044968</v>
       </c>
       <c r="Y25">
-        <v>543.3854304635762</v>
+        <v>5.4338543046357612</v>
       </c>
       <c r="Z25">
-        <v>526.13559020044545</v>
+        <v>5.2613559020044551</v>
       </c>
       <c r="AA25">
-        <v>539.25769911504426</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.3925769911504426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1029</v>
       </c>
@@ -2810,19 +2793,19 @@
         <v>575.32000000000005</v>
       </c>
       <c r="X26">
-        <v>590.23304347826092</v>
+        <v>5.9023304347826091</v>
       </c>
       <c r="Y26">
-        <v>767.27055118110229</v>
+        <v>7.6727055118110226</v>
       </c>
       <c r="Z26">
-        <v>709.74763092269336</v>
+        <v>7.0974763092269333</v>
       </c>
       <c r="AA26">
-        <v>923.44356687898096</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+        <v>9.2344356687898088</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>1030</v>
       </c>
@@ -2893,19 +2876,19 @@
         <v>430.46</v>
       </c>
       <c r="X27">
-        <v>459.63058315334774</v>
+        <v>4.5963058315334777</v>
       </c>
       <c r="Y27">
-        <v>484.91595505617977</v>
+        <v>4.8491595505617973</v>
       </c>
       <c r="Z27">
-        <v>495.9926292134831</v>
+        <v>4.9599262921348313</v>
       </c>
       <c r="AA27">
-        <v>485.35087248322151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.8535087248322144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2001</v>
       </c>
@@ -2976,19 +2959,19 @@
         <v>427.05</v>
       </c>
       <c r="X28">
-        <v>439.41212903225806</v>
+        <v>4.3941212903225813</v>
       </c>
       <c r="Y28">
-        <v>449.05965517241378</v>
+        <v>4.4905965517241384</v>
       </c>
       <c r="Z28">
-        <v>484.69520361990953</v>
+        <v>4.8469520361990952</v>
       </c>
       <c r="AA28">
-        <v>462.86709677419356</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.628670967741936</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2002</v>
       </c>
@@ -3059,19 +3042,19 @@
         <v>454.64</v>
       </c>
       <c r="X29">
-        <v>494.69132075471703</v>
+        <v>4.94691320754717</v>
       </c>
       <c r="Y29">
-        <v>495.1128358208955</v>
+        <v>4.9511283582089556</v>
       </c>
       <c r="Z29">
-        <v>487.02037735849058</v>
+        <v>4.8702037735849055</v>
       </c>
       <c r="AA29">
-        <v>483.41468354430378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.8341468354430379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2003</v>
       </c>
@@ -3142,19 +3125,19 @@
         <v>429.08</v>
       </c>
       <c r="X30">
-        <v>419.3008695652174</v>
+        <v>4.1930086956521739</v>
       </c>
       <c r="Y30">
-        <v>468.66437086092714</v>
+        <v>4.6866437086092718</v>
       </c>
       <c r="Z30">
-        <v>440.22835117773019</v>
+        <v>4.402283511777302</v>
       </c>
       <c r="AA30">
-        <v>483.79489932885906</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.8379489932885908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2004</v>
       </c>
@@ -3225,19 +3208,19 @@
         <v>502.56</v>
       </c>
       <c r="X31">
-        <v>537.9422222222222</v>
+        <v>5.3794222222222219</v>
       </c>
       <c r="Y31">
-        <v>534.20843423799579</v>
+        <v>5.342084342379958</v>
       </c>
       <c r="Z31">
-        <v>543.19304347826085</v>
+        <v>5.4319304347826085</v>
       </c>
       <c r="AA31">
-        <v>517.9759509202454</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.1797595092024542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>2005</v>
       </c>
@@ -3308,19 +3291,19 @@
         <v>418.66</v>
       </c>
       <c r="X32">
-        <v>477.04412903225807</v>
+        <v>4.770441290322581</v>
       </c>
       <c r="Y32">
-        <v>461.65538461538461</v>
+        <v>4.6165538461538462</v>
       </c>
       <c r="Z32">
-        <v>469.73665236051505</v>
+        <v>4.6973665236051501</v>
       </c>
       <c r="AA32">
-        <v>446.09860465116276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.4609860465116276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>2007</v>
       </c>
@@ -3391,19 +3374,19 @@
         <v>470.32</v>
       </c>
       <c r="X33">
-        <v>587.64653465346532</v>
+        <v>5.876465346534653</v>
       </c>
       <c r="Y33">
-        <v>601.25427135678399</v>
+        <v>6.0125427135678402</v>
       </c>
       <c r="Z33">
-        <v>581.58356435643555</v>
+        <v>5.8158356435643563</v>
       </c>
       <c r="AA33">
-        <v>595.58110552763821</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.9558110552763823</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>2008</v>
       </c>
@@ -3474,19 +3457,19 @@
         <v>477.52</v>
       </c>
       <c r="X34">
-        <v>484.43046025104604</v>
+        <v>4.8443046025104604</v>
       </c>
       <c r="Y34">
-        <v>495.10092050209209</v>
+        <v>4.9510092050209211</v>
       </c>
       <c r="Z34">
-        <v>501.44301886792454</v>
+        <v>5.0144301886792455</v>
       </c>
       <c r="AA34">
-        <v>512.06399999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.1206399999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>2009</v>
       </c>
@@ -3557,19 +3540,19 @@
         <v>472.74</v>
       </c>
       <c r="X35">
-        <v>507.49649999999997</v>
+        <v>5.0749649999999997</v>
       </c>
       <c r="Y35">
-        <v>515.42328358208954</v>
+        <v>5.1542328358208955</v>
       </c>
       <c r="Z35">
-        <v>523.94086956521744</v>
+        <v>5.2394086956521742</v>
       </c>
       <c r="AA35">
-        <v>522.50210526315789</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.225021052631579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>2010</v>
       </c>
@@ -3640,19 +3623,19 @@
         <v>542.12</v>
       </c>
       <c r="X36">
-        <v>554.83779661016956</v>
+        <v>5.548377966101695</v>
       </c>
       <c r="Y36">
-        <v>618.84404494382022</v>
+        <v>6.1884404494382013</v>
       </c>
       <c r="Z36">
-        <v>557.52676789587861</v>
+        <v>5.5752676789587854</v>
       </c>
       <c r="AA36">
-        <v>599.18526315789472</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.9918526315789471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>2011</v>
       </c>
@@ -3723,19 +3706,19 @@
         <v>415.5</v>
       </c>
       <c r="X37">
-        <v>456.4990243902439</v>
+        <v>4.5649902439024386</v>
       </c>
       <c r="Y37">
-        <v>482.5661538461539</v>
+        <v>4.8256615384615387</v>
       </c>
       <c r="Z37">
-        <v>485.19821826280628</v>
+        <v>4.8519821826280625</v>
       </c>
       <c r="AA37">
-        <v>482.51612903225805</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.8251612903225807</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>2013</v>
       </c>
@@ -3806,19 +3789,19 @@
         <v>429.39</v>
       </c>
       <c r="X38">
-        <v>458.45692307692303</v>
+        <v>4.5845692307692305</v>
       </c>
       <c r="Y38">
-        <v>463.36431965442762</v>
+        <v>4.6336431965442761</v>
       </c>
       <c r="Z38">
-        <v>474.60919037199125</v>
+        <v>4.746091903719913</v>
       </c>
       <c r="AA38">
-        <v>470.46208695652177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.7046208695652174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>2014</v>
       </c>
@@ -3889,19 +3872,19 @@
         <v>510.63</v>
       </c>
       <c r="X39">
-        <v>580.75043478260864</v>
+        <v>5.8075043478260868</v>
       </c>
       <c r="Y39">
-        <v>577.35272727272729</v>
+        <v>5.7735272727272724</v>
       </c>
       <c r="Z39">
-        <v>539.3979574468085</v>
+        <v>5.3939795744680854</v>
       </c>
       <c r="AA39">
-        <v>552.26935622317603</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.5226935622317601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>2015</v>
       </c>
@@ -3972,19 +3955,19 @@
         <v>479.23</v>
       </c>
       <c r="X40">
-        <v>516.82615384615383</v>
+        <v>5.1682615384615387</v>
       </c>
       <c r="Y40">
-        <v>524.07272727272721</v>
+        <v>5.2407272727272725</v>
       </c>
       <c r="Z40">
-        <v>549.33769911504419</v>
+        <v>5.4933769911504431</v>
       </c>
       <c r="AA40">
-        <v>563.01146853146849</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.6301146853146857</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>2016</v>
       </c>
@@ -4055,19 +4038,19 @@
         <v>541.76</v>
       </c>
       <c r="X41">
-        <v>568.90049999999985</v>
+        <v>5.689004999999999</v>
       </c>
       <c r="Y41">
-        <v>606.97710583153344</v>
+        <v>6.069771058315335</v>
       </c>
       <c r="Z41">
-        <v>616.77547826086948</v>
+        <v>6.1677547826086956</v>
       </c>
       <c r="AA41">
-        <v>587.19793548387099</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.87197935483871</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>2017</v>
       </c>
@@ -4138,19 +4121,19 @@
         <v>430.39</v>
       </c>
       <c r="X42">
-        <v>491.21292576419216</v>
+        <v>4.9121292576419213</v>
       </c>
       <c r="Y42">
-        <v>488.08070484581498</v>
+        <v>4.8808070484581503</v>
       </c>
       <c r="Z42">
-        <v>487.75755458515283</v>
+        <v>4.8775755458515286</v>
       </c>
       <c r="AA42">
-        <v>469.51636363636362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.6951636363636355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>2018</v>
       </c>
@@ -4221,19 +4204,19 @@
         <v>433.18</v>
       </c>
       <c r="X43">
-        <v>448.7334193548387</v>
+        <v>4.4873341935483868</v>
       </c>
       <c r="Y43">
-        <v>478.58577181208057</v>
+        <v>4.7858577181208055</v>
       </c>
       <c r="Z43">
-        <v>485.10284424379233</v>
+        <v>4.8510284424379231</v>
       </c>
       <c r="AA43">
-        <v>498.45369863013701</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.9845369863013707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>2019</v>
       </c>
@@ -4304,19 +4287,19 @@
         <v>489.26</v>
       </c>
       <c r="X44">
-        <v>780.35023255813951</v>
+        <v>7.8035023255813956</v>
       </c>
       <c r="Y44">
-        <v>677.10562500000003</v>
+        <v>6.77105625</v>
       </c>
       <c r="Z44">
-        <v>674.53602179836514</v>
+        <v>6.7453602179836514</v>
       </c>
       <c r="AA44">
-        <v>684.96399999999994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6.84964</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>2020</v>
       </c>
@@ -4387,19 +4370,19 @@
         <v>462.71</v>
       </c>
       <c r="X45">
-        <v>507.8554323725055</v>
+        <v>5.0785543237250552</v>
       </c>
       <c r="Y45">
-        <v>530.42813793103448</v>
+        <v>5.3042813793103445</v>
       </c>
       <c r="Z45">
-        <v>503.64077753779696</v>
+        <v>5.0364077753779695</v>
       </c>
       <c r="AA45">
-        <v>511.41631578947363</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.114163157894736</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>2021</v>
       </c>
@@ -4470,19 +4453,19 @@
         <v>443.2</v>
       </c>
       <c r="X46">
-        <v>660.56869565217391</v>
+        <v>6.6056869565217395</v>
       </c>
       <c r="Y46">
-        <v>630.9885082872928</v>
+        <v>6.3098850828729285</v>
       </c>
       <c r="Z46">
-        <v>524.83428571428567</v>
+        <v>5.2483428571428572</v>
       </c>
       <c r="AA46">
-        <v>493.09668874172183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.9309668874172186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>2022</v>
       </c>
@@ -4553,19 +4536,19 @@
         <v>410.41</v>
       </c>
       <c r="X47">
-        <v>468.87272727272727</v>
+        <v>4.6887272727272729</v>
       </c>
       <c r="Y47">
-        <v>504.6951724137931</v>
+        <v>5.0469517241379309</v>
       </c>
       <c r="Z47">
-        <v>504.79708029197076</v>
+        <v>5.0479708029197079</v>
       </c>
       <c r="AA47">
-        <v>486.69797647058823</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.8669797647058832</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>2024</v>
       </c>
@@ -4636,19 +4619,19 @@
         <v>440.05</v>
       </c>
       <c r="X48">
-        <v>483.54599999999999</v>
+        <v>4.8354599999999994</v>
       </c>
       <c r="Y48">
-        <v>466.03826086956525</v>
+        <v>4.6603826086956524</v>
       </c>
       <c r="Z48">
-        <v>465.4393429158111</v>
+        <v>4.6543934291581106</v>
       </c>
       <c r="AA48">
-        <v>463.98577405857742</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.6398577405857742</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>2025</v>
       </c>
@@ -4719,19 +4702,19 @@
         <v>545.52</v>
       </c>
       <c r="X49">
-        <v>613.18923076923079</v>
+        <v>6.1318923076923069</v>
       </c>
       <c r="Y49">
-        <v>596.14481012658223</v>
+        <v>5.9614481012658223</v>
       </c>
       <c r="Z49">
-        <v>607.69107692307693</v>
+        <v>6.0769107692307696</v>
       </c>
       <c r="AA49">
-        <v>591.27329032258069</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.9127329032258062</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>2026</v>
       </c>
@@ -4802,19 +4785,19 @@
         <v>453.93</v>
       </c>
       <c r="X50">
-        <v>443.38490721649481</v>
+        <v>4.4338490721649482</v>
       </c>
       <c r="Y50">
-        <v>478.43148387096778</v>
+        <v>4.7843148387096779</v>
       </c>
       <c r="Z50">
-        <v>494.93017241379312</v>
+        <v>4.9493017241379311</v>
       </c>
       <c r="AA50">
-        <v>475.63559251559252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.7563559251559253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>2027</v>
       </c>
@@ -4885,19 +4868,19 @@
         <v>533.42999999999995</v>
       </c>
       <c r="X51">
-        <v>543.98188679245288</v>
+        <v>5.4398188679245285</v>
       </c>
       <c r="Y51">
-        <v>561.92332640332643</v>
+        <v>5.6192332640332641</v>
       </c>
       <c r="Z51">
-        <v>543.30778242677832</v>
+        <v>5.4330778242677829</v>
       </c>
       <c r="AA51">
-        <v>556.62260869565216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.5662260869565214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>2028</v>
       </c>
@@ -4968,19 +4951,19 @@
         <v>520.08000000000004</v>
       </c>
       <c r="X52">
-        <v>550.61740206185561</v>
+        <v>5.5061740206185563</v>
       </c>
       <c r="Y52">
-        <v>571.98638297872344</v>
+        <v>5.7198638297872337</v>
       </c>
       <c r="Z52">
-        <v>581.76461538461535</v>
+        <v>5.8176461538461544</v>
       </c>
       <c r="AA52">
-        <v>578.63205298013258</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.7863205298013254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>2029</v>
       </c>
@@ -5051,19 +5034,19 @@
         <v>472.34</v>
       </c>
       <c r="X53">
-        <v>483.2287659574468</v>
+        <v>4.8322876595744679</v>
       </c>
       <c r="Y53">
-        <v>543.93853211009173</v>
+        <v>5.439385321100918</v>
       </c>
       <c r="Z53">
-        <v>530.73589164785551</v>
+        <v>5.307358916478556</v>
       </c>
       <c r="AA53">
-        <v>560.13967058823528</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.6013967058823528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>2030</v>
       </c>
@@ -5134,19 +5117,19 @@
         <v>481.7</v>
       </c>
       <c r="X54">
-        <v>500.24955223880596</v>
+        <v>5.0024955223880596</v>
       </c>
       <c r="Y54">
-        <v>517.53413793103448</v>
+        <v>5.1753413793103444</v>
       </c>
       <c r="Z54">
-        <v>520.1324017467249</v>
+        <v>5.2013240174672495</v>
       </c>
       <c r="AA54">
-        <v>532.40526315789475</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.3240526315789465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>2032</v>
       </c>
@@ -5217,19 +5200,19 @@
         <v>488.02</v>
       </c>
       <c r="X55">
-        <v>496.27758835758834</v>
+        <v>4.9627758835758833</v>
       </c>
       <c r="Y55">
-        <v>514.443821656051</v>
+        <v>5.14443821656051</v>
       </c>
       <c r="Z55">
-        <v>517.19230769230762</v>
+        <v>5.1719230769230764</v>
       </c>
       <c r="AA55">
-        <v>532.38545454545454</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.3238545454545454</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>2033</v>
       </c>
@@ -5300,19 +5283,19 @@
         <v>421.26</v>
       </c>
       <c r="X56">
-        <v>460.03764705882355</v>
+        <v>4.6003764705882357</v>
       </c>
       <c r="Y56">
-        <v>434.91176470588238</v>
+        <v>4.349117647058824</v>
       </c>
       <c r="Z56">
-        <v>464.48769230769227</v>
+        <v>4.6448769230769225</v>
       </c>
       <c r="AA56">
-        <v>452.69731343283581</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.5269731343283581</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>2034</v>
       </c>
@@ -5383,19 +5366,19 @@
         <v>449.77</v>
       </c>
       <c r="X57">
-        <v>418.44495867768592</v>
+        <v>4.184449586776859</v>
       </c>
       <c r="Y57">
-        <v>484.15570469798661</v>
+        <v>4.8415570469798652</v>
       </c>
       <c r="Z57">
-        <v>506.20500000000004</v>
+        <v>5.0620500000000002</v>
       </c>
       <c r="AA57">
-        <v>516.36464692482912</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.1636464692482908</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>2036</v>
       </c>
@@ -5466,19 +5449,19 @@
         <v>469.37</v>
       </c>
       <c r="X58">
-        <v>538.796862745098</v>
+        <v>5.3879686274509808</v>
       </c>
       <c r="Y58">
-        <v>529.50479481641469</v>
+        <v>5.2950479481641466</v>
       </c>
       <c r="Z58">
-        <v>551.58724373576308</v>
+        <v>5.5158724373576309</v>
       </c>
       <c r="AA58">
-        <v>518.77736842105264</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.1877736842105264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>2037</v>
       </c>
@@ -5549,19 +5532,19 @@
         <v>437.51</v>
       </c>
       <c r="X59">
-        <v>631.25643059490085</v>
+        <v>6.3125643059490075</v>
       </c>
       <c r="Y59">
-        <v>603.42545454545461</v>
+        <v>6.0342545454545462</v>
       </c>
       <c r="Z59">
-        <v>625.07389830508475</v>
+        <v>6.2507389830508471</v>
       </c>
       <c r="AA59">
-        <v>622.89559322033892</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6.2289559322033892</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>2038</v>
       </c>
@@ -5632,19 +5615,19 @@
         <v>382.23</v>
       </c>
       <c r="X60">
-        <v>399.28</v>
+        <v>3.9927999999999999</v>
       </c>
       <c r="Y60">
-        <v>408.04941176470589</v>
+        <v>4.080494117647059</v>
       </c>
       <c r="Z60">
-        <v>402.17333333333335</v>
+        <v>4.0217333333333336</v>
       </c>
       <c r="AA60">
-        <v>398.84869565217394</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3.9884869565217396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>2039</v>
       </c>
@@ -5715,19 +5698,19 @@
         <v>442.1</v>
       </c>
       <c r="X61">
-        <v>470.589</v>
+        <v>4.7058900000000001</v>
       </c>
       <c r="Y61">
-        <v>494.34185022026435</v>
+        <v>4.9434185022026433</v>
       </c>
       <c r="Z61">
-        <v>485.86034482758623</v>
+        <v>4.8586034482758622</v>
       </c>
       <c r="AA61">
-        <v>482.29090909090905</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.822909090909091</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>2040</v>
       </c>
@@ -5798,19 +5781,19 @@
         <v>504.39</v>
       </c>
       <c r="X62">
-        <v>519.71357601713055</v>
+        <v>5.1971357601713057</v>
       </c>
       <c r="Y62">
-        <v>542.15213973799132</v>
+        <v>5.4215213973799132</v>
       </c>
       <c r="Z62">
-        <v>561.55105263157895</v>
+        <v>5.6155105263157887</v>
       </c>
       <c r="AA62">
-        <v>558.70892307692316</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.587089230769231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>2041</v>
       </c>
@@ -5881,16 +5864,16 @@
         <v>556.32000000000005</v>
       </c>
       <c r="X63">
-        <v>631.53440000000001</v>
+        <v>6.3153439999999996</v>
       </c>
       <c r="Y63">
-        <v>640.44488687782803</v>
+        <v>6.4044488687782808</v>
       </c>
       <c r="Z63">
-        <v>621.64180995475101</v>
+        <v>6.2164180995475107</v>
       </c>
       <c r="AA63">
-        <v>695.74511166253114</v>
+        <v>6.957451116625311</v>
       </c>
     </row>
   </sheetData>
@@ -5903,28 +5886,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA5D13E-DFC5-443F-81F5-809FEDA2F56A}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:O63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -5932,2955 +5915,2955 @@
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>93.253968253968253</v>
+      </c>
+      <c r="E2">
+        <v>93.253968253968253</v>
+      </c>
+      <c r="F2">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="G2">
+        <v>97.023809523809518</v>
+      </c>
+      <c r="H2" s="11">
+        <v>351.37</v>
+      </c>
+      <c r="I2" s="11">
+        <v>357.03</v>
+      </c>
+      <c r="J2" s="11">
+        <v>362</v>
+      </c>
+      <c r="K2" s="11">
+        <v>350.08</v>
+      </c>
+      <c r="L2">
+        <v>3.7678825531914892</v>
+      </c>
+      <c r="M2">
+        <v>3.8285770212765953</v>
+      </c>
+      <c r="N2">
+        <v>3.7773913043478262</v>
+      </c>
+      <c r="O2">
+        <v>3.6081865030674849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>86.111111111111114</v>
+      </c>
+      <c r="E3">
+        <v>90.079365079365076</v>
+      </c>
+      <c r="F3">
+        <v>92.063492063492063</v>
+      </c>
+      <c r="G3">
+        <v>90.873015873015873</v>
+      </c>
+      <c r="H3" s="11">
+        <v>463.71</v>
+      </c>
+      <c r="I3" s="11">
+        <v>483.8</v>
+      </c>
+      <c r="J3" s="11">
+        <v>461.24</v>
+      </c>
+      <c r="K3" s="11">
+        <v>471.29</v>
+      </c>
+      <c r="L3">
+        <v>5.3850193548387093</v>
+      </c>
+      <c r="M3">
+        <v>5.3708193832599118</v>
+      </c>
+      <c r="N3">
+        <v>5.0100206896551729</v>
+      </c>
+      <c r="O3">
+        <v>5.1862480349344979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>93.253968253968253</v>
+      </c>
+      <c r="E4">
+        <v>88.69047619047619</v>
+      </c>
+      <c r="F4">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="G4">
+        <v>86.30952380952381</v>
+      </c>
+      <c r="H4" s="11">
+        <v>389.5</v>
+      </c>
+      <c r="I4" s="11">
+        <v>396.6</v>
+      </c>
+      <c r="J4" s="11">
+        <v>393.83</v>
+      </c>
+      <c r="K4" s="11">
+        <v>400.46</v>
+      </c>
+      <c r="L4">
+        <v>4.1767659574468086</v>
+      </c>
+      <c r="M4">
+        <v>4.4717315436241609</v>
+      </c>
+      <c r="N4">
+        <v>4.3528578947368413</v>
+      </c>
+      <c r="O4">
+        <v>4.6398124137931029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>88.492063492063494</v>
+      </c>
+      <c r="E5">
+        <v>85.317460317460316</v>
+      </c>
+      <c r="F5">
+        <v>89.682539682539684</v>
+      </c>
+      <c r="G5">
+        <v>82.936507936507937</v>
+      </c>
+      <c r="H5" s="11">
+        <v>471.09</v>
+      </c>
+      <c r="I5" s="11">
+        <v>459.93</v>
+      </c>
+      <c r="J5" s="11">
+        <v>467.81</v>
+      </c>
+      <c r="K5" s="11">
+        <v>452.14</v>
+      </c>
+      <c r="L5">
+        <v>5.3235282511210755</v>
+      </c>
+      <c r="M5">
+        <v>5.3908074418604652</v>
+      </c>
+      <c r="N5">
+        <v>5.2162884955752213</v>
+      </c>
+      <c r="O5">
+        <v>5.4516401913875594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>86.706349206349202</v>
+      </c>
+      <c r="E6">
+        <v>89.682539682539684</v>
+      </c>
+      <c r="F6">
+        <v>88.293650793650798</v>
+      </c>
+      <c r="G6">
+        <v>86.706349206349202</v>
+      </c>
+      <c r="H6" s="11">
+        <v>506.48</v>
+      </c>
+      <c r="I6" s="11">
+        <v>499.01</v>
+      </c>
+      <c r="J6" s="11">
+        <v>489.29</v>
+      </c>
+      <c r="K6" s="11">
+        <v>478.75</v>
+      </c>
+      <c r="L6">
+        <v>5.8413254004576665</v>
+      </c>
+      <c r="M6">
+        <v>5.5641823008849558</v>
+      </c>
+      <c r="N6">
+        <v>5.5416215730337077</v>
+      </c>
+      <c r="O6">
+        <v>5.5215102974828376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>97.61904761904762</v>
+      </c>
+      <c r="E7">
+        <v>98.611111111111114</v>
+      </c>
+      <c r="F7">
+        <v>98.80952380952381</v>
+      </c>
+      <c r="G7">
+        <v>98.412698412698418</v>
+      </c>
+      <c r="H7" s="11">
+        <v>438.9</v>
+      </c>
+      <c r="I7" s="11">
+        <v>430.47</v>
+      </c>
+      <c r="J7" s="11">
+        <v>421.5</v>
+      </c>
+      <c r="K7" s="11">
+        <v>413.83</v>
+      </c>
+      <c r="L7">
+        <v>4.4960487804878042</v>
+      </c>
+      <c r="M7">
+        <v>4.3653295774647889</v>
+      </c>
+      <c r="N7">
+        <v>4.2657831325301201</v>
+      </c>
+      <c r="O7">
+        <v>4.2050467741935478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>94.246031746031747</v>
+      </c>
+      <c r="E8">
+        <v>89.682539682539684</v>
+      </c>
+      <c r="F8">
+        <v>89.285714285714292</v>
+      </c>
+      <c r="G8">
+        <v>89.88095238095238</v>
+      </c>
+      <c r="H8" s="11">
+        <v>418.79</v>
+      </c>
+      <c r="I8" s="11">
+        <v>415.44</v>
+      </c>
+      <c r="J8" s="11">
+        <v>415.38</v>
+      </c>
+      <c r="K8" s="11">
+        <v>411.86</v>
+      </c>
+      <c r="L8">
+        <v>4.4435823157894738</v>
+      </c>
+      <c r="M8">
+        <v>4.6323398230088495</v>
+      </c>
+      <c r="N8">
+        <v>4.6522559999999995</v>
+      </c>
+      <c r="O8">
+        <v>4.5822834437086097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>1009</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="E9">
+        <v>89.484126984126988</v>
+      </c>
+      <c r="F9">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="G9">
+        <v>91.468253968253961</v>
+      </c>
+      <c r="H9" s="11">
+        <v>382.1</v>
+      </c>
+      <c r="I9" s="11">
+        <v>374.59</v>
+      </c>
+      <c r="J9" s="11">
+        <v>386.63</v>
+      </c>
+      <c r="K9" s="11">
+        <v>374.18</v>
+      </c>
+      <c r="L9">
+        <v>4.1414709677419355</v>
+      </c>
+      <c r="M9">
+        <v>4.1861055432372503</v>
+      </c>
+      <c r="N9">
+        <v>4.2732789473684205</v>
+      </c>
+      <c r="O9">
+        <v>4.090818221258135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>87.5</v>
+      </c>
+      <c r="E10">
+        <v>86.111111111111114</v>
+      </c>
+      <c r="F10">
+        <v>82.936507936507937</v>
+      </c>
+      <c r="G10">
+        <v>87.896825396825392</v>
+      </c>
+      <c r="H10" s="11">
+        <v>422.69</v>
+      </c>
+      <c r="I10" s="11">
+        <v>432.56</v>
+      </c>
+      <c r="J10" s="11">
+        <v>442.48</v>
+      </c>
+      <c r="K10" s="11">
+        <v>434.24</v>
+      </c>
+      <c r="L10">
+        <v>4.830742857142857</v>
+      </c>
+      <c r="M10">
+        <v>5.0232774193548382</v>
+      </c>
+      <c r="N10">
+        <v>5.3351655502392346</v>
+      </c>
+      <c r="O10">
+        <v>4.94033769751693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1011</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>93.849206349206355</v>
+      </c>
+      <c r="E11">
+        <v>93.055555555555557</v>
+      </c>
+      <c r="F11">
+        <v>91.865079365079367</v>
+      </c>
+      <c r="G11">
+        <v>91.071428571428569</v>
+      </c>
+      <c r="H11" s="11">
+        <v>558.61</v>
+      </c>
+      <c r="I11" s="11">
+        <v>524.54999999999995</v>
+      </c>
+      <c r="J11" s="11">
+        <v>511.62</v>
+      </c>
+      <c r="K11" s="11">
+        <v>491.53</v>
+      </c>
+      <c r="L11">
+        <v>5.9522080338266381</v>
+      </c>
+      <c r="M11">
+        <v>5.6369552238805962</v>
+      </c>
+      <c r="N11">
+        <v>5.569254427645788</v>
+      </c>
+      <c r="O11">
+        <v>5.3971921568627446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1012</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="E12">
+        <v>91.468253968253961</v>
+      </c>
+      <c r="F12">
+        <v>95.238095238095241</v>
+      </c>
+      <c r="G12">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="H12" s="11">
+        <v>409.72</v>
+      </c>
+      <c r="I12" s="11">
+        <v>445.81</v>
+      </c>
+      <c r="J12" s="11">
+        <v>441.04</v>
+      </c>
+      <c r="K12" s="11">
+        <v>459.9</v>
+      </c>
+      <c r="L12">
+        <v>4.2753391304347828</v>
+      </c>
+      <c r="M12">
+        <v>4.873931453362256</v>
+      </c>
+      <c r="N12">
+        <v>4.6309199999999997</v>
+      </c>
+      <c r="O12">
+        <v>4.9527692307692304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>1013</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>95.039682539682545</v>
+      </c>
+      <c r="E13">
+        <v>94.642857142857139</v>
+      </c>
+      <c r="F13">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="G13">
+        <v>94.246031746031747</v>
+      </c>
+      <c r="H13" s="11">
+        <v>445.02</v>
+      </c>
+      <c r="I13" s="11">
+        <v>454.27</v>
+      </c>
+      <c r="J13" s="11">
+        <v>447.12</v>
+      </c>
+      <c r="K13" s="11">
+        <v>452.03</v>
+      </c>
+      <c r="L13">
+        <v>4.6824651356993732</v>
+      </c>
+      <c r="M13">
+        <v>4.7998339622641506</v>
+      </c>
+      <c r="N13">
+        <v>4.8151384615384618</v>
+      </c>
+      <c r="O13">
+        <v>4.7962762105263153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>1014</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>94.841269841269835</v>
+      </c>
+      <c r="E14">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="F14">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="G14">
+        <v>95.634920634920633</v>
+      </c>
+      <c r="H14" s="11">
+        <v>423.5</v>
+      </c>
+      <c r="I14" s="11">
+        <v>412.9</v>
+      </c>
+      <c r="J14" s="11">
+        <v>426.02</v>
+      </c>
+      <c r="K14" s="11">
+        <v>403.45</v>
+      </c>
+      <c r="L14">
+        <v>4.4653556485355654</v>
+      </c>
+      <c r="M14">
+        <v>4.3085217391304349</v>
+      </c>
+      <c r="N14">
+        <v>4.6175070967741938</v>
+      </c>
+      <c r="O14">
+        <v>4.2186473029045644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>1015</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>97.222222222222229</v>
+      </c>
+      <c r="E15">
+        <v>89.484126984126988</v>
+      </c>
+      <c r="F15">
+        <v>90.873015873015873</v>
+      </c>
+      <c r="G15">
+        <v>90.079365079365076</v>
+      </c>
+      <c r="H15" s="11">
+        <v>433.37</v>
+      </c>
+      <c r="I15" s="11">
+        <v>466.53</v>
+      </c>
+      <c r="J15" s="11">
+        <v>467.1</v>
+      </c>
+      <c r="K15" s="11">
+        <v>483.56</v>
+      </c>
+      <c r="L15">
+        <v>4.4575199999999997</v>
+      </c>
+      <c r="M15">
+        <v>5.2135503325942345</v>
+      </c>
+      <c r="N15">
+        <v>5.1401397379912668</v>
+      </c>
+      <c r="O15">
+        <v>5.3681550660792956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1016</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>89.88095238095238</v>
+      </c>
+      <c r="E16">
+        <v>85.912698412698418</v>
+      </c>
+      <c r="F16">
+        <v>84.325396825396822</v>
+      </c>
+      <c r="G16">
+        <v>86.706349206349202</v>
+      </c>
+      <c r="H16" s="11">
+        <v>429.08</v>
+      </c>
+      <c r="I16" s="11">
+        <v>441.64</v>
+      </c>
+      <c r="J16" s="11">
+        <v>430.72</v>
+      </c>
+      <c r="K16" s="11">
+        <v>440.92</v>
+      </c>
+      <c r="L16">
+        <v>4.773870198675497</v>
+      </c>
+      <c r="M16">
+        <v>5.1405672055427249</v>
+      </c>
+      <c r="N16">
+        <v>5.1078324705882361</v>
+      </c>
+      <c r="O16">
+        <v>5.0852100686498858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>1017</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>95.436507936507937</v>
+      </c>
+      <c r="E17">
+        <v>89.087301587301582</v>
+      </c>
+      <c r="F17">
+        <v>90.674603174603178</v>
+      </c>
+      <c r="G17">
+        <v>88.69047619047619</v>
+      </c>
+      <c r="H17" s="11">
+        <v>401.57</v>
+      </c>
+      <c r="I17" s="11">
+        <v>415.01</v>
+      </c>
+      <c r="J17" s="11">
+        <v>412.69</v>
+      </c>
+      <c r="K17" s="11">
+        <v>419.39</v>
+      </c>
+      <c r="L17">
+        <v>4.2077189189189186</v>
+      </c>
+      <c r="M17">
+        <v>4.6584641425389757</v>
+      </c>
+      <c r="N17">
+        <v>4.5513295404814</v>
+      </c>
+      <c r="O17">
+        <v>4.7286926174496644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1018</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>97.61904761904762</v>
+      </c>
+      <c r="E18">
+        <v>96.230158730158735</v>
+      </c>
+      <c r="F18">
+        <v>96.031746031746039</v>
+      </c>
+      <c r="G18">
+        <v>96.230158730158735</v>
+      </c>
+      <c r="H18" s="11">
+        <v>415.21</v>
+      </c>
+      <c r="I18" s="11">
+        <v>429.84</v>
+      </c>
+      <c r="J18" s="11">
+        <v>414.89</v>
+      </c>
+      <c r="K18" s="11">
+        <v>416.64</v>
+      </c>
+      <c r="L18">
+        <v>4.2533707317073164</v>
+      </c>
+      <c r="M18">
+        <v>4.4667909278350511</v>
+      </c>
+      <c r="N18">
+        <v>4.3203421487603304</v>
+      </c>
+      <c r="O18">
+        <v>4.329619793814433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>1021</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
         <v>27</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="D19">
+        <v>87.698412698412696</v>
+      </c>
+      <c r="E19">
+        <v>84.325396825396822</v>
+      </c>
+      <c r="F19">
+        <v>81.746031746031747</v>
+      </c>
+      <c r="G19">
+        <v>82.539682539682545</v>
+      </c>
+      <c r="H19" s="11">
+        <v>405.22</v>
+      </c>
+      <c r="I19" s="11">
+        <v>410.89</v>
+      </c>
+      <c r="J19" s="11">
+        <v>409.92</v>
+      </c>
+      <c r="K19" s="11">
+        <v>405.56</v>
+      </c>
+      <c r="L19">
+        <v>4.6206081447963809</v>
+      </c>
+      <c r="M19">
+        <v>4.8726719999999997</v>
+      </c>
+      <c r="N19">
+        <v>5.0145553398058258</v>
+      </c>
+      <c r="O19">
+        <v>4.9135153846153843</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>1022</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>94.047619047619051</v>
+      </c>
+      <c r="E20">
+        <v>87.103174603174608</v>
+      </c>
+      <c r="F20">
+        <v>86.111111111111114</v>
+      </c>
+      <c r="G20">
+        <v>81.547619047619051</v>
+      </c>
+      <c r="H20" s="11">
+        <v>400.6</v>
+      </c>
+      <c r="I20" s="11">
+        <v>425.96</v>
+      </c>
+      <c r="J20" s="11">
+        <v>421.21</v>
+      </c>
+      <c r="K20" s="11">
+        <v>433.99</v>
+      </c>
+      <c r="L20">
+        <v>4.2595443037974681</v>
+      </c>
+      <c r="M20">
+        <v>4.8902924829157168</v>
+      </c>
+      <c r="N20">
+        <v>4.8914709677419355</v>
+      </c>
+      <c r="O20">
+        <v>5.3219211678832119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>1023</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>95.436507936507937</v>
+      </c>
+      <c r="E21">
+        <v>87.5</v>
+      </c>
+      <c r="F21">
+        <v>87.301587301587304</v>
+      </c>
+      <c r="G21">
+        <v>79.960317460317455</v>
+      </c>
+      <c r="H21" s="11">
+        <v>454.16</v>
+      </c>
+      <c r="I21" s="11">
+        <v>468.31</v>
+      </c>
+      <c r="J21" s="11">
+        <v>482.88</v>
+      </c>
+      <c r="K21" s="11">
+        <v>477.89</v>
+      </c>
+      <c r="L21">
+        <v>4.7587659043659043</v>
+      </c>
+      <c r="M21">
+        <v>5.3521142857142854</v>
+      </c>
+      <c r="N21">
+        <v>5.5311709090909087</v>
+      </c>
+      <c r="O21">
+        <v>5.9765895781637717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
         <v>28</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="11" t="s">
+      <c r="D22">
+        <v>97.420634920634924</v>
+      </c>
+      <c r="E22">
+        <v>94.246031746031747</v>
+      </c>
+      <c r="F22">
+        <v>95.634920634920633</v>
+      </c>
+      <c r="G22">
+        <v>94.642857142857139</v>
+      </c>
+      <c r="H22" s="11">
+        <v>463.44</v>
+      </c>
+      <c r="I22" s="11">
+        <v>481.66</v>
+      </c>
+      <c r="J22" s="11">
+        <v>471.38</v>
+      </c>
+      <c r="K22" s="11">
+        <v>482.46</v>
+      </c>
+      <c r="L22">
+        <v>4.7571030549898161</v>
+      </c>
+      <c r="M22">
+        <v>5.1106661052631583</v>
+      </c>
+      <c r="N22">
+        <v>4.9289526970954354</v>
+      </c>
+      <c r="O22">
+        <v>5.0976905660377358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>1025</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>72.023809523809518</v>
+      </c>
+      <c r="E23">
+        <v>76.984126984126988</v>
+      </c>
+      <c r="F23">
+        <v>76.587301587301582</v>
+      </c>
+      <c r="G23">
+        <v>82.142857142857139</v>
+      </c>
+      <c r="H23" s="11">
+        <v>488.53</v>
+      </c>
+      <c r="I23" s="11">
+        <v>474.78</v>
+      </c>
+      <c r="J23" s="11">
+        <v>472.04</v>
+      </c>
+      <c r="K23" s="11">
+        <v>454.94</v>
+      </c>
+      <c r="L23">
+        <v>6.7828958677685955</v>
+      </c>
+      <c r="M23">
+        <v>6.167245360824742</v>
+      </c>
+      <c r="N23">
+        <v>6.1634238341968919</v>
+      </c>
+      <c r="O23">
+        <v>5.5384000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>1026</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="D24">
+        <v>99.007936507936506</v>
+      </c>
+      <c r="E24">
+        <v>98.015873015873012</v>
+      </c>
+      <c r="F24">
+        <v>97.420634920634924</v>
+      </c>
+      <c r="G24">
+        <v>97.222222222222229</v>
+      </c>
+      <c r="H24" s="11">
+        <v>445.63</v>
+      </c>
+      <c r="I24" s="11">
+        <v>466.6</v>
+      </c>
+      <c r="J24" s="11">
+        <v>475.01</v>
+      </c>
+      <c r="K24" s="11">
+        <v>484.83</v>
+      </c>
+      <c r="L24">
+        <v>4.5009523046092186</v>
+      </c>
+      <c r="M24">
+        <v>4.7604534412955468</v>
+      </c>
+      <c r="N24">
+        <v>4.8758663951120162</v>
+      </c>
+      <c r="O24">
+        <v>4.9868228571428563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>1028</v>
+      </c>
+      <c r="B25" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C25" s="4">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>92.658730158730165</v>
+      </c>
+      <c r="E25">
+        <v>89.88095238095238</v>
+      </c>
+      <c r="F25">
+        <v>89.087301587301582</v>
+      </c>
+      <c r="G25">
+        <v>89.682539682539684</v>
+      </c>
+      <c r="H25" s="11">
+        <v>463.35</v>
+      </c>
+      <c r="I25" s="11">
+        <v>488.4</v>
+      </c>
+      <c r="J25" s="11">
+        <v>468.72</v>
+      </c>
+      <c r="K25" s="11">
+        <v>483.62</v>
+      </c>
+      <c r="L25">
+        <v>5.000608137044968</v>
+      </c>
+      <c r="M25">
+        <v>5.4338543046357612</v>
+      </c>
+      <c r="N25">
+        <v>5.2613559020044551</v>
+      </c>
+      <c r="O25">
+        <v>5.3925769911504426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>1029</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
         <v>21</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D26">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="E26">
+        <v>75.595238095238102</v>
+      </c>
+      <c r="F26">
+        <v>79.563492063492063</v>
+      </c>
+      <c r="G26">
+        <v>62.301587301587304</v>
+      </c>
+      <c r="H26" s="11">
+        <v>565.64</v>
+      </c>
+      <c r="I26" s="11">
+        <v>580.02</v>
+      </c>
+      <c r="J26" s="11">
+        <v>564.70000000000005</v>
+      </c>
+      <c r="K26" s="11">
+        <v>575.32000000000005</v>
+      </c>
+      <c r="L26">
+        <v>5.9023304347826091</v>
+      </c>
+      <c r="M26">
+        <v>7.6727055118110226</v>
+      </c>
+      <c r="N26">
+        <v>7.0974763092269333</v>
+      </c>
+      <c r="O26">
+        <v>9.2344356687898088</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>1030</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>91.865079365079367</v>
+      </c>
+      <c r="E27">
+        <v>88.293650793650798</v>
+      </c>
+      <c r="F27">
+        <v>88.293650793650798</v>
+      </c>
+      <c r="G27">
+        <v>88.69047619047619</v>
+      </c>
+      <c r="H27" s="11">
+        <v>422.24</v>
+      </c>
+      <c r="I27" s="11">
+        <v>428.15</v>
+      </c>
+      <c r="J27" s="11">
+        <v>437.93</v>
+      </c>
+      <c r="K27" s="11">
+        <v>430.46</v>
+      </c>
+      <c r="L27">
+        <v>4.5963058315334777</v>
+      </c>
+      <c r="M27">
+        <v>4.8491595505617973</v>
+      </c>
+      <c r="N27">
+        <v>4.9599262921348313</v>
+      </c>
+      <c r="O27">
+        <v>4.8535087248322144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="E28">
+        <v>92.063492063492063</v>
+      </c>
+      <c r="F28">
+        <v>87.698412698412696</v>
+      </c>
+      <c r="G28">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="H28" s="11">
+        <v>405.41</v>
+      </c>
+      <c r="I28" s="11">
+        <v>413.42</v>
+      </c>
+      <c r="J28" s="11">
+        <v>425.07</v>
+      </c>
+      <c r="K28" s="11">
+        <v>427.05</v>
+      </c>
+      <c r="L28">
+        <v>4.3941212903225813</v>
+      </c>
+      <c r="M28">
+        <v>4.4905965517241384</v>
+      </c>
+      <c r="N28">
+        <v>4.8469520361990952</v>
+      </c>
+      <c r="O28">
+        <v>4.628670967741936</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>94.642857142857139</v>
+      </c>
+      <c r="E29">
+        <v>93.055555555555557</v>
+      </c>
+      <c r="F29">
+        <v>94.642857142857139</v>
+      </c>
+      <c r="G29">
+        <v>94.047619047619051</v>
+      </c>
+      <c r="H29" s="11">
+        <v>468.19</v>
+      </c>
+      <c r="I29" s="11">
+        <v>460.73</v>
+      </c>
+      <c r="J29" s="11">
+        <v>460.93</v>
+      </c>
+      <c r="K29" s="11">
+        <v>454.64</v>
+      </c>
+      <c r="L29">
+        <v>4.94691320754717</v>
+      </c>
+      <c r="M29">
+        <v>4.9511283582089556</v>
+      </c>
+      <c r="N29">
+        <v>4.8702037735849055</v>
+      </c>
+      <c r="O29">
+        <v>4.8341468354430379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="E30">
+        <v>89.88095238095238</v>
+      </c>
+      <c r="F30">
+        <v>92.658730158730165</v>
+      </c>
+      <c r="G30">
+        <v>88.69047619047619</v>
+      </c>
+      <c r="H30" s="11">
+        <v>401.83</v>
+      </c>
+      <c r="I30" s="11">
+        <v>421.24</v>
+      </c>
+      <c r="J30" s="11">
+        <v>407.91</v>
+      </c>
+      <c r="K30" s="11">
+        <v>429.08</v>
+      </c>
+      <c r="L30">
+        <v>4.1930086956521739</v>
+      </c>
+      <c r="M30">
+        <v>4.6866437086092718</v>
+      </c>
+      <c r="N30">
+        <v>4.402283511777302</v>
+      </c>
+      <c r="O30">
+        <v>4.8379489932885908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>96.428571428571431</v>
+      </c>
+      <c r="E31">
+        <v>95.039682539682545</v>
+      </c>
+      <c r="F31">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="G31">
+        <v>97.023809523809518</v>
+      </c>
+      <c r="H31" s="11">
+        <v>518.73</v>
+      </c>
+      <c r="I31" s="11">
+        <v>507.71</v>
+      </c>
+      <c r="J31" s="11">
+        <v>520.55999999999995</v>
+      </c>
+      <c r="K31" s="11">
+        <v>502.56</v>
+      </c>
+      <c r="L31">
+        <v>5.3794222222222219</v>
+      </c>
+      <c r="M31">
+        <v>5.342084342379958</v>
+      </c>
+      <c r="N31">
+        <v>5.4319304347826085</v>
+      </c>
+      <c r="O31">
+        <v>5.1797595092024542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="E32">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="F32">
+        <v>92.460317460317455</v>
+      </c>
+      <c r="G32">
+        <v>93.849206349206355</v>
+      </c>
+      <c r="H32" s="11">
+        <v>440.13</v>
+      </c>
+      <c r="I32" s="11">
+        <v>428.68</v>
+      </c>
+      <c r="J32" s="11">
+        <v>434.32</v>
+      </c>
+      <c r="K32" s="11">
+        <v>418.66</v>
+      </c>
+      <c r="L32">
+        <v>4.770441290322581</v>
+      </c>
+      <c r="M32">
+        <v>4.6165538461538462</v>
+      </c>
+      <c r="N32">
+        <v>4.6973665236051501</v>
+      </c>
+      <c r="O32">
+        <v>4.4609860465116276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>80.158730158730165</v>
+      </c>
+      <c r="E33">
+        <v>78.968253968253961</v>
+      </c>
+      <c r="F33">
+        <v>80.158730158730165</v>
+      </c>
+      <c r="G33">
+        <v>78.968253968253961</v>
+      </c>
+      <c r="H33" s="11">
+        <v>471.05</v>
+      </c>
+      <c r="I33" s="11">
+        <v>474.8</v>
+      </c>
+      <c r="J33" s="11">
+        <v>466.19</v>
+      </c>
+      <c r="K33" s="11">
+        <v>470.32</v>
+      </c>
+      <c r="L33">
+        <v>5.876465346534653</v>
+      </c>
+      <c r="M33">
+        <v>6.0125427135678402</v>
+      </c>
+      <c r="N33">
+        <v>5.8158356435643563</v>
+      </c>
+      <c r="O33">
+        <v>5.9558110552763823</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>94.841269841269835</v>
+      </c>
+      <c r="E34">
+        <v>94.841269841269835</v>
+      </c>
+      <c r="F34">
+        <v>94.642857142857139</v>
+      </c>
+      <c r="G34">
         <v>93.253968253968253</v>
       </c>
-      <c r="E2" s="11">
+      <c r="H34" s="11">
+        <v>459.44</v>
+      </c>
+      <c r="I34" s="11">
+        <v>469.56</v>
+      </c>
+      <c r="J34" s="11">
+        <v>474.58</v>
+      </c>
+      <c r="K34" s="11">
+        <v>477.52</v>
+      </c>
+      <c r="L34">
+        <v>4.8443046025104604</v>
+      </c>
+      <c r="M34">
+        <v>4.9510092050209211</v>
+      </c>
+      <c r="N34">
+        <v>5.0144301886792455</v>
+      </c>
+      <c r="O34">
+        <v>5.1206399999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>95.238095238095241</v>
+      </c>
+      <c r="E35">
+        <v>93.055555555555557</v>
+      </c>
+      <c r="F35">
+        <v>91.269841269841265</v>
+      </c>
+      <c r="G35">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="H35" s="11">
+        <v>483.33</v>
+      </c>
+      <c r="I35" s="11">
+        <v>479.63</v>
+      </c>
+      <c r="J35" s="11">
+        <v>478.2</v>
+      </c>
+      <c r="K35" s="11">
+        <v>472.74</v>
+      </c>
+      <c r="L35">
+        <v>5.0749649999999997</v>
+      </c>
+      <c r="M35">
+        <v>5.1542328358208955</v>
+      </c>
+      <c r="N35">
+        <v>5.2394086956521742</v>
+      </c>
+      <c r="O35">
+        <v>5.225021052631579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4">
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <v>93.650793650793645</v>
+      </c>
+      <c r="E36">
+        <v>88.293650793650798</v>
+      </c>
+      <c r="F36">
+        <v>91.468253968253961</v>
+      </c>
+      <c r="G36">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="H36" s="11">
+        <v>519.61</v>
+      </c>
+      <c r="I36" s="11">
+        <v>546.4</v>
+      </c>
+      <c r="J36" s="11">
+        <v>509.96</v>
+      </c>
+      <c r="K36" s="11">
+        <v>542.12</v>
+      </c>
+      <c r="L36">
+        <v>5.548377966101695</v>
+      </c>
+      <c r="M36">
+        <v>6.1884404494382013</v>
+      </c>
+      <c r="N36">
+        <v>5.5752676789587854</v>
+      </c>
+      <c r="O36">
+        <v>5.9918526315789471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>97.61904761904762</v>
+      </c>
+      <c r="E37">
+        <v>90.277777777777771</v>
+      </c>
+      <c r="F37">
+        <v>89.087301587301582</v>
+      </c>
+      <c r="G37">
+        <v>86.111111111111114</v>
+      </c>
+      <c r="H37" s="11">
+        <v>445.63</v>
+      </c>
+      <c r="I37" s="11">
+        <v>435.65</v>
+      </c>
+      <c r="J37" s="11">
+        <v>432.25</v>
+      </c>
+      <c r="K37" s="11">
+        <v>415.5</v>
+      </c>
+      <c r="L37">
+        <v>4.5649902439024386</v>
+      </c>
+      <c r="M37">
+        <v>4.8256615384615387</v>
+      </c>
+      <c r="N37">
+        <v>4.8519821826280625</v>
+      </c>
+      <c r="O37">
+        <v>4.8251612903225807</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="E38">
+        <v>91.865079365079367</v>
+      </c>
+      <c r="F38">
+        <v>90.674603174603178</v>
+      </c>
+      <c r="G38">
+        <v>91.269841269841265</v>
+      </c>
+      <c r="H38" s="11">
+        <v>425.71</v>
+      </c>
+      <c r="I38" s="11">
+        <v>425.67</v>
+      </c>
+      <c r="J38" s="11">
+        <v>430.35</v>
+      </c>
+      <c r="K38" s="11">
+        <v>429.39</v>
+      </c>
+      <c r="L38">
+        <v>4.5845692307692305</v>
+      </c>
+      <c r="M38">
+        <v>4.6336431965442761</v>
+      </c>
+      <c r="N38">
+        <v>4.746091903719913</v>
+      </c>
+      <c r="O38">
+        <v>4.7046208695652174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>91.269841269841265</v>
+      </c>
+      <c r="E39">
+        <v>91.666666666666671</v>
+      </c>
+      <c r="F39">
         <v>93.253968253968253</v>
       </c>
-      <c r="F2" s="11">
+      <c r="G39">
+        <v>92.460317460317455</v>
+      </c>
+      <c r="H39" s="11">
+        <v>530.04999999999995</v>
+      </c>
+      <c r="I39" s="11">
+        <v>529.24</v>
+      </c>
+      <c r="J39" s="11">
+        <v>503.01</v>
+      </c>
+      <c r="K39" s="11">
+        <v>510.63</v>
+      </c>
+      <c r="L39">
+        <v>5.8075043478260868</v>
+      </c>
+      <c r="M39">
+        <v>5.7735272727272724</v>
+      </c>
+      <c r="N39">
+        <v>5.3939795744680854</v>
+      </c>
+      <c r="O39">
+        <v>5.5226935622317601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2</v>
+      </c>
+      <c r="C40" s="4">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="E40">
+        <v>91.666666666666671</v>
+      </c>
+      <c r="F40">
+        <v>89.682539682539684</v>
+      </c>
+      <c r="G40">
+        <v>85.11904761904762</v>
+      </c>
+      <c r="H40" s="11">
+        <v>479.91</v>
+      </c>
+      <c r="I40" s="11">
+        <v>480.4</v>
+      </c>
+      <c r="J40" s="11">
+        <v>492.66</v>
+      </c>
+      <c r="K40" s="11">
+        <v>479.23</v>
+      </c>
+      <c r="L40">
+        <v>5.1682615384615387</v>
+      </c>
+      <c r="M40">
+        <v>5.2407272727272725</v>
+      </c>
+      <c r="N40">
+        <v>5.4933769911504431</v>
+      </c>
+      <c r="O40">
+        <v>5.6301146853146857</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+      <c r="C41" s="4">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>95.238095238095241</v>
+      </c>
+      <c r="E41">
+        <v>91.865079365079367</v>
+      </c>
+      <c r="F41">
+        <v>91.269841269841265</v>
+      </c>
+      <c r="G41">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="H41" s="11">
+        <v>541.80999999999995</v>
+      </c>
+      <c r="I41" s="11">
+        <v>557.6</v>
+      </c>
+      <c r="J41" s="11">
+        <v>562.92999999999995</v>
+      </c>
+      <c r="K41" s="11">
+        <v>541.76</v>
+      </c>
+      <c r="L41">
+        <v>5.689004999999999</v>
+      </c>
+      <c r="M41">
+        <v>6.069771058315335</v>
+      </c>
+      <c r="N41">
+        <v>6.1677547826086956</v>
+      </c>
+      <c r="O41">
+        <v>5.87197935483871</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>90.873015873015873</v>
+      </c>
+      <c r="E42">
+        <v>90.079365079365076</v>
+      </c>
+      <c r="F42">
+        <v>90.873015873015873</v>
+      </c>
+      <c r="G42">
+        <v>91.666666666666671</v>
+      </c>
+      <c r="H42" s="11">
+        <v>446.38</v>
+      </c>
+      <c r="I42" s="11">
+        <v>439.66</v>
+      </c>
+      <c r="J42" s="11">
+        <v>443.24</v>
+      </c>
+      <c r="K42" s="11">
+        <v>430.39</v>
+      </c>
+      <c r="L42">
+        <v>4.9121292576419213</v>
+      </c>
+      <c r="M42">
+        <v>4.8808070484581503</v>
+      </c>
+      <c r="N42">
+        <v>4.8775755458515286</v>
+      </c>
+      <c r="O42">
+        <v>4.6951636363636355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="E43">
+        <v>88.69047619047619</v>
+      </c>
+      <c r="F43">
+        <v>87.896825396825392</v>
+      </c>
+      <c r="G43">
+        <v>86.904761904761898</v>
+      </c>
+      <c r="H43" s="11">
+        <v>414.01</v>
+      </c>
+      <c r="I43" s="11">
+        <v>424.46</v>
+      </c>
+      <c r="J43" s="11">
+        <v>426.39</v>
+      </c>
+      <c r="K43" s="11">
+        <v>433.18</v>
+      </c>
+      <c r="L43">
+        <v>4.4873341935483868</v>
+      </c>
+      <c r="M43">
+        <v>4.7858577181208055</v>
+      </c>
+      <c r="N43">
+        <v>4.8510284424379231</v>
+      </c>
+      <c r="O43">
+        <v>4.9845369863013707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>68.253968253968253</v>
+      </c>
+      <c r="E44">
+        <v>76.19047619047619</v>
+      </c>
+      <c r="F44">
+        <v>72.817460317460316</v>
+      </c>
+      <c r="G44">
+        <v>71.428571428571431</v>
+      </c>
+      <c r="H44" s="11">
+        <v>532.62</v>
+      </c>
+      <c r="I44" s="11">
+        <v>515.89</v>
+      </c>
+      <c r="J44" s="11">
+        <v>491.18</v>
+      </c>
+      <c r="K44" s="11">
+        <v>489.26</v>
+      </c>
+      <c r="L44">
+        <v>7.8035023255813956</v>
+      </c>
+      <c r="M44">
+        <v>6.77105625</v>
+      </c>
+      <c r="N44">
+        <v>6.7453602179836514</v>
+      </c>
+      <c r="O44">
+        <v>6.84964</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B45" s="4">
+        <v>2</v>
+      </c>
+      <c r="C45" s="4">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>89.484126984126988</v>
+      </c>
+      <c r="E45">
+        <v>86.30952380952381</v>
+      </c>
+      <c r="F45">
+        <v>91.865079365079367</v>
+      </c>
+      <c r="G45">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="H45" s="11">
+        <v>454.45</v>
+      </c>
+      <c r="I45" s="11">
+        <v>457.81</v>
+      </c>
+      <c r="J45" s="11">
+        <v>462.67</v>
+      </c>
+      <c r="K45" s="11">
+        <v>462.71</v>
+      </c>
+      <c r="L45">
+        <v>5.0785543237250552</v>
+      </c>
+      <c r="M45">
+        <v>5.3042813793103445</v>
+      </c>
+      <c r="N45">
+        <v>5.0364077753779695</v>
+      </c>
+      <c r="O45">
+        <v>5.114163157894736</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="4">
+        <v>2</v>
+      </c>
+      <c r="C46" s="4">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>73.015873015873012</v>
+      </c>
+      <c r="E46">
+        <v>71.825396825396822</v>
+      </c>
+      <c r="F46">
+        <v>87.5</v>
+      </c>
+      <c r="G46">
+        <v>89.88095238095238</v>
+      </c>
+      <c r="H46" s="11">
+        <v>482.32</v>
+      </c>
+      <c r="I46" s="11">
+        <v>453.21</v>
+      </c>
+      <c r="J46" s="11">
+        <v>459.23</v>
+      </c>
+      <c r="K46" s="11">
+        <v>443.2</v>
+      </c>
+      <c r="L46">
+        <v>6.6056869565217395</v>
+      </c>
+      <c r="M46">
+        <v>6.3098850828729285</v>
+      </c>
+      <c r="N46">
+        <v>5.2483428571428572</v>
+      </c>
+      <c r="O46">
+        <v>4.9309668874172186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B47" s="4">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4">
+        <v>22</v>
+      </c>
+      <c r="D47">
+        <v>85.11904761904762</v>
+      </c>
+      <c r="E47">
+        <v>80.555555555555557</v>
+      </c>
+      <c r="F47">
+        <v>81.547619047619051</v>
+      </c>
+      <c r="G47">
+        <v>84.325396825396822</v>
+      </c>
+      <c r="H47" s="11">
+        <v>399.1</v>
+      </c>
+      <c r="I47" s="11">
+        <v>406.56</v>
+      </c>
+      <c r="J47" s="11">
+        <v>411.65</v>
+      </c>
+      <c r="K47" s="11">
+        <v>410.41</v>
+      </c>
+      <c r="L47">
+        <v>4.6887272727272729</v>
+      </c>
+      <c r="M47">
+        <v>5.0469517241379309</v>
+      </c>
+      <c r="N47">
+        <v>5.0479708029197079</v>
+      </c>
+      <c r="O47">
+        <v>4.8669797647058832</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4">
+        <v>26</v>
+      </c>
+      <c r="D48">
+        <v>95.238095238095241</v>
+      </c>
+      <c r="E48">
         <v>95.833333333333329</v>
       </c>
-      <c r="G2" s="11">
-        <v>97.023809523809518</v>
-      </c>
-      <c r="H2" s="13">
-        <v>351.37</v>
-      </c>
-      <c r="I2" s="13">
-        <v>357.03</v>
-      </c>
-      <c r="J2" s="13">
-        <v>362</v>
-      </c>
-      <c r="K2" s="13">
-        <v>350.08</v>
-      </c>
-      <c r="L2" s="11">
-        <v>376.78825531914896</v>
-      </c>
-      <c r="M2" s="11">
-        <v>382.85770212765959</v>
-      </c>
-      <c r="N2" s="11">
-        <v>377.73913043478262</v>
-      </c>
-      <c r="O2" s="11">
-        <v>360.81865030674851</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
-        <v>23</v>
-      </c>
-      <c r="D3" s="11">
-        <v>86.111111111111114</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="F48">
+        <v>96.626984126984127</v>
+      </c>
+      <c r="G48">
+        <v>94.841269841269835</v>
+      </c>
+      <c r="H48" s="11">
+        <v>460.52</v>
+      </c>
+      <c r="I48" s="11">
+        <v>446.62</v>
+      </c>
+      <c r="J48" s="11">
+        <v>449.74</v>
+      </c>
+      <c r="K48" s="11">
+        <v>440.05</v>
+      </c>
+      <c r="L48">
+        <v>4.8354599999999994</v>
+      </c>
+      <c r="M48">
+        <v>4.6603826086956524</v>
+      </c>
+      <c r="N48">
+        <v>4.6543934291581106</v>
+      </c>
+      <c r="O48">
+        <v>4.6398577405857742</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2</v>
+      </c>
+      <c r="C49" s="4">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="E49">
+        <v>94.047619047619051</v>
+      </c>
+      <c r="F49">
+        <v>90.277777777777771</v>
+      </c>
+      <c r="G49">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="H49" s="11">
+        <v>569.39</v>
+      </c>
+      <c r="I49" s="11">
+        <v>560.66</v>
+      </c>
+      <c r="J49" s="11">
+        <v>548.61</v>
+      </c>
+      <c r="K49" s="11">
+        <v>545.52</v>
+      </c>
+      <c r="L49">
+        <v>6.1318923076923069</v>
+      </c>
+      <c r="M49">
+        <v>5.9614481012658223</v>
+      </c>
+      <c r="N49">
+        <v>6.0769107692307696</v>
+      </c>
+      <c r="O49">
+        <v>5.9127329032258062</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>2026</v>
+      </c>
+      <c r="B50" s="4">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4">
+        <v>21</v>
+      </c>
+      <c r="D50">
+        <v>96.230158730158735</v>
+      </c>
+      <c r="E50">
+        <v>92.261904761904759</v>
+      </c>
+      <c r="F50">
+        <v>92.063492063492063</v>
+      </c>
+      <c r="G50">
+        <v>95.436507936507937</v>
+      </c>
+      <c r="H50" s="11">
+        <v>426.67</v>
+      </c>
+      <c r="I50" s="11">
+        <v>441.41</v>
+      </c>
+      <c r="J50" s="11">
+        <v>455.65</v>
+      </c>
+      <c r="K50" s="11">
+        <v>453.93</v>
+      </c>
+      <c r="L50">
+        <v>4.4338490721649482</v>
+      </c>
+      <c r="M50">
+        <v>4.7843148387096779</v>
+      </c>
+      <c r="N50">
+        <v>4.9493017241379311</v>
+      </c>
+      <c r="O50">
+        <v>4.7563559251559253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>2027</v>
+      </c>
+      <c r="B51" s="4">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>94.642857142857139</v>
+      </c>
+      <c r="E51">
+        <v>95.436507936507937</v>
+      </c>
+      <c r="F51">
+        <v>94.841269841269835</v>
+      </c>
+      <c r="G51">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="H51" s="11">
+        <v>514.84</v>
+      </c>
+      <c r="I51" s="11">
+        <v>536.28</v>
+      </c>
+      <c r="J51" s="11">
+        <v>515.28</v>
+      </c>
+      <c r="K51" s="11">
+        <v>533.42999999999995</v>
+      </c>
+      <c r="L51">
+        <v>5.4398188679245285</v>
+      </c>
+      <c r="M51">
+        <v>5.6192332640332641</v>
+      </c>
+      <c r="N51">
+        <v>5.4330778242677829</v>
+      </c>
+      <c r="O51">
+        <v>5.5662260869565214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2</v>
+      </c>
+      <c r="C52" s="4">
+        <v>26</v>
+      </c>
+      <c r="D52">
+        <v>96.230158730158735</v>
+      </c>
+      <c r="E52">
+        <v>93.253968253968253</v>
+      </c>
+      <c r="F52">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="G52">
+        <v>89.88095238095238</v>
+      </c>
+      <c r="H52" s="11">
+        <v>529.86</v>
+      </c>
+      <c r="I52" s="11">
+        <v>533.4</v>
+      </c>
+      <c r="J52" s="11">
+        <v>540.21</v>
+      </c>
+      <c r="K52" s="11">
+        <v>520.08000000000004</v>
+      </c>
+      <c r="L52">
+        <v>5.5061740206185563</v>
+      </c>
+      <c r="M52">
+        <v>5.7198638297872337</v>
+      </c>
+      <c r="N52">
+        <v>5.8176461538461544</v>
+      </c>
+      <c r="O52">
+        <v>5.7863205298013254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>2029</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2</v>
+      </c>
+      <c r="C53" s="4">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>93.253968253968253</v>
+      </c>
+      <c r="E53">
+        <v>86.507936507936506</v>
+      </c>
+      <c r="F53">
+        <v>87.896825396825392</v>
+      </c>
+      <c r="G53">
+        <v>84.325396825396822</v>
+      </c>
+      <c r="H53" s="11">
+        <v>450.63</v>
+      </c>
+      <c r="I53" s="11">
+        <v>470.55</v>
+      </c>
+      <c r="J53" s="11">
+        <v>466.5</v>
+      </c>
+      <c r="K53" s="11">
+        <v>472.34</v>
+      </c>
+      <c r="L53">
+        <v>4.8322876595744679</v>
+      </c>
+      <c r="M53">
+        <v>5.439385321100918</v>
+      </c>
+      <c r="N53">
+        <v>5.307358916478556</v>
+      </c>
+      <c r="O53">
+        <v>5.6013967058823528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>2030</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2</v>
+      </c>
+      <c r="C54" s="4">
+        <v>21</v>
+      </c>
+      <c r="D54">
+        <v>93.055555555555557</v>
+      </c>
+      <c r="E54">
+        <v>92.063492063492063</v>
+      </c>
+      <c r="F54">
+        <v>90.873015873015873</v>
+      </c>
+      <c r="G54">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="H54" s="11">
+        <v>465.51</v>
+      </c>
+      <c r="I54" s="11">
+        <v>476.46</v>
+      </c>
+      <c r="J54" s="11">
+        <v>472.66</v>
+      </c>
+      <c r="K54" s="11">
+        <v>481.7</v>
+      </c>
+      <c r="L54">
+        <v>5.0024955223880596</v>
+      </c>
+      <c r="M54">
+        <v>5.1753413793103444</v>
+      </c>
+      <c r="N54">
+        <v>5.2013240174672495</v>
+      </c>
+      <c r="O54">
+        <v>5.3240526315789465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>2032</v>
+      </c>
+      <c r="B55" s="4">
+        <v>2</v>
+      </c>
+      <c r="C55" s="4">
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>95.436507936507937</v>
+      </c>
+      <c r="E55">
+        <v>93.452380952380949</v>
+      </c>
+      <c r="F55">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="G55">
+        <v>91.666666666666671</v>
+      </c>
+      <c r="H55" s="11">
+        <v>473.63</v>
+      </c>
+      <c r="I55" s="11">
+        <v>480.76</v>
+      </c>
+      <c r="J55" s="11">
+        <v>480.25</v>
+      </c>
+      <c r="K55" s="11">
+        <v>488.02</v>
+      </c>
+      <c r="L55">
+        <v>4.9627758835758833</v>
+      </c>
+      <c r="M55">
+        <v>5.14443821656051</v>
+      </c>
+      <c r="N55">
+        <v>5.1719230769230764</v>
+      </c>
+      <c r="O55">
+        <v>5.3238545454545454</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>2033</v>
+      </c>
+      <c r="B56" s="4">
+        <v>2</v>
+      </c>
+      <c r="C56" s="4">
+        <v>26</v>
+      </c>
+      <c r="D56">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="E56">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="F56">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="G56">
+        <v>93.055555555555557</v>
+      </c>
+      <c r="H56" s="11">
+        <v>434.48</v>
+      </c>
+      <c r="I56" s="11">
+        <v>410.75</v>
+      </c>
+      <c r="J56" s="11">
+        <v>431.31</v>
+      </c>
+      <c r="K56" s="11">
+        <v>421.26</v>
+      </c>
+      <c r="L56">
+        <v>4.6003764705882357</v>
+      </c>
+      <c r="M56">
+        <v>4.349117647058824</v>
+      </c>
+      <c r="N56">
+        <v>4.6448769230769225</v>
+      </c>
+      <c r="O56">
+        <v>4.5269731343283581</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>2034</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2</v>
+      </c>
+      <c r="C57" s="4">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>96.031746031746039</v>
+      </c>
+      <c r="E57">
+        <v>88.69047619047619</v>
+      </c>
+      <c r="F57">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="G57">
+        <v>87.103174603174608</v>
+      </c>
+      <c r="H57" s="11">
+        <v>401.84</v>
+      </c>
+      <c r="I57" s="11">
+        <v>429.4</v>
+      </c>
+      <c r="J57" s="11">
+        <v>433.89</v>
+      </c>
+      <c r="K57" s="11">
+        <v>449.77</v>
+      </c>
+      <c r="L57">
+        <v>4.184449586776859</v>
+      </c>
+      <c r="M57">
+        <v>4.8415570469798652</v>
+      </c>
+      <c r="N57">
+        <v>5.0620500000000002</v>
+      </c>
+      <c r="O57">
+        <v>5.1636464692482908</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>2036</v>
+      </c>
+      <c r="B58" s="4">
+        <v>2</v>
+      </c>
+      <c r="C58" s="4">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>91.071428571428569</v>
+      </c>
+      <c r="E58">
+        <v>91.865079365079367</v>
+      </c>
+      <c r="F58">
+        <v>87.103174603174608</v>
+      </c>
+      <c r="G58">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="H58" s="11">
+        <v>490.69</v>
+      </c>
+      <c r="I58" s="11">
+        <v>486.43</v>
+      </c>
+      <c r="J58" s="11">
+        <v>480.45</v>
+      </c>
+      <c r="K58" s="11">
+        <v>469.37</v>
+      </c>
+      <c r="L58">
+        <v>5.3879686274509808</v>
+      </c>
+      <c r="M58">
+        <v>5.2950479481641466</v>
+      </c>
+      <c r="N58">
+        <v>5.5158724373576309</v>
+      </c>
+      <c r="O58">
+        <v>5.1877736842105264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>2037</v>
+      </c>
+      <c r="B59" s="4">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4">
+        <v>22</v>
+      </c>
+      <c r="D59">
+        <v>70.039682539682545</v>
+      </c>
+      <c r="E59">
+        <v>72.023809523809518</v>
+      </c>
+      <c r="F59">
+        <v>70.238095238095241</v>
+      </c>
+      <c r="G59">
+        <v>70.238095238095241</v>
+      </c>
+      <c r="H59" s="11">
+        <v>442.13</v>
+      </c>
+      <c r="I59" s="11">
+        <v>434.61</v>
+      </c>
+      <c r="J59" s="11">
+        <v>439.04</v>
+      </c>
+      <c r="K59" s="11">
+        <v>437.51</v>
+      </c>
+      <c r="L59">
+        <v>6.3125643059490075</v>
+      </c>
+      <c r="M59">
+        <v>6.0342545454545462</v>
+      </c>
+      <c r="N59">
+        <v>6.2507389830508471</v>
+      </c>
+      <c r="O59">
+        <v>6.2289559322033892</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>2038</v>
+      </c>
+      <c r="B60" s="4">
+        <v>2</v>
+      </c>
+      <c r="C60" s="4">
+        <v>27</v>
+      </c>
+      <c r="D60">
+        <v>96.428571428571431</v>
+      </c>
+      <c r="E60">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="F60">
+        <v>96.428571428571431</v>
+      </c>
+      <c r="G60">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="H60" s="11">
+        <v>385.02</v>
+      </c>
+      <c r="I60" s="11">
+        <v>385.38</v>
+      </c>
+      <c r="J60" s="11">
+        <v>387.81</v>
+      </c>
+      <c r="K60" s="11">
+        <v>382.23</v>
+      </c>
+      <c r="L60">
+        <v>3.9927999999999999</v>
+      </c>
+      <c r="M60">
+        <v>4.080494117647059</v>
+      </c>
+      <c r="N60">
+        <v>4.0217333333333336</v>
+      </c>
+      <c r="O60">
+        <v>3.9884869565217396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>2039</v>
+      </c>
+      <c r="B61" s="4">
+        <v>2</v>
+      </c>
+      <c r="C61" s="4">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>95.238095238095241</v>
+      </c>
+      <c r="E61">
         <v>90.079365079365076</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F61">
         <v>92.063492063492063</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G61">
+        <v>91.666666666666671</v>
+      </c>
+      <c r="H61" s="11">
+        <v>448.18</v>
+      </c>
+      <c r="I61" s="11">
+        <v>445.3</v>
+      </c>
+      <c r="J61" s="11">
+        <v>447.3</v>
+      </c>
+      <c r="K61" s="11">
+        <v>442.1</v>
+      </c>
+      <c r="L61">
+        <v>4.7058900000000001</v>
+      </c>
+      <c r="M61">
+        <v>4.9434185022026433</v>
+      </c>
+      <c r="N61">
+        <v>4.8586034482758622</v>
+      </c>
+      <c r="O61">
+        <v>4.822909090909091</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>2040</v>
+      </c>
+      <c r="B62" s="4">
+        <v>2</v>
+      </c>
+      <c r="C62" s="4">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>92.658730158730165</v>
+      </c>
+      <c r="E62">
         <v>90.873015873015873</v>
       </c>
-      <c r="H3" s="13">
-        <v>463.71</v>
-      </c>
-      <c r="I3" s="13">
-        <v>483.8</v>
-      </c>
-      <c r="J3" s="13">
-        <v>461.24</v>
-      </c>
-      <c r="K3" s="13">
-        <v>471.29</v>
-      </c>
-      <c r="L3" s="11">
-        <v>538.50193548387097</v>
-      </c>
-      <c r="M3" s="11">
-        <v>537.08193832599125</v>
-      </c>
-      <c r="N3" s="11">
-        <v>501.00206896551725</v>
-      </c>
-      <c r="O3" s="11">
-        <v>518.6248034934498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="F62">
+        <v>90.476190476190482</v>
+      </c>
+      <c r="G62">
+        <v>90.277777777777771</v>
+      </c>
+      <c r="H62" s="11">
+        <v>481.56</v>
+      </c>
+      <c r="I62" s="11">
+        <v>492.67</v>
+      </c>
+      <c r="J62" s="11">
+        <v>508.07</v>
+      </c>
+      <c r="K62" s="11">
+        <v>504.39</v>
+      </c>
+      <c r="L62">
+        <v>5.1971357601713057</v>
+      </c>
+      <c r="M62">
+        <v>5.4215213973799132</v>
+      </c>
+      <c r="N62">
+        <v>5.6155105263157887</v>
+      </c>
+      <c r="O62">
+        <v>5.587089230769231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>2041</v>
+      </c>
+      <c r="B63" s="4">
+        <v>2</v>
+      </c>
+      <c r="C63" s="4">
         <v>21</v>
       </c>
-      <c r="D4" s="11">
-        <v>93.253968253968253</v>
-      </c>
-      <c r="E4" s="11">
-        <v>88.69047619047619</v>
-      </c>
-      <c r="F4" s="11">
-        <v>90.476190476190482</v>
-      </c>
-      <c r="G4" s="11">
-        <v>86.30952380952381</v>
-      </c>
-      <c r="H4" s="13">
-        <v>389.5</v>
-      </c>
-      <c r="I4" s="13">
-        <v>396.6</v>
-      </c>
-      <c r="J4" s="13">
-        <v>393.83</v>
-      </c>
-      <c r="K4" s="13">
-        <v>400.46</v>
-      </c>
-      <c r="L4" s="11">
-        <v>417.67659574468087</v>
-      </c>
-      <c r="M4" s="11">
-        <v>447.17315436241608</v>
-      </c>
-      <c r="N4" s="11">
-        <v>435.28578947368419</v>
-      </c>
-      <c r="O4" s="11">
-        <v>463.98124137931035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>1004</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>20</v>
-      </c>
-      <c r="D5" s="11">
-        <v>88.492063492063494</v>
-      </c>
-      <c r="E5" s="11">
-        <v>85.317460317460316</v>
-      </c>
-      <c r="F5" s="11">
-        <v>89.682539682539684</v>
-      </c>
-      <c r="G5" s="11">
-        <v>82.936507936507937</v>
-      </c>
-      <c r="H5" s="13">
-        <v>471.09</v>
-      </c>
-      <c r="I5" s="13">
-        <v>459.93</v>
-      </c>
-      <c r="J5" s="13">
-        <v>467.81</v>
-      </c>
-      <c r="K5" s="13">
-        <v>452.14</v>
-      </c>
-      <c r="L5" s="11">
-        <v>532.35282511210767</v>
-      </c>
-      <c r="M5" s="11">
-        <v>539.08074418604656</v>
-      </c>
-      <c r="N5" s="11">
-        <v>521.62884955752213</v>
-      </c>
-      <c r="O5" s="11">
-        <v>545.16401913875598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <v>21</v>
-      </c>
-      <c r="D6" s="11">
-        <v>86.706349206349202</v>
-      </c>
-      <c r="E6" s="11">
-        <v>89.682539682539684</v>
-      </c>
-      <c r="F6" s="11">
-        <v>88.293650793650798</v>
-      </c>
-      <c r="G6" s="11">
-        <v>86.706349206349202</v>
-      </c>
-      <c r="H6" s="13">
-        <v>506.48</v>
-      </c>
-      <c r="I6" s="13">
-        <v>499.01</v>
-      </c>
-      <c r="J6" s="13">
-        <v>489.29</v>
-      </c>
-      <c r="K6" s="13">
-        <v>478.75</v>
-      </c>
-      <c r="L6" s="11">
-        <v>584.13254004576663</v>
-      </c>
-      <c r="M6" s="11">
-        <v>556.41823008849553</v>
-      </c>
-      <c r="N6" s="11">
-        <v>554.1621573033708</v>
-      </c>
-      <c r="O6" s="11">
-        <v>552.1510297482838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>1006</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12">
-        <v>18</v>
-      </c>
-      <c r="D7" s="11">
-        <v>97.61904761904762</v>
-      </c>
-      <c r="E7" s="11">
-        <v>98.611111111111114</v>
-      </c>
-      <c r="F7" s="11">
-        <v>98.80952380952381</v>
-      </c>
-      <c r="G7" s="11">
-        <v>98.412698412698418</v>
-      </c>
-      <c r="H7" s="13">
-        <v>438.9</v>
-      </c>
-      <c r="I7" s="13">
-        <v>430.47</v>
-      </c>
-      <c r="J7" s="13">
-        <v>421.5</v>
-      </c>
-      <c r="K7" s="13">
-        <v>413.83</v>
-      </c>
-      <c r="L7" s="11">
-        <v>449.60487804878051</v>
-      </c>
-      <c r="M7" s="11">
-        <v>436.53295774647887</v>
-      </c>
-      <c r="N7" s="11">
-        <v>426.57831325301203</v>
-      </c>
-      <c r="O7" s="11">
-        <v>420.50467741935483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>1007</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12">
-        <v>28</v>
-      </c>
-      <c r="D8" s="11">
-        <v>94.246031746031747</v>
-      </c>
-      <c r="E8" s="11">
-        <v>89.682539682539684</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="D63">
         <v>89.285714285714292</v>
       </c>
-      <c r="G8" s="11">
-        <v>89.88095238095238</v>
-      </c>
-      <c r="H8" s="13">
-        <v>418.79</v>
-      </c>
-      <c r="I8" s="13">
-        <v>415.44</v>
-      </c>
-      <c r="J8" s="13">
-        <v>415.38</v>
-      </c>
-      <c r="K8" s="13">
-        <v>411.86</v>
-      </c>
-      <c r="L8" s="11">
-        <v>444.35823157894737</v>
-      </c>
-      <c r="M8" s="11">
-        <v>463.23398230088497</v>
-      </c>
-      <c r="N8" s="11">
-        <v>465.22559999999999</v>
-      </c>
-      <c r="O8" s="11">
-        <v>458.22834437086095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>1009</v>
-      </c>
-      <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12">
-        <v>21</v>
-      </c>
-      <c r="D9" s="11">
-        <v>92.261904761904759</v>
-      </c>
-      <c r="E9" s="11">
-        <v>89.484126984126988</v>
-      </c>
-      <c r="F9" s="11">
-        <v>90.476190476190482</v>
-      </c>
-      <c r="G9" s="11">
-        <v>91.468253968253961</v>
-      </c>
-      <c r="H9" s="13">
-        <v>382.1</v>
-      </c>
-      <c r="I9" s="13">
-        <v>374.59</v>
-      </c>
-      <c r="J9" s="13">
-        <v>386.63</v>
-      </c>
-      <c r="K9" s="13">
-        <v>374.18</v>
-      </c>
-      <c r="L9" s="11">
-        <v>414.14709677419359</v>
-      </c>
-      <c r="M9" s="11">
-        <v>418.61055432372501</v>
-      </c>
-      <c r="N9" s="11">
-        <v>427.3278947368421</v>
-      </c>
-      <c r="O9" s="11">
-        <v>409.08182212581346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>1010</v>
-      </c>
-      <c r="B10" s="12">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12">
-        <v>20</v>
-      </c>
-      <c r="D10" s="11">
-        <v>87.5</v>
-      </c>
-      <c r="E10" s="11">
-        <v>86.111111111111114</v>
-      </c>
-      <c r="F10" s="11">
-        <v>82.936507936507937</v>
-      </c>
-      <c r="G10" s="11">
-        <v>87.896825396825392</v>
-      </c>
-      <c r="H10" s="13">
-        <v>422.69</v>
-      </c>
-      <c r="I10" s="13">
-        <v>432.56</v>
-      </c>
-      <c r="J10" s="13">
-        <v>442.48</v>
-      </c>
-      <c r="K10" s="13">
-        <v>434.24</v>
-      </c>
-      <c r="L10" s="11">
-        <v>483.07428571428574</v>
-      </c>
-      <c r="M10" s="11">
-        <v>502.32774193548386</v>
-      </c>
-      <c r="N10" s="11">
-        <v>533.51655502392339</v>
-      </c>
-      <c r="O10" s="11">
-        <v>494.03376975169306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>1011</v>
-      </c>
-      <c r="B11" s="12">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12">
-        <v>20</v>
-      </c>
-      <c r="D11" s="11">
-        <v>93.849206349206355</v>
-      </c>
-      <c r="E11" s="11">
-        <v>93.055555555555557</v>
-      </c>
-      <c r="F11" s="11">
-        <v>91.865079365079367</v>
-      </c>
-      <c r="G11" s="11">
-        <v>91.071428571428569</v>
-      </c>
-      <c r="H11" s="13">
-        <v>558.61</v>
-      </c>
-      <c r="I11" s="13">
-        <v>524.54999999999995</v>
-      </c>
-      <c r="J11" s="13">
-        <v>511.62</v>
-      </c>
-      <c r="K11" s="13">
-        <v>491.53</v>
-      </c>
-      <c r="L11" s="11">
-        <v>595.2208033826638</v>
-      </c>
-      <c r="M11" s="11">
-        <v>563.69552238805966</v>
-      </c>
-      <c r="N11" s="11">
-        <v>556.92544276457886</v>
-      </c>
-      <c r="O11" s="11">
-        <v>539.71921568627454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>1012</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12">
-        <v>24</v>
-      </c>
-      <c r="D12" s="11">
-        <v>95.833333333333329</v>
-      </c>
-      <c r="E12" s="11">
-        <v>91.468253968253961</v>
-      </c>
-      <c r="F12" s="11">
-        <v>95.238095238095241</v>
-      </c>
-      <c r="G12" s="11">
-        <v>92.857142857142861</v>
-      </c>
-      <c r="H12" s="13">
-        <v>409.72</v>
-      </c>
-      <c r="I12" s="13">
-        <v>445.81</v>
-      </c>
-      <c r="J12" s="13">
-        <v>441.04</v>
-      </c>
-      <c r="K12" s="13">
-        <v>459.9</v>
-      </c>
-      <c r="L12" s="11">
-        <v>427.53391304347826</v>
-      </c>
-      <c r="M12" s="11">
-        <v>487.39314533622564</v>
-      </c>
-      <c r="N12" s="11">
-        <v>463.09199999999998</v>
-      </c>
-      <c r="O12" s="11">
-        <v>495.27692307692308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>1013</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12">
-        <v>20</v>
-      </c>
-      <c r="D13" s="11">
-        <v>95.039682539682545</v>
-      </c>
-      <c r="E13" s="11">
-        <v>94.642857142857139</v>
-      </c>
-      <c r="F13" s="11">
-        <v>92.857142857142861</v>
-      </c>
-      <c r="G13" s="11">
-        <v>94.246031746031747</v>
-      </c>
-      <c r="H13" s="13">
-        <v>445.02</v>
-      </c>
-      <c r="I13" s="13">
-        <v>454.27</v>
-      </c>
-      <c r="J13" s="13">
-        <v>447.12</v>
-      </c>
-      <c r="K13" s="13">
-        <v>452.03</v>
-      </c>
-      <c r="L13" s="11">
-        <v>468.24651356993735</v>
-      </c>
-      <c r="M13" s="11">
-        <v>479.9833962264151</v>
-      </c>
-      <c r="N13" s="11">
-        <v>481.51384615384615</v>
-      </c>
-      <c r="O13" s="11">
-        <v>479.62762105263158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>1014</v>
-      </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12">
-        <v>23</v>
-      </c>
-      <c r="D14" s="11">
-        <v>94.841269841269835</v>
-      </c>
-      <c r="E14" s="11">
-        <v>95.833333333333329</v>
-      </c>
-      <c r="F14" s="11">
-        <v>92.261904761904759</v>
-      </c>
-      <c r="G14" s="11">
-        <v>95.634920634920633</v>
-      </c>
-      <c r="H14" s="13">
-        <v>423.5</v>
-      </c>
-      <c r="I14" s="13">
-        <v>412.9</v>
-      </c>
-      <c r="J14" s="13">
-        <v>426.02</v>
-      </c>
-      <c r="K14" s="13">
-        <v>403.45</v>
-      </c>
-      <c r="L14" s="11">
-        <v>446.53556485355654</v>
-      </c>
-      <c r="M14" s="11">
-        <v>430.85217391304349</v>
-      </c>
-      <c r="N14" s="11">
-        <v>461.75070967741937</v>
-      </c>
-      <c r="O14" s="11">
-        <v>421.86473029045646</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>1015</v>
-      </c>
-      <c r="B15" s="12">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12">
-        <v>20</v>
-      </c>
-      <c r="D15" s="11">
-        <v>97.222222222222229</v>
-      </c>
-      <c r="E15" s="11">
-        <v>89.484126984126988</v>
-      </c>
-      <c r="F15" s="11">
-        <v>90.873015873015873</v>
-      </c>
-      <c r="G15" s="11">
-        <v>90.079365079365076</v>
-      </c>
-      <c r="H15" s="13">
-        <v>433.37</v>
-      </c>
-      <c r="I15" s="13">
-        <v>466.53</v>
-      </c>
-      <c r="J15" s="13">
-        <v>467.1</v>
-      </c>
-      <c r="K15" s="13">
-        <v>483.56</v>
-      </c>
-      <c r="L15" s="11">
-        <v>445.75199999999995</v>
-      </c>
-      <c r="M15" s="11">
-        <v>521.35503325942352</v>
-      </c>
-      <c r="N15" s="11">
-        <v>514.01397379912669</v>
-      </c>
-      <c r="O15" s="11">
-        <v>536.81550660792959</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>1016</v>
-      </c>
-      <c r="B16" s="12">
-        <v>1</v>
-      </c>
-      <c r="C16" s="12">
-        <v>21</v>
-      </c>
-      <c r="D16" s="11">
-        <v>89.88095238095238</v>
-      </c>
-      <c r="E16" s="11">
-        <v>85.912698412698418</v>
-      </c>
-      <c r="F16" s="11">
-        <v>84.325396825396822</v>
-      </c>
-      <c r="G16" s="11">
-        <v>86.706349206349202</v>
-      </c>
-      <c r="H16" s="13">
-        <v>429.08</v>
-      </c>
-      <c r="I16" s="13">
-        <v>441.64</v>
-      </c>
-      <c r="J16" s="13">
-        <v>430.72</v>
-      </c>
-      <c r="K16" s="13">
-        <v>440.92</v>
-      </c>
-      <c r="L16" s="11">
-        <v>477.38701986754967</v>
-      </c>
-      <c r="M16" s="11">
-        <v>514.05672055427249</v>
-      </c>
-      <c r="N16" s="11">
-        <v>510.78324705882352</v>
-      </c>
-      <c r="O16" s="11">
-        <v>508.52100686498858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>1017</v>
-      </c>
-      <c r="B17" s="12">
-        <v>1</v>
-      </c>
-      <c r="C17" s="12">
-        <v>23</v>
-      </c>
-      <c r="D17" s="11">
-        <v>95.436507936507937</v>
-      </c>
-      <c r="E17" s="11">
-        <v>89.087301587301582</v>
-      </c>
-      <c r="F17" s="11">
-        <v>90.674603174603178</v>
-      </c>
-      <c r="G17" s="11">
-        <v>88.69047619047619</v>
-      </c>
-      <c r="H17" s="13">
-        <v>401.57</v>
-      </c>
-      <c r="I17" s="13">
-        <v>415.01</v>
-      </c>
-      <c r="J17" s="13">
-        <v>412.69</v>
-      </c>
-      <c r="K17" s="13">
-        <v>419.39</v>
-      </c>
-      <c r="L17" s="11">
-        <v>420.77189189189187</v>
-      </c>
-      <c r="M17" s="11">
-        <v>465.84641425389759</v>
-      </c>
-      <c r="N17" s="11">
-        <v>455.13295404814005</v>
-      </c>
-      <c r="O17" s="11">
-        <v>472.86926174496642</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>1018</v>
-      </c>
-      <c r="B18" s="12">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12">
-        <v>28</v>
-      </c>
-      <c r="D18" s="11">
-        <v>97.61904761904762</v>
-      </c>
-      <c r="E18" s="11">
-        <v>96.230158730158735</v>
-      </c>
-      <c r="F18" s="11">
-        <v>96.031746031746039</v>
-      </c>
-      <c r="G18" s="11">
-        <v>96.230158730158735</v>
-      </c>
-      <c r="H18" s="13">
-        <v>415.21</v>
-      </c>
-      <c r="I18" s="13">
-        <v>429.84</v>
-      </c>
-      <c r="J18" s="13">
-        <v>414.89</v>
-      </c>
-      <c r="K18" s="13">
-        <v>416.64</v>
-      </c>
-      <c r="L18" s="11">
-        <v>425.33707317073168</v>
-      </c>
-      <c r="M18" s="11">
-        <v>446.67909278350515</v>
-      </c>
-      <c r="N18" s="11">
-        <v>432.03421487603305</v>
-      </c>
-      <c r="O18" s="11">
-        <v>432.96197938144326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>1021</v>
-      </c>
-      <c r="B19" s="12">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12">
-        <v>27</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="E63">
         <v>87.698412698412696</v>
       </c>
-      <c r="E19" s="11">
-        <v>84.325396825396822</v>
-      </c>
-      <c r="F19" s="11">
-        <v>81.746031746031747</v>
-      </c>
-      <c r="G19" s="11">
-        <v>82.539682539682545</v>
-      </c>
-      <c r="H19" s="13">
-        <v>405.22</v>
-      </c>
-      <c r="I19" s="13">
-        <v>410.89</v>
-      </c>
-      <c r="J19" s="13">
-        <v>409.92</v>
-      </c>
-      <c r="K19" s="13">
-        <v>405.56</v>
-      </c>
-      <c r="L19" s="11">
-        <v>462.060814479638</v>
-      </c>
-      <c r="M19" s="11">
-        <v>487.2672</v>
-      </c>
-      <c r="N19" s="11">
-        <v>501.45553398058252</v>
-      </c>
-      <c r="O19" s="11">
-        <v>491.35153846153844</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>1022</v>
-      </c>
-      <c r="B20" s="12">
-        <v>1</v>
-      </c>
-      <c r="C20" s="12">
-        <v>22</v>
-      </c>
-      <c r="D20" s="11">
-        <v>94.047619047619051</v>
-      </c>
-      <c r="E20" s="11">
-        <v>87.103174603174608</v>
-      </c>
-      <c r="F20" s="11">
-        <v>86.111111111111114</v>
-      </c>
-      <c r="G20" s="11">
-        <v>81.547619047619051</v>
-      </c>
-      <c r="H20" s="13">
-        <v>400.6</v>
-      </c>
-      <c r="I20" s="13">
-        <v>425.96</v>
-      </c>
-      <c r="J20" s="13">
-        <v>421.21</v>
-      </c>
-      <c r="K20" s="13">
-        <v>433.99</v>
-      </c>
-      <c r="L20" s="11">
-        <v>425.95443037974684</v>
-      </c>
-      <c r="M20" s="11">
-        <v>489.02924829157172</v>
-      </c>
-      <c r="N20" s="11">
-        <v>489.14709677419353</v>
-      </c>
-      <c r="O20" s="11">
-        <v>532.19211678832119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>1023</v>
-      </c>
-      <c r="B21" s="12">
-        <v>1</v>
-      </c>
-      <c r="C21" s="12">
-        <v>26</v>
-      </c>
-      <c r="D21" s="11">
-        <v>95.436507936507937</v>
-      </c>
-      <c r="E21" s="11">
-        <v>87.5</v>
-      </c>
-      <c r="F21" s="11">
-        <v>87.301587301587304</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="F63">
+        <v>87.698412698412696</v>
+      </c>
+      <c r="G63">
         <v>79.960317460317455</v>
       </c>
-      <c r="H21" s="13">
-        <v>454.16</v>
-      </c>
-      <c r="I21" s="13">
-        <v>468.31</v>
-      </c>
-      <c r="J21" s="13">
-        <v>482.88</v>
-      </c>
-      <c r="K21" s="13">
-        <v>477.89</v>
-      </c>
-      <c r="L21" s="11">
-        <v>475.87659043659045</v>
-      </c>
-      <c r="M21" s="11">
-        <v>535.21142857142854</v>
-      </c>
-      <c r="N21" s="11">
-        <v>553.11709090909085</v>
-      </c>
-      <c r="O21" s="11">
-        <v>597.65895781637721</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>1024</v>
-      </c>
-      <c r="B22" s="12">
-        <v>1</v>
-      </c>
-      <c r="C22" s="12">
-        <v>28</v>
-      </c>
-      <c r="D22" s="11">
-        <v>97.420634920634924</v>
-      </c>
-      <c r="E22" s="11">
-        <v>94.246031746031747</v>
-      </c>
-      <c r="F22" s="11">
-        <v>95.634920634920633</v>
-      </c>
-      <c r="G22" s="11">
-        <v>94.642857142857139</v>
-      </c>
-      <c r="H22" s="13">
-        <v>463.44</v>
-      </c>
-      <c r="I22" s="13">
-        <v>481.66</v>
-      </c>
-      <c r="J22" s="13">
-        <v>471.38</v>
-      </c>
-      <c r="K22" s="13">
-        <v>482.46</v>
-      </c>
-      <c r="L22" s="11">
-        <v>475.71030549898165</v>
-      </c>
-      <c r="M22" s="11">
-        <v>511.0666105263158</v>
-      </c>
-      <c r="N22" s="11">
-        <v>492.89526970954358</v>
-      </c>
-      <c r="O22" s="11">
-        <v>509.76905660377361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <v>1025</v>
-      </c>
-      <c r="B23" s="12">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12">
-        <v>23</v>
-      </c>
-      <c r="D23" s="11">
-        <v>72.023809523809518</v>
-      </c>
-      <c r="E23" s="11">
-        <v>76.984126984126988</v>
-      </c>
-      <c r="F23" s="11">
-        <v>76.587301587301582</v>
-      </c>
-      <c r="G23" s="11">
-        <v>82.142857142857139</v>
-      </c>
-      <c r="H23" s="13">
-        <v>488.53</v>
-      </c>
-      <c r="I23" s="13">
-        <v>474.78</v>
-      </c>
-      <c r="J23" s="13">
-        <v>472.04</v>
-      </c>
-      <c r="K23" s="13">
-        <v>454.94</v>
-      </c>
-      <c r="L23" s="11">
-        <v>678.28958677685955</v>
-      </c>
-      <c r="M23" s="11">
-        <v>616.72453608247417</v>
-      </c>
-      <c r="N23" s="11">
-        <v>616.34238341968921</v>
-      </c>
-      <c r="O23" s="11">
-        <v>553.84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>1026</v>
-      </c>
-      <c r="B24" s="12">
-        <v>1</v>
-      </c>
-      <c r="C24" s="12">
-        <v>30</v>
-      </c>
-      <c r="D24" s="11">
-        <v>99.007936507936506</v>
-      </c>
-      <c r="E24" s="11">
-        <v>98.015873015873012</v>
-      </c>
-      <c r="F24" s="11">
-        <v>97.420634920634924</v>
-      </c>
-      <c r="G24" s="11">
-        <v>97.222222222222229</v>
-      </c>
-      <c r="H24" s="13">
-        <v>445.63</v>
-      </c>
-      <c r="I24" s="13">
-        <v>466.6</v>
-      </c>
-      <c r="J24" s="13">
-        <v>475.01</v>
-      </c>
-      <c r="K24" s="13">
-        <v>484.83</v>
-      </c>
-      <c r="L24" s="11">
-        <v>450.09523046092187</v>
-      </c>
-      <c r="M24" s="11">
-        <v>476.04534412955468</v>
-      </c>
-      <c r="N24" s="11">
-        <v>487.58663951120161</v>
-      </c>
-      <c r="O24" s="11">
-        <v>498.68228571428568</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>1028</v>
-      </c>
-      <c r="B25" s="12">
-        <v>1</v>
-      </c>
-      <c r="C25" s="12">
-        <v>27</v>
-      </c>
-      <c r="D25" s="11">
-        <v>92.658730158730165</v>
-      </c>
-      <c r="E25" s="11">
-        <v>89.88095238095238</v>
-      </c>
-      <c r="F25" s="11">
-        <v>89.087301587301582</v>
-      </c>
-      <c r="G25" s="11">
-        <v>89.682539682539684</v>
-      </c>
-      <c r="H25" s="13">
-        <v>463.35</v>
-      </c>
-      <c r="I25" s="13">
-        <v>488.4</v>
-      </c>
-      <c r="J25" s="13">
-        <v>468.72</v>
-      </c>
-      <c r="K25" s="13">
-        <v>483.62</v>
-      </c>
-      <c r="L25" s="11">
-        <v>500.06081370449675</v>
-      </c>
-      <c r="M25" s="11">
-        <v>543.3854304635762</v>
-      </c>
-      <c r="N25" s="11">
-        <v>526.13559020044545</v>
-      </c>
-      <c r="O25" s="11">
-        <v>539.25769911504426</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>1029</v>
-      </c>
-      <c r="B26" s="12">
-        <v>1</v>
-      </c>
-      <c r="C26" s="12">
-        <v>21</v>
-      </c>
-      <c r="D26" s="11">
-        <v>95.833333333333329</v>
-      </c>
-      <c r="E26" s="11">
-        <v>75.595238095238102</v>
-      </c>
-      <c r="F26" s="11">
-        <v>79.563492063492063</v>
-      </c>
-      <c r="G26" s="11">
-        <v>62.301587301587304</v>
-      </c>
-      <c r="H26" s="13">
-        <v>565.64</v>
-      </c>
-      <c r="I26" s="13">
-        <v>580.02</v>
-      </c>
-      <c r="J26" s="13">
-        <v>564.70000000000005</v>
-      </c>
-      <c r="K26" s="13">
-        <v>575.32000000000005</v>
-      </c>
-      <c r="L26" s="11">
-        <v>590.23304347826092</v>
-      </c>
-      <c r="M26" s="11">
-        <v>767.27055118110229</v>
-      </c>
-      <c r="N26" s="11">
-        <v>709.74763092269336</v>
-      </c>
-      <c r="O26" s="11">
-        <v>923.44356687898096</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>1030</v>
-      </c>
-      <c r="B27" s="12">
-        <v>1</v>
-      </c>
-      <c r="C27" s="12">
-        <v>20</v>
-      </c>
-      <c r="D27" s="11">
-        <v>91.865079365079367</v>
-      </c>
-      <c r="E27" s="11">
-        <v>88.293650793650798</v>
-      </c>
-      <c r="F27" s="11">
-        <v>88.293650793650798</v>
-      </c>
-      <c r="G27" s="11">
-        <v>88.69047619047619</v>
-      </c>
-      <c r="H27" s="13">
-        <v>422.24</v>
-      </c>
-      <c r="I27" s="13">
-        <v>428.15</v>
-      </c>
-      <c r="J27" s="13">
-        <v>437.93</v>
-      </c>
-      <c r="K27" s="13">
-        <v>430.46</v>
-      </c>
-      <c r="L27" s="11">
-        <v>459.63058315334774</v>
-      </c>
-      <c r="M27" s="11">
-        <v>484.91595505617977</v>
-      </c>
-      <c r="N27" s="11">
-        <v>495.9926292134831</v>
-      </c>
-      <c r="O27" s="11">
-        <v>485.35087248322151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>2001</v>
-      </c>
-      <c r="B28" s="12">
-        <v>2</v>
-      </c>
-      <c r="C28" s="12">
-        <v>24</v>
-      </c>
-      <c r="D28" s="11">
-        <v>92.261904761904759</v>
-      </c>
-      <c r="E28" s="11">
-        <v>92.063492063492063</v>
-      </c>
-      <c r="F28" s="11">
-        <v>87.698412698412696</v>
-      </c>
-      <c r="G28" s="11">
-        <v>92.261904761904759</v>
-      </c>
-      <c r="H28" s="13">
-        <v>405.41</v>
-      </c>
-      <c r="I28" s="13">
-        <v>413.42</v>
-      </c>
-      <c r="J28" s="13">
-        <v>425.07</v>
-      </c>
-      <c r="K28" s="13">
-        <v>427.05</v>
-      </c>
-      <c r="L28" s="11">
-        <v>439.41212903225806</v>
-      </c>
-      <c r="M28" s="11">
-        <v>449.05965517241378</v>
-      </c>
-      <c r="N28" s="11">
-        <v>484.69520361990953</v>
-      </c>
-      <c r="O28" s="11">
-        <v>462.86709677419356</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>2002</v>
-      </c>
-      <c r="B29" s="12">
-        <v>2</v>
-      </c>
-      <c r="C29" s="12">
-        <v>20</v>
-      </c>
-      <c r="D29" s="11">
-        <v>94.642857142857139</v>
-      </c>
-      <c r="E29" s="11">
-        <v>93.055555555555557</v>
-      </c>
-      <c r="F29" s="11">
-        <v>94.642857142857139</v>
-      </c>
-      <c r="G29" s="11">
-        <v>94.047619047619051</v>
-      </c>
-      <c r="H29" s="13">
-        <v>468.19</v>
-      </c>
-      <c r="I29" s="13">
-        <v>460.73</v>
-      </c>
-      <c r="J29" s="13">
-        <v>460.93</v>
-      </c>
-      <c r="K29" s="13">
-        <v>454.64</v>
-      </c>
-      <c r="L29" s="11">
-        <v>494.69132075471703</v>
-      </c>
-      <c r="M29" s="11">
-        <v>495.1128358208955</v>
-      </c>
-      <c r="N29" s="11">
-        <v>487.02037735849058</v>
-      </c>
-      <c r="O29" s="11">
-        <v>483.41468354430378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>2003</v>
-      </c>
-      <c r="B30" s="12">
-        <v>2</v>
-      </c>
-      <c r="C30" s="12">
-        <v>24</v>
-      </c>
-      <c r="D30" s="11">
-        <v>95.833333333333329</v>
-      </c>
-      <c r="E30" s="11">
-        <v>89.88095238095238</v>
-      </c>
-      <c r="F30" s="11">
-        <v>92.658730158730165</v>
-      </c>
-      <c r="G30" s="11">
-        <v>88.69047619047619</v>
-      </c>
-      <c r="H30" s="13">
-        <v>401.83</v>
-      </c>
-      <c r="I30" s="13">
-        <v>421.24</v>
-      </c>
-      <c r="J30" s="13">
-        <v>407.91</v>
-      </c>
-      <c r="K30" s="13">
-        <v>429.08</v>
-      </c>
-      <c r="L30" s="11">
-        <v>419.3008695652174</v>
-      </c>
-      <c r="M30" s="11">
-        <v>468.66437086092714</v>
-      </c>
-      <c r="N30" s="11">
-        <v>440.22835117773019</v>
-      </c>
-      <c r="O30" s="11">
-        <v>483.79489932885906</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>2004</v>
-      </c>
-      <c r="B31" s="12">
-        <v>2</v>
-      </c>
-      <c r="C31" s="12">
-        <v>22</v>
-      </c>
-      <c r="D31" s="11">
-        <v>96.428571428571431</v>
-      </c>
-      <c r="E31" s="11">
-        <v>95.039682539682545</v>
-      </c>
-      <c r="F31" s="11">
-        <v>95.833333333333329</v>
-      </c>
-      <c r="G31" s="11">
-        <v>97.023809523809518</v>
-      </c>
-      <c r="H31" s="13">
-        <v>518.73</v>
-      </c>
-      <c r="I31" s="13">
-        <v>507.71</v>
-      </c>
-      <c r="J31" s="13">
-        <v>520.55999999999995</v>
-      </c>
-      <c r="K31" s="13">
-        <v>502.56</v>
-      </c>
-      <c r="L31" s="11">
-        <v>537.9422222222222</v>
-      </c>
-      <c r="M31" s="11">
-        <v>534.20843423799579</v>
-      </c>
-      <c r="N31" s="11">
-        <v>543.19304347826085</v>
-      </c>
-      <c r="O31" s="11">
-        <v>517.9759509202454</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>2005</v>
-      </c>
-      <c r="B32" s="12">
-        <v>2</v>
-      </c>
-      <c r="C32" s="12">
-        <v>22</v>
-      </c>
-      <c r="D32" s="11">
-        <v>92.261904761904759</v>
-      </c>
-      <c r="E32" s="11">
-        <v>92.857142857142861</v>
-      </c>
-      <c r="F32" s="11">
-        <v>92.460317460317455</v>
-      </c>
-      <c r="G32" s="11">
-        <v>93.849206349206355</v>
-      </c>
-      <c r="H32" s="13">
-        <v>440.13</v>
-      </c>
-      <c r="I32" s="13">
-        <v>428.68</v>
-      </c>
-      <c r="J32" s="13">
-        <v>434.32</v>
-      </c>
-      <c r="K32" s="13">
-        <v>418.66</v>
-      </c>
-      <c r="L32" s="11">
-        <v>477.04412903225807</v>
-      </c>
-      <c r="M32" s="11">
-        <v>461.65538461538461</v>
-      </c>
-      <c r="N32" s="11">
-        <v>469.73665236051505</v>
-      </c>
-      <c r="O32" s="11">
-        <v>446.09860465116276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B33" s="12">
-        <v>2</v>
-      </c>
-      <c r="C33" s="12">
-        <v>20</v>
-      </c>
-      <c r="D33" s="11">
-        <v>80.158730158730165</v>
-      </c>
-      <c r="E33" s="11">
-        <v>78.968253968253961</v>
-      </c>
-      <c r="F33" s="11">
-        <v>80.158730158730165</v>
-      </c>
-      <c r="G33" s="11">
-        <v>78.968253968253961</v>
-      </c>
-      <c r="H33" s="13">
-        <v>471.05</v>
-      </c>
-      <c r="I33" s="13">
-        <v>474.8</v>
-      </c>
-      <c r="J33" s="13">
-        <v>466.19</v>
-      </c>
-      <c r="K33" s="13">
-        <v>470.32</v>
-      </c>
-      <c r="L33" s="11">
-        <v>587.64653465346532</v>
-      </c>
-      <c r="M33" s="11">
-        <v>601.25427135678399</v>
-      </c>
-      <c r="N33" s="11">
-        <v>581.58356435643555</v>
-      </c>
-      <c r="O33" s="11">
-        <v>595.58110552763821</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B34" s="12">
-        <v>2</v>
-      </c>
-      <c r="C34" s="12">
-        <v>21</v>
-      </c>
-      <c r="D34" s="11">
-        <v>94.841269841269835</v>
-      </c>
-      <c r="E34" s="11">
-        <v>94.841269841269835</v>
-      </c>
-      <c r="F34" s="11">
-        <v>94.642857142857139</v>
-      </c>
-      <c r="G34" s="11">
-        <v>93.253968253968253</v>
-      </c>
-      <c r="H34" s="13">
-        <v>459.44</v>
-      </c>
-      <c r="I34" s="13">
-        <v>469.56</v>
-      </c>
-      <c r="J34" s="13">
-        <v>474.58</v>
-      </c>
-      <c r="K34" s="13">
-        <v>477.52</v>
-      </c>
-      <c r="L34" s="11">
-        <v>484.43046025104604</v>
-      </c>
-      <c r="M34" s="11">
-        <v>495.10092050209209</v>
-      </c>
-      <c r="N34" s="11">
-        <v>501.44301886792454</v>
-      </c>
-      <c r="O34" s="11">
-        <v>512.06399999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B35" s="12">
-        <v>2</v>
-      </c>
-      <c r="C35" s="12">
-        <v>20</v>
-      </c>
-      <c r="D35" s="11">
-        <v>95.238095238095241</v>
-      </c>
-      <c r="E35" s="11">
-        <v>93.055555555555557</v>
-      </c>
-      <c r="F35" s="11">
-        <v>91.269841269841265</v>
-      </c>
-      <c r="G35" s="11">
-        <v>90.476190476190482</v>
-      </c>
-      <c r="H35" s="13">
-        <v>483.33</v>
-      </c>
-      <c r="I35" s="13">
-        <v>479.63</v>
-      </c>
-      <c r="J35" s="13">
-        <v>478.2</v>
-      </c>
-      <c r="K35" s="13">
-        <v>472.74</v>
-      </c>
-      <c r="L35" s="11">
-        <v>507.49649999999997</v>
-      </c>
-      <c r="M35" s="11">
-        <v>515.42328358208954</v>
-      </c>
-      <c r="N35" s="11">
-        <v>523.94086956521744</v>
-      </c>
-      <c r="O35" s="11">
-        <v>522.50210526315789</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B36" s="12">
-        <v>2</v>
-      </c>
-      <c r="C36" s="12">
-        <v>22</v>
-      </c>
-      <c r="D36" s="11">
-        <v>93.650793650793645</v>
-      </c>
-      <c r="E36" s="11">
-        <v>88.293650793650798</v>
-      </c>
-      <c r="F36" s="11">
-        <v>91.468253968253961</v>
-      </c>
-      <c r="G36" s="11">
-        <v>90.476190476190482</v>
-      </c>
-      <c r="H36" s="13">
-        <v>519.61</v>
-      </c>
-      <c r="I36" s="13">
-        <v>546.4</v>
-      </c>
-      <c r="J36" s="13">
-        <v>509.96</v>
-      </c>
-      <c r="K36" s="13">
-        <v>542.12</v>
-      </c>
-      <c r="L36" s="11">
-        <v>554.83779661016956</v>
-      </c>
-      <c r="M36" s="11">
-        <v>618.84404494382022</v>
-      </c>
-      <c r="N36" s="11">
-        <v>557.52676789587861</v>
-      </c>
-      <c r="O36" s="11">
-        <v>599.18526315789472</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B37" s="12">
-        <v>2</v>
-      </c>
-      <c r="C37" s="12">
-        <v>20</v>
-      </c>
-      <c r="D37" s="11">
-        <v>97.61904761904762</v>
-      </c>
-      <c r="E37" s="11">
-        <v>90.277777777777771</v>
-      </c>
-      <c r="F37" s="11">
-        <v>89.087301587301582</v>
-      </c>
-      <c r="G37" s="11">
-        <v>86.111111111111114</v>
-      </c>
-      <c r="H37" s="13">
-        <v>445.63</v>
-      </c>
-      <c r="I37" s="13">
-        <v>435.65</v>
-      </c>
-      <c r="J37" s="13">
-        <v>432.25</v>
-      </c>
-      <c r="K37" s="13">
-        <v>415.5</v>
-      </c>
-      <c r="L37" s="11">
-        <v>456.4990243902439</v>
-      </c>
-      <c r="M37" s="11">
-        <v>482.5661538461539</v>
-      </c>
-      <c r="N37" s="11">
-        <v>485.19821826280628</v>
-      </c>
-      <c r="O37" s="11">
-        <v>482.51612903225805</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B38" s="12">
-        <v>2</v>
-      </c>
-      <c r="C38" s="12">
-        <v>21</v>
-      </c>
-      <c r="D38" s="11">
-        <v>92.857142857142861</v>
-      </c>
-      <c r="E38" s="11">
-        <v>91.865079365079367</v>
-      </c>
-      <c r="F38" s="11">
-        <v>90.674603174603178</v>
-      </c>
-      <c r="G38" s="11">
-        <v>91.269841269841265</v>
-      </c>
-      <c r="H38" s="13">
-        <v>425.71</v>
-      </c>
-      <c r="I38" s="13">
-        <v>425.67</v>
-      </c>
-      <c r="J38" s="13">
-        <v>430.35</v>
-      </c>
-      <c r="K38" s="13">
-        <v>429.39</v>
-      </c>
-      <c r="L38" s="11">
-        <v>458.45692307692303</v>
-      </c>
-      <c r="M38" s="11">
-        <v>463.36431965442762</v>
-      </c>
-      <c r="N38" s="11">
-        <v>474.60919037199125</v>
-      </c>
-      <c r="O38" s="11">
-        <v>470.46208695652177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B39" s="12">
-        <v>2</v>
-      </c>
-      <c r="C39" s="12">
-        <v>20</v>
-      </c>
-      <c r="D39" s="11">
-        <v>91.269841269841265</v>
-      </c>
-      <c r="E39" s="11">
-        <v>91.666666666666671</v>
-      </c>
-      <c r="F39" s="11">
-        <v>93.253968253968253</v>
-      </c>
-      <c r="G39" s="11">
-        <v>92.460317460317455</v>
-      </c>
-      <c r="H39" s="13">
-        <v>530.04999999999995</v>
-      </c>
-      <c r="I39" s="13">
-        <v>529.24</v>
-      </c>
-      <c r="J39" s="13">
-        <v>503.01</v>
-      </c>
-      <c r="K39" s="13">
-        <v>510.63</v>
-      </c>
-      <c r="L39" s="11">
-        <v>580.75043478260864</v>
-      </c>
-      <c r="M39" s="11">
-        <v>577.35272727272729</v>
-      </c>
-      <c r="N39" s="11">
-        <v>539.3979574468085</v>
-      </c>
-      <c r="O39" s="11">
-        <v>552.26935622317603</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B40" s="12">
-        <v>2</v>
-      </c>
-      <c r="C40" s="12">
-        <v>22</v>
-      </c>
-      <c r="D40" s="11">
-        <v>92.857142857142861</v>
-      </c>
-      <c r="E40" s="11">
-        <v>91.666666666666671</v>
-      </c>
-      <c r="F40" s="11">
-        <v>89.682539682539684</v>
-      </c>
-      <c r="G40" s="11">
-        <v>85.11904761904762</v>
-      </c>
-      <c r="H40" s="13">
-        <v>479.91</v>
-      </c>
-      <c r="I40" s="13">
-        <v>480.4</v>
-      </c>
-      <c r="J40" s="13">
-        <v>492.66</v>
-      </c>
-      <c r="K40" s="13">
-        <v>479.23</v>
-      </c>
-      <c r="L40" s="11">
-        <v>516.82615384615383</v>
-      </c>
-      <c r="M40" s="11">
-        <v>524.07272727272721</v>
-      </c>
-      <c r="N40" s="11">
-        <v>549.33769911504419</v>
-      </c>
-      <c r="O40" s="11">
-        <v>563.01146853146849</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B41" s="12">
-        <v>2</v>
-      </c>
-      <c r="C41" s="12">
-        <v>24</v>
-      </c>
-      <c r="D41" s="11">
-        <v>95.238095238095241</v>
-      </c>
-      <c r="E41" s="11">
-        <v>91.865079365079367</v>
-      </c>
-      <c r="F41" s="11">
-        <v>91.269841269841265</v>
-      </c>
-      <c r="G41" s="11">
-        <v>92.261904761904759</v>
-      </c>
-      <c r="H41" s="13">
-        <v>541.80999999999995</v>
-      </c>
-      <c r="I41" s="13">
-        <v>557.6</v>
-      </c>
-      <c r="J41" s="13">
-        <v>562.92999999999995</v>
-      </c>
-      <c r="K41" s="13">
-        <v>541.76</v>
-      </c>
-      <c r="L41" s="11">
-        <v>568.90049999999985</v>
-      </c>
-      <c r="M41" s="11">
-        <v>606.97710583153344</v>
-      </c>
-      <c r="N41" s="11">
-        <v>616.77547826086948</v>
-      </c>
-      <c r="O41" s="11">
-        <v>587.19793548387099</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B42" s="12">
-        <v>2</v>
-      </c>
-      <c r="C42" s="12">
-        <v>26</v>
-      </c>
-      <c r="D42" s="11">
-        <v>90.873015873015873</v>
-      </c>
-      <c r="E42" s="11">
-        <v>90.079365079365076</v>
-      </c>
-      <c r="F42" s="11">
-        <v>90.873015873015873</v>
-      </c>
-      <c r="G42" s="11">
-        <v>91.666666666666671</v>
-      </c>
-      <c r="H42" s="13">
-        <v>446.38</v>
-      </c>
-      <c r="I42" s="13">
-        <v>439.66</v>
-      </c>
-      <c r="J42" s="13">
-        <v>443.24</v>
-      </c>
-      <c r="K42" s="13">
-        <v>430.39</v>
-      </c>
-      <c r="L42" s="11">
-        <v>491.21292576419216</v>
-      </c>
-      <c r="M42" s="11">
-        <v>488.08070484581498</v>
-      </c>
-      <c r="N42" s="11">
-        <v>487.75755458515283</v>
-      </c>
-      <c r="O42" s="11">
-        <v>469.51636363636362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B43" s="12">
-        <v>2</v>
-      </c>
-      <c r="C43" s="12">
-        <v>23</v>
-      </c>
-      <c r="D43" s="11">
-        <v>92.261904761904759</v>
-      </c>
-      <c r="E43" s="11">
-        <v>88.69047619047619</v>
-      </c>
-      <c r="F43" s="11">
-        <v>87.896825396825392</v>
-      </c>
-      <c r="G43" s="11">
-        <v>86.904761904761898</v>
-      </c>
-      <c r="H43" s="13">
-        <v>414.01</v>
-      </c>
-      <c r="I43" s="13">
-        <v>424.46</v>
-      </c>
-      <c r="J43" s="13">
-        <v>426.39</v>
-      </c>
-      <c r="K43" s="13">
-        <v>433.18</v>
-      </c>
-      <c r="L43" s="11">
-        <v>448.7334193548387</v>
-      </c>
-      <c r="M43" s="11">
-        <v>478.58577181208057</v>
-      </c>
-      <c r="N43" s="11">
-        <v>485.10284424379233</v>
-      </c>
-      <c r="O43" s="11">
-        <v>498.45369863013701</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B44" s="12">
-        <v>2</v>
-      </c>
-      <c r="C44" s="12">
-        <v>27</v>
-      </c>
-      <c r="D44" s="11">
-        <v>68.253968253968253</v>
-      </c>
-      <c r="E44" s="11">
-        <v>76.19047619047619</v>
-      </c>
-      <c r="F44" s="11">
-        <v>72.817460317460316</v>
-      </c>
-      <c r="G44" s="11">
-        <v>71.428571428571431</v>
-      </c>
-      <c r="H44" s="13">
-        <v>532.62</v>
-      </c>
-      <c r="I44" s="13">
-        <v>515.89</v>
-      </c>
-      <c r="J44" s="13">
-        <v>491.18</v>
-      </c>
-      <c r="K44" s="13">
-        <v>489.26</v>
-      </c>
-      <c r="L44" s="11">
-        <v>780.35023255813951</v>
-      </c>
-      <c r="M44" s="11">
-        <v>677.10562500000003</v>
-      </c>
-      <c r="N44" s="11">
-        <v>674.53602179836514</v>
-      </c>
-      <c r="O44" s="11">
-        <v>684.96399999999994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B45" s="12">
-        <v>2</v>
-      </c>
-      <c r="C45" s="12">
-        <v>20</v>
-      </c>
-      <c r="D45" s="11">
-        <v>89.484126984126988</v>
-      </c>
-      <c r="E45" s="11">
-        <v>86.30952380952381</v>
-      </c>
-      <c r="F45" s="11">
-        <v>91.865079365079367</v>
-      </c>
-      <c r="G45" s="11">
-        <v>90.476190476190482</v>
-      </c>
-      <c r="H45" s="13">
-        <v>454.45</v>
-      </c>
-      <c r="I45" s="13">
-        <v>457.81</v>
-      </c>
-      <c r="J45" s="13">
-        <v>462.67</v>
-      </c>
-      <c r="K45" s="13">
-        <v>462.71</v>
-      </c>
-      <c r="L45" s="11">
-        <v>507.8554323725055</v>
-      </c>
-      <c r="M45" s="11">
-        <v>530.42813793103448</v>
-      </c>
-      <c r="N45" s="11">
-        <v>503.64077753779696</v>
-      </c>
-      <c r="O45" s="11">
-        <v>511.41631578947363</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
-        <v>2021</v>
-      </c>
-      <c r="B46" s="12">
-        <v>2</v>
-      </c>
-      <c r="C46" s="12">
-        <v>23</v>
-      </c>
-      <c r="D46" s="11">
-        <v>73.015873015873012</v>
-      </c>
-      <c r="E46" s="11">
-        <v>71.825396825396822</v>
-      </c>
-      <c r="F46" s="11">
-        <v>87.5</v>
-      </c>
-      <c r="G46" s="11">
-        <v>89.88095238095238</v>
-      </c>
-      <c r="H46" s="13">
-        <v>482.32</v>
-      </c>
-      <c r="I46" s="13">
-        <v>453.21</v>
-      </c>
-      <c r="J46" s="13">
-        <v>459.23</v>
-      </c>
-      <c r="K46" s="13">
-        <v>443.2</v>
-      </c>
-      <c r="L46" s="11">
-        <v>660.56869565217391</v>
-      </c>
-      <c r="M46" s="11">
-        <v>630.9885082872928</v>
-      </c>
-      <c r="N46" s="11">
-        <v>524.83428571428567</v>
-      </c>
-      <c r="O46" s="11">
-        <v>493.09668874172183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
-        <v>2022</v>
-      </c>
-      <c r="B47" s="12">
-        <v>2</v>
-      </c>
-      <c r="C47" s="12">
-        <v>22</v>
-      </c>
-      <c r="D47" s="11">
-        <v>85.11904761904762</v>
-      </c>
-      <c r="E47" s="11">
-        <v>80.555555555555557</v>
-      </c>
-      <c r="F47" s="11">
-        <v>81.547619047619051</v>
-      </c>
-      <c r="G47" s="11">
-        <v>84.325396825396822</v>
-      </c>
-      <c r="H47" s="13">
-        <v>399.1</v>
-      </c>
-      <c r="I47" s="13">
-        <v>406.56</v>
-      </c>
-      <c r="J47" s="13">
-        <v>411.65</v>
-      </c>
-      <c r="K47" s="13">
-        <v>410.41</v>
-      </c>
-      <c r="L47" s="11">
-        <v>468.87272727272727</v>
-      </c>
-      <c r="M47" s="11">
-        <v>504.6951724137931</v>
-      </c>
-      <c r="N47" s="11">
-        <v>504.79708029197076</v>
-      </c>
-      <c r="O47" s="11">
-        <v>486.69797647058823</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
-        <v>2024</v>
-      </c>
-      <c r="B48" s="12">
-        <v>2</v>
-      </c>
-      <c r="C48" s="12">
-        <v>26</v>
-      </c>
-      <c r="D48" s="11">
-        <v>95.238095238095241</v>
-      </c>
-      <c r="E48" s="11">
-        <v>95.833333333333329</v>
-      </c>
-      <c r="F48" s="11">
-        <v>96.626984126984127</v>
-      </c>
-      <c r="G48" s="11">
-        <v>94.841269841269835</v>
-      </c>
-      <c r="H48" s="13">
-        <v>460.52</v>
-      </c>
-      <c r="I48" s="13">
-        <v>446.62</v>
-      </c>
-      <c r="J48" s="13">
-        <v>449.74</v>
-      </c>
-      <c r="K48" s="13">
-        <v>440.05</v>
-      </c>
-      <c r="L48" s="11">
-        <v>483.54599999999999</v>
-      </c>
-      <c r="M48" s="11">
-        <v>466.03826086956525</v>
-      </c>
-      <c r="N48" s="11">
-        <v>465.4393429158111</v>
-      </c>
-      <c r="O48" s="11">
-        <v>463.98577405857742</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
-        <v>2025</v>
-      </c>
-      <c r="B49" s="12">
-        <v>2</v>
-      </c>
-      <c r="C49" s="12">
-        <v>27</v>
-      </c>
-      <c r="D49" s="11">
-        <v>92.857142857142861</v>
-      </c>
-      <c r="E49" s="11">
-        <v>94.047619047619051</v>
-      </c>
-      <c r="F49" s="11">
-        <v>90.277777777777771</v>
-      </c>
-      <c r="G49" s="11">
-        <v>92.261904761904759</v>
-      </c>
-      <c r="H49" s="13">
-        <v>569.39</v>
-      </c>
-      <c r="I49" s="13">
-        <v>560.66</v>
-      </c>
-      <c r="J49" s="13">
-        <v>548.61</v>
-      </c>
-      <c r="K49" s="13">
-        <v>545.52</v>
-      </c>
-      <c r="L49" s="11">
-        <v>613.18923076923079</v>
-      </c>
-      <c r="M49" s="11">
-        <v>596.14481012658223</v>
-      </c>
-      <c r="N49" s="11">
-        <v>607.69107692307693</v>
-      </c>
-      <c r="O49" s="11">
-        <v>591.27329032258069</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
-        <v>2026</v>
-      </c>
-      <c r="B50" s="12">
-        <v>2</v>
-      </c>
-      <c r="C50" s="12">
-        <v>21</v>
-      </c>
-      <c r="D50" s="11">
-        <v>96.230158730158735</v>
-      </c>
-      <c r="E50" s="11">
-        <v>92.261904761904759</v>
-      </c>
-      <c r="F50" s="11">
-        <v>92.063492063492063</v>
-      </c>
-      <c r="G50" s="11">
-        <v>95.436507936507937</v>
-      </c>
-      <c r="H50" s="13">
-        <v>426.67</v>
-      </c>
-      <c r="I50" s="13">
-        <v>441.41</v>
-      </c>
-      <c r="J50" s="13">
-        <v>455.65</v>
-      </c>
-      <c r="K50" s="13">
-        <v>453.93</v>
-      </c>
-      <c r="L50" s="11">
-        <v>443.38490721649481</v>
-      </c>
-      <c r="M50" s="11">
-        <v>478.43148387096778</v>
-      </c>
-      <c r="N50" s="11">
-        <v>494.93017241379312</v>
-      </c>
-      <c r="O50" s="11">
-        <v>475.63559251559252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
-        <v>2027</v>
-      </c>
-      <c r="B51" s="12">
-        <v>2</v>
-      </c>
-      <c r="C51" s="12">
-        <v>20</v>
-      </c>
-      <c r="D51" s="11">
-        <v>94.642857142857139</v>
-      </c>
-      <c r="E51" s="11">
-        <v>95.436507936507937</v>
-      </c>
-      <c r="F51" s="11">
-        <v>94.841269841269835</v>
-      </c>
-      <c r="G51" s="11">
-        <v>95.833333333333329</v>
-      </c>
-      <c r="H51" s="13">
-        <v>514.84</v>
-      </c>
-      <c r="I51" s="13">
-        <v>536.28</v>
-      </c>
-      <c r="J51" s="13">
-        <v>515.28</v>
-      </c>
-      <c r="K51" s="13">
-        <v>533.42999999999995</v>
-      </c>
-      <c r="L51" s="11">
-        <v>543.98188679245288</v>
-      </c>
-      <c r="M51" s="11">
-        <v>561.92332640332643</v>
-      </c>
-      <c r="N51" s="11">
-        <v>543.30778242677832</v>
-      </c>
-      <c r="O51" s="11">
-        <v>556.62260869565216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
-        <v>2028</v>
-      </c>
-      <c r="B52" s="12">
-        <v>2</v>
-      </c>
-      <c r="C52" s="12">
-        <v>26</v>
-      </c>
-      <c r="D52" s="11">
-        <v>96.230158730158735</v>
-      </c>
-      <c r="E52" s="11">
-        <v>93.253968253968253</v>
-      </c>
-      <c r="F52" s="11">
-        <v>92.857142857142861</v>
-      </c>
-      <c r="G52" s="11">
-        <v>89.88095238095238</v>
-      </c>
-      <c r="H52" s="13">
-        <v>529.86</v>
-      </c>
-      <c r="I52" s="13">
-        <v>533.4</v>
-      </c>
-      <c r="J52" s="13">
-        <v>540.21</v>
-      </c>
-      <c r="K52" s="13">
-        <v>520.08000000000004</v>
-      </c>
-      <c r="L52" s="11">
-        <v>550.61740206185561</v>
-      </c>
-      <c r="M52" s="11">
-        <v>571.98638297872344</v>
-      </c>
-      <c r="N52" s="11">
-        <v>581.76461538461535</v>
-      </c>
-      <c r="O52" s="11">
-        <v>578.63205298013258</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
-        <v>2029</v>
-      </c>
-      <c r="B53" s="12">
-        <v>2</v>
-      </c>
-      <c r="C53" s="12">
-        <v>26</v>
-      </c>
-      <c r="D53" s="11">
-        <v>93.253968253968253</v>
-      </c>
-      <c r="E53" s="11">
-        <v>86.507936507936506</v>
-      </c>
-      <c r="F53" s="11">
-        <v>87.896825396825392</v>
-      </c>
-      <c r="G53" s="11">
-        <v>84.325396825396822</v>
-      </c>
-      <c r="H53" s="13">
-        <v>450.63</v>
-      </c>
-      <c r="I53" s="13">
-        <v>470.55</v>
-      </c>
-      <c r="J53" s="13">
-        <v>466.5</v>
-      </c>
-      <c r="K53" s="13">
-        <v>472.34</v>
-      </c>
-      <c r="L53" s="11">
-        <v>483.2287659574468</v>
-      </c>
-      <c r="M53" s="11">
-        <v>543.93853211009173</v>
-      </c>
-      <c r="N53" s="11">
-        <v>530.73589164785551</v>
-      </c>
-      <c r="O53" s="11">
-        <v>560.13967058823528</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
-        <v>2030</v>
-      </c>
-      <c r="B54" s="12">
-        <v>2</v>
-      </c>
-      <c r="C54" s="12">
-        <v>21</v>
-      </c>
-      <c r="D54" s="11">
-        <v>93.055555555555557</v>
-      </c>
-      <c r="E54" s="11">
-        <v>92.063492063492063</v>
-      </c>
-      <c r="F54" s="11">
-        <v>90.873015873015873</v>
-      </c>
-      <c r="G54" s="11">
-        <v>90.476190476190482</v>
-      </c>
-      <c r="H54" s="13">
-        <v>465.51</v>
-      </c>
-      <c r="I54" s="13">
-        <v>476.46</v>
-      </c>
-      <c r="J54" s="13">
-        <v>472.66</v>
-      </c>
-      <c r="K54" s="13">
-        <v>481.7</v>
-      </c>
-      <c r="L54" s="11">
-        <v>500.24955223880596</v>
-      </c>
-      <c r="M54" s="11">
-        <v>517.53413793103448</v>
-      </c>
-      <c r="N54" s="11">
-        <v>520.1324017467249</v>
-      </c>
-      <c r="O54" s="11">
-        <v>532.40526315789475</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
-        <v>2032</v>
-      </c>
-      <c r="B55" s="12">
-        <v>2</v>
-      </c>
-      <c r="C55" s="12">
-        <v>24</v>
-      </c>
-      <c r="D55" s="11">
-        <v>95.436507936507937</v>
-      </c>
-      <c r="E55" s="11">
-        <v>93.452380952380949</v>
-      </c>
-      <c r="F55" s="11">
-        <v>92.857142857142861</v>
-      </c>
-      <c r="G55" s="11">
-        <v>91.666666666666671</v>
-      </c>
-      <c r="H55" s="13">
-        <v>473.63</v>
-      </c>
-      <c r="I55" s="13">
-        <v>480.76</v>
-      </c>
-      <c r="J55" s="13">
-        <v>480.25</v>
-      </c>
-      <c r="K55" s="13">
-        <v>488.02</v>
-      </c>
-      <c r="L55" s="11">
-        <v>496.27758835758834</v>
-      </c>
-      <c r="M55" s="11">
-        <v>514.443821656051</v>
-      </c>
-      <c r="N55" s="11">
-        <v>517.19230769230762</v>
-      </c>
-      <c r="O55" s="11">
-        <v>532.38545454545454</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
-        <v>2033</v>
-      </c>
-      <c r="B56" s="12">
-        <v>2</v>
-      </c>
-      <c r="C56" s="12">
-        <v>26</v>
-      </c>
-      <c r="D56" s="11">
-        <v>94.444444444444443</v>
-      </c>
-      <c r="E56" s="11">
-        <v>94.444444444444443</v>
-      </c>
-      <c r="F56" s="11">
-        <v>92.857142857142861</v>
-      </c>
-      <c r="G56" s="11">
-        <v>93.055555555555557</v>
-      </c>
-      <c r="H56" s="13">
-        <v>434.48</v>
-      </c>
-      <c r="I56" s="13">
-        <v>410.75</v>
-      </c>
-      <c r="J56" s="13">
-        <v>431.31</v>
-      </c>
-      <c r="K56" s="13">
-        <v>421.26</v>
-      </c>
-      <c r="L56" s="11">
-        <v>460.03764705882355</v>
-      </c>
-      <c r="M56" s="11">
-        <v>434.91176470588238</v>
-      </c>
-      <c r="N56" s="11">
-        <v>464.48769230769227</v>
-      </c>
-      <c r="O56" s="11">
-        <v>452.69731343283581</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
-        <v>2034</v>
-      </c>
-      <c r="B57" s="12">
-        <v>2</v>
-      </c>
-      <c r="C57" s="12">
-        <v>30</v>
-      </c>
-      <c r="D57" s="11">
-        <v>96.031746031746039</v>
-      </c>
-      <c r="E57" s="11">
-        <v>88.69047619047619</v>
-      </c>
-      <c r="F57" s="11">
-        <v>85.714285714285708</v>
-      </c>
-      <c r="G57" s="11">
-        <v>87.103174603174608</v>
-      </c>
-      <c r="H57" s="13">
-        <v>401.84</v>
-      </c>
-      <c r="I57" s="13">
-        <v>429.4</v>
-      </c>
-      <c r="J57" s="13">
-        <v>433.89</v>
-      </c>
-      <c r="K57" s="13">
-        <v>449.77</v>
-      </c>
-      <c r="L57" s="11">
-        <v>418.44495867768592</v>
-      </c>
-      <c r="M57" s="11">
-        <v>484.15570469798661</v>
-      </c>
-      <c r="N57" s="11">
-        <v>506.20500000000004</v>
-      </c>
-      <c r="O57" s="11">
-        <v>516.36464692482912</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
-        <v>2036</v>
-      </c>
-      <c r="B58" s="12">
-        <v>2</v>
-      </c>
-      <c r="C58" s="12">
-        <v>26</v>
-      </c>
-      <c r="D58" s="11">
-        <v>91.071428571428569</v>
-      </c>
-      <c r="E58" s="11">
-        <v>91.865079365079367</v>
-      </c>
-      <c r="F58" s="11">
-        <v>87.103174603174608</v>
-      </c>
-      <c r="G58" s="11">
-        <v>90.476190476190482</v>
-      </c>
-      <c r="H58" s="13">
-        <v>490.69</v>
-      </c>
-      <c r="I58" s="13">
-        <v>486.43</v>
-      </c>
-      <c r="J58" s="13">
-        <v>480.45</v>
-      </c>
-      <c r="K58" s="13">
-        <v>469.37</v>
-      </c>
-      <c r="L58" s="11">
-        <v>538.796862745098</v>
-      </c>
-      <c r="M58" s="11">
-        <v>529.50479481641469</v>
-      </c>
-      <c r="N58" s="11">
-        <v>551.58724373576308</v>
-      </c>
-      <c r="O58" s="11">
-        <v>518.77736842105264</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
-        <v>2037</v>
-      </c>
-      <c r="B59" s="12">
-        <v>2</v>
-      </c>
-      <c r="C59" s="12">
-        <v>22</v>
-      </c>
-      <c r="D59" s="11">
-        <v>70.039682539682545</v>
-      </c>
-      <c r="E59" s="11">
-        <v>72.023809523809518</v>
-      </c>
-      <c r="F59" s="11">
-        <v>70.238095238095241</v>
-      </c>
-      <c r="G59" s="11">
-        <v>70.238095238095241</v>
-      </c>
-      <c r="H59" s="13">
-        <v>442.13</v>
-      </c>
-      <c r="I59" s="13">
-        <v>434.61</v>
-      </c>
-      <c r="J59" s="13">
-        <v>439.04</v>
-      </c>
-      <c r="K59" s="13">
-        <v>437.51</v>
-      </c>
-      <c r="L59" s="11">
-        <v>631.25643059490085</v>
-      </c>
-      <c r="M59" s="11">
-        <v>603.42545454545461</v>
-      </c>
-      <c r="N59" s="11">
-        <v>625.07389830508475</v>
-      </c>
-      <c r="O59" s="11">
-        <v>622.89559322033892</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
-        <v>2038</v>
-      </c>
-      <c r="B60" s="12">
-        <v>2</v>
-      </c>
-      <c r="C60" s="12">
-        <v>27</v>
-      </c>
-      <c r="D60" s="11">
-        <v>96.428571428571431</v>
-      </c>
-      <c r="E60" s="11">
-        <v>94.444444444444443</v>
-      </c>
-      <c r="F60" s="11">
-        <v>96.428571428571431</v>
-      </c>
-      <c r="G60" s="11">
-        <v>95.833333333333329</v>
-      </c>
-      <c r="H60" s="13">
-        <v>385.02</v>
-      </c>
-      <c r="I60" s="13">
-        <v>385.38</v>
-      </c>
-      <c r="J60" s="13">
-        <v>387.81</v>
-      </c>
-      <c r="K60" s="13">
-        <v>382.23</v>
-      </c>
-      <c r="L60" s="11">
-        <v>399.28</v>
-      </c>
-      <c r="M60" s="11">
-        <v>408.04941176470589</v>
-      </c>
-      <c r="N60" s="11">
-        <v>402.17333333333335</v>
-      </c>
-      <c r="O60" s="11">
-        <v>398.84869565217394</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
-        <v>2039</v>
-      </c>
-      <c r="B61" s="12">
-        <v>2</v>
-      </c>
-      <c r="C61" s="12">
-        <v>26</v>
-      </c>
-      <c r="D61" s="11">
-        <v>95.238095238095241</v>
-      </c>
-      <c r="E61" s="11">
-        <v>90.079365079365076</v>
-      </c>
-      <c r="F61" s="11">
-        <v>92.063492063492063</v>
-      </c>
-      <c r="G61" s="11">
-        <v>91.666666666666671</v>
-      </c>
-      <c r="H61" s="13">
-        <v>448.18</v>
-      </c>
-      <c r="I61" s="13">
-        <v>445.3</v>
-      </c>
-      <c r="J61" s="13">
-        <v>447.3</v>
-      </c>
-      <c r="K61" s="13">
-        <v>442.1</v>
-      </c>
-      <c r="L61" s="11">
-        <v>470.589</v>
-      </c>
-      <c r="M61" s="11">
-        <v>494.34185022026435</v>
-      </c>
-      <c r="N61" s="11">
-        <v>485.86034482758623</v>
-      </c>
-      <c r="O61" s="11">
-        <v>482.29090909090905</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="12">
-        <v>2040</v>
-      </c>
-      <c r="B62" s="12">
-        <v>2</v>
-      </c>
-      <c r="C62" s="12">
-        <v>20</v>
-      </c>
-      <c r="D62" s="11">
-        <v>92.658730158730165</v>
-      </c>
-      <c r="E62" s="11">
-        <v>90.873015873015873</v>
-      </c>
-      <c r="F62" s="11">
-        <v>90.476190476190482</v>
-      </c>
-      <c r="G62" s="11">
-        <v>90.277777777777771</v>
-      </c>
-      <c r="H62" s="13">
-        <v>481.56</v>
-      </c>
-      <c r="I62" s="13">
-        <v>492.67</v>
-      </c>
-      <c r="J62" s="13">
-        <v>508.07</v>
-      </c>
-      <c r="K62" s="13">
-        <v>504.39</v>
-      </c>
-      <c r="L62" s="11">
-        <v>519.71357601713055</v>
-      </c>
-      <c r="M62" s="11">
-        <v>542.15213973799132</v>
-      </c>
-      <c r="N62" s="11">
-        <v>561.55105263157895</v>
-      </c>
-      <c r="O62" s="11">
-        <v>558.70892307692316</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="12">
-        <v>2041</v>
-      </c>
-      <c r="B63" s="12">
-        <v>2</v>
-      </c>
-      <c r="C63" s="12">
-        <v>21</v>
-      </c>
-      <c r="D63" s="11">
-        <v>89.285714285714292</v>
-      </c>
-      <c r="E63" s="11">
-        <v>87.698412698412696</v>
-      </c>
-      <c r="F63" s="11">
-        <v>87.698412698412696</v>
-      </c>
-      <c r="G63" s="11">
-        <v>79.960317460317455</v>
-      </c>
-      <c r="H63" s="13">
+      <c r="H63" s="11">
         <v>563.87</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="11">
         <v>561.66</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="11">
         <v>545.16999999999996</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K63" s="11">
         <v>556.32000000000005</v>
       </c>
-      <c r="L63" s="11">
-        <v>631.53440000000001</v>
-      </c>
-      <c r="M63" s="11">
-        <v>640.44488687782803</v>
-      </c>
-      <c r="N63" s="11">
-        <v>621.64180995475101</v>
-      </c>
-      <c r="O63" s="11">
-        <v>695.74511166253114</v>
+      <c r="L63">
+        <v>6.3153439999999996</v>
+      </c>
+      <c r="M63">
+        <v>6.4044488687782808</v>
+      </c>
+      <c r="N63">
+        <v>6.2164180995475107</v>
+      </c>
+      <c r="O63">
+        <v>6.957451116625311</v>
       </c>
     </row>
   </sheetData>
